--- a/Datasets/Classification Report/Classification Report Total.xlsx
+++ b/Datasets/Classification Report/Classification Report Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Classification Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED609ED7-6741-4248-B3C9-E5155C271D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC8B9C-3748-42D8-A9AD-4DF8DA4E94F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
+    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="96">
   <si>
     <t>Stanford</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t>Textblob NaiveBayes Analyzer</t>
+  </si>
+  <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
@@ -347,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -374,13 +389,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,118 +720,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7679C0-E6FB-4780-AA1A-EA6D9AA2FADC}">
-  <dimension ref="A1:AU57"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="40" max="40" width="9.140625" style="15"/>
+    <col min="56" max="56" width="9.140625" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
       <c r="W1" s="5"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
       <c r="AE1" s="7"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
       <c r="AM1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="14" t="s">
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="12"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="12"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="10"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="1"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
       <c r="W2" s="5"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="7"/>
       <c r="AG2" s="12"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
       <c r="AM2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="12"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="12"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -824,15 +881,15 @@
       <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -844,14 +901,14 @@
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -863,14 +920,14 @@
       <c r="T3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="15"/>
+      <c r="V3" s="18"/>
       <c r="W3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -882,14 +939,14 @@
       <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="15"/>
+      <c r="AD3" s="18"/>
       <c r="AE3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="AH3" s="12" t="s">
@@ -901,35 +958,76 @@
       <c r="AJ3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="15"/>
+      <c r="AL3" s="18"/>
       <c r="AM3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="13" t="s">
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -939,15 +1037,15 @@
       <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="9">
         <v>504</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,14 +1055,14 @@
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="2">
         <v>504</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -974,14 +1072,14 @@
       <c r="T4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="6">
         <v>504</v>
       </c>
-      <c r="Y4" s="14"/>
+      <c r="Y4" s="16"/>
       <c r="Z4" s="7" t="s">
         <v>6</v>
       </c>
@@ -991,14 +1089,14 @@
       <c r="AB4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="18"/>
       <c r="AE4" s="8">
         <v>504</v>
       </c>
-      <c r="AG4" s="14"/>
+      <c r="AG4" s="16"/>
       <c r="AH4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1008,33 +1106,70 @@
       <c r="AJ4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AK4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="15"/>
+      <c r="AL4" s="18"/>
       <c r="AM4" s="13">
         <v>504</v>
       </c>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="12" t="s">
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="14">
+        <v>504</v>
+      </c>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="14">
+        <v>504</v>
+      </c>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="BH4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="BI4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="13">
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="13">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1044,15 +1179,15 @@
       <c r="D5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="9">
         <v>496</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,14 +1197,14 @@
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="2">
         <v>496</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1079,14 +1214,14 @@
       <c r="T5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="15"/>
+      <c r="V5" s="18"/>
       <c r="W5" s="6">
         <v>496</v>
       </c>
-      <c r="Y5" s="14"/>
+      <c r="Y5" s="16"/>
       <c r="Z5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1096,14 +1231,14 @@
       <c r="AB5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="15"/>
+      <c r="AD5" s="18"/>
       <c r="AE5" s="8">
         <v>496</v>
       </c>
-      <c r="AG5" s="14"/>
+      <c r="AG5" s="16"/>
       <c r="AH5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1113,41 +1248,78 @@
       <c r="AJ5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AK5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="15"/>
+      <c r="AL5" s="18"/>
       <c r="AM5" s="13">
         <v>496</v>
       </c>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="12" t="s">
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AQ5" s="12" t="s">
+      <c r="AQ5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="14">
+        <v>496</v>
+      </c>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="14">
+        <v>496</v>
+      </c>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AR5" s="12" t="s">
+      <c r="BH5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="BI5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="13">
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="13">
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,14 +1329,14 @@
       <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="18"/>
+      <c r="M6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="20"/>
       <c r="O6" s="2">
         <v>504</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1174,14 +1346,14 @@
       <c r="T6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="15"/>
+      <c r="U6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="18"/>
       <c r="W6" s="6">
         <v>504</v>
       </c>
-      <c r="Y6" s="14"/>
+      <c r="Y6" s="16"/>
       <c r="Z6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1191,14 +1363,14 @@
       <c r="AB6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="15"/>
+      <c r="AC6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="18"/>
       <c r="AE6" s="8">
         <v>504</v>
       </c>
-      <c r="AG6" s="14"/>
+      <c r="AG6" s="16"/>
       <c r="AH6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1208,33 +1380,70 @@
       <c r="AJ6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="15"/>
+      <c r="AK6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="18"/>
       <c r="AM6" s="13">
         <v>504</v>
       </c>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="12" t="s">
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AQ6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="13">
+      <c r="AQ6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="14">
         <v>504</v>
       </c>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="14">
+        <v>504</v>
+      </c>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="13">
+        <v>504</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1242,125 +1451,171 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="16"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AG7" s="14"/>
+      <c r="AG7" s="16"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
       <c r="AK7" s="13"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="13"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="9">
         <v>1000</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="2">
         <v>1000</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="18"/>
       <c r="W8" s="6">
         <v>1000</v>
       </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="16"/>
       <c r="Z8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="15"/>
+      <c r="AD8" s="18"/>
       <c r="AE8" s="8">
         <v>1000</v>
       </c>
-      <c r="AG8" s="14"/>
+      <c r="AG8" s="16"/>
       <c r="AH8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
-      <c r="AK8" s="15" t="s">
+      <c r="AK8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AL8" s="15"/>
+      <c r="AL8" s="18"/>
       <c r="AM8" s="13">
         <v>1000</v>
       </c>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="12" t="s">
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="15" t="s">
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="13">
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1370,15 +1625,15 @@
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="9">
         <v>1000</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1388,14 +1643,14 @@
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="2">
         <v>1000</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1405,14 +1660,14 @@
       <c r="T9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="15"/>
+      <c r="V9" s="18"/>
       <c r="W9" s="6">
         <v>1000</v>
       </c>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="16"/>
       <c r="Z9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1422,14 +1677,14 @@
       <c r="AB9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AC9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="15"/>
+      <c r="AD9" s="18"/>
       <c r="AE9" s="8">
         <v>1000</v>
       </c>
-      <c r="AG9" s="14"/>
+      <c r="AG9" s="16"/>
       <c r="AH9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1439,33 +1694,70 @@
       <c r="AJ9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AK9" s="15" t="s">
+      <c r="AK9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="15"/>
+      <c r="AL9" s="18"/>
       <c r="AM9" s="13">
         <v>1000</v>
       </c>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="12" t="s">
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AQ9" s="12" t="s">
+      <c r="AQ9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AR9" s="12" t="s">
+      <c r="AR9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AS9" s="15" t="s">
+      <c r="BI9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="13">
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1475,15 +1767,15 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="9">
         <v>1000</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,14 +1785,14 @@
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="2">
         <v>1000</v>
       </c>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1510,14 +1802,14 @@
       <c r="T10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="6">
         <v>1000</v>
       </c>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="16"/>
       <c r="Z10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1527,14 +1819,14 @@
       <c r="AB10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AC10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" s="15"/>
+      <c r="AD10" s="18"/>
       <c r="AE10" s="8">
         <v>1000</v>
       </c>
-      <c r="AG10" s="14"/>
+      <c r="AG10" s="16"/>
       <c r="AH10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1544,32 +1836,69 @@
       <c r="AJ10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AK10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AL10" s="15"/>
+      <c r="AL10" s="18"/>
       <c r="AM10" s="13">
         <v>1000</v>
       </c>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="12" t="s">
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AQ10" s="12" t="s">
+      <c r="AQ10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AR10" s="12" t="s">
+      <c r="BH10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AS10" s="15" t="s">
+      <c r="BI10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="13">
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1606,16 +1935,31 @@
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="12"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1627,15 +1971,15 @@
       <c r="D12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1647,14 +1991,14 @@
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -1666,14 +2010,14 @@
       <c r="T12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="18"/>
       <c r="W12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z12" s="7" t="s">
@@ -1685,14 +2029,14 @@
       <c r="AB12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AC12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="15"/>
+      <c r="AD12" s="18"/>
       <c r="AE12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="14" t="s">
+      <c r="AG12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AH12" s="12" t="s">
@@ -1704,23 +2048,64 @@
       <c r="AJ12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK12" s="15" t="s">
+      <c r="AK12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AL12" s="15"/>
+      <c r="AL12" s="18"/>
       <c r="AM12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="12"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1730,15 +2115,15 @@
       <c r="D13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="9">
         <v>498</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1748,14 +2133,14 @@
       <c r="L13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="2">
         <v>498</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1765,14 +2150,14 @@
       <c r="T13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="15"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="6">
         <v>498</v>
       </c>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="16"/>
       <c r="Z13" s="7" t="s">
         <v>6</v>
       </c>
@@ -1782,14 +2167,14 @@
       <c r="AB13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="15" t="s">
+      <c r="AC13" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AD13" s="15"/>
+      <c r="AD13" s="18"/>
       <c r="AE13" s="8">
         <v>498</v>
       </c>
-      <c r="AG13" s="14"/>
+      <c r="AG13" s="16"/>
       <c r="AH13" s="12" t="s">
         <v>6</v>
       </c>
@@ -1799,23 +2184,60 @@
       <c r="AJ13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK13" s="15" t="s">
+      <c r="AK13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AL13" s="15"/>
+      <c r="AL13" s="18"/>
       <c r="AM13" s="13">
         <v>498</v>
       </c>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="14">
+        <v>498</v>
+      </c>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="14">
+        <v>498</v>
+      </c>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="12"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -1825,15 +2247,15 @@
       <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="9">
         <v>498</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1843,14 +2265,14 @@
       <c r="L14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="20"/>
       <c r="O14" s="2">
         <v>498</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1860,14 +2282,14 @@
       <c r="T14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="6">
         <v>498</v>
       </c>
-      <c r="Y14" s="14"/>
+      <c r="Y14" s="16"/>
       <c r="Z14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1877,14 +2299,14 @@
       <c r="AB14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC14" s="15" t="s">
+      <c r="AC14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AD14" s="15"/>
+      <c r="AD14" s="18"/>
       <c r="AE14" s="8">
         <v>498</v>
       </c>
-      <c r="AG14" s="14"/>
+      <c r="AG14" s="16"/>
       <c r="AH14" s="12" t="s">
         <v>7</v>
       </c>
@@ -1894,31 +2316,68 @@
       <c r="AJ14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="15" t="s">
+      <c r="AK14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AL14" s="15"/>
+      <c r="AL14" s="18"/>
       <c r="AM14" s="13">
         <v>498</v>
       </c>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="14">
+        <v>498</v>
+      </c>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="14">
+        <v>498</v>
+      </c>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="12"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1928,14 +2387,14 @@
       <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="18"/>
+      <c r="M15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="20"/>
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="5" t="s">
         <v>8</v>
       </c>
@@ -1945,14 +2404,14 @@
       <c r="T15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="15"/>
+      <c r="U15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="18"/>
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="16"/>
       <c r="Z15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1962,14 +2421,14 @@
       <c r="AB15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="15"/>
+      <c r="AC15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="18"/>
       <c r="AE15" s="8">
         <v>0</v>
       </c>
-      <c r="AG15" s="14"/>
+      <c r="AG15" s="16"/>
       <c r="AH15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1979,23 +2438,60 @@
       <c r="AJ15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="15"/>
+      <c r="AK15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="18"/>
       <c r="AM15" s="13">
         <v>0</v>
       </c>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="12"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2003,119 +2499,165 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="2"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="Y16" s="14"/>
+      <c r="Y16" s="16"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
-      <c r="AG16" s="14"/>
+      <c r="AG16" s="16"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="13"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="12"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="9">
         <v>996</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="18"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="2">
         <v>996</v>
       </c>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="16"/>
       <c r="R17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="V17" s="15"/>
+      <c r="V17" s="18"/>
       <c r="W17" s="6">
         <v>996</v>
       </c>
-      <c r="Y17" s="14"/>
+      <c r="Y17" s="16"/>
       <c r="Z17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="15" t="s">
+      <c r="AC17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="15"/>
+      <c r="AD17" s="18"/>
       <c r="AE17" s="8">
         <v>996</v>
       </c>
-      <c r="AG17" s="14"/>
+      <c r="AG17" s="16"/>
       <c r="AH17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
-      <c r="AK17" s="15" t="s">
+      <c r="AK17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AL17" s="15"/>
+      <c r="AL17" s="18"/>
       <c r="AM17" s="13">
         <v>996</v>
       </c>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="14">
+        <v>996</v>
+      </c>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="14">
+        <v>996</v>
+      </c>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="12"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2125,15 +2667,15 @@
       <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="9">
         <v>996</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2143,14 +2685,14 @@
       <c r="L18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="18"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="2">
         <v>996</v>
       </c>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2160,14 +2702,14 @@
       <c r="T18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="15" t="s">
+      <c r="U18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="V18" s="15"/>
+      <c r="V18" s="18"/>
       <c r="W18" s="6">
         <v>996</v>
       </c>
-      <c r="Y18" s="14"/>
+      <c r="Y18" s="16"/>
       <c r="Z18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2177,14 +2719,14 @@
       <c r="AB18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC18" s="15" t="s">
+      <c r="AC18" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="15"/>
+      <c r="AD18" s="18"/>
       <c r="AE18" s="8">
         <v>996</v>
       </c>
-      <c r="AG18" s="14"/>
+      <c r="AG18" s="16"/>
       <c r="AH18" s="12" t="s">
         <v>18</v>
       </c>
@@ -2194,23 +2736,60 @@
       <c r="AJ18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AK18" s="15" t="s">
+      <c r="AK18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="15"/>
+      <c r="AL18" s="18"/>
       <c r="AM18" s="13">
         <v>996</v>
       </c>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="12"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="14">
+        <v>996</v>
+      </c>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="14">
+        <v>996</v>
+      </c>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="12"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2220,15 +2799,15 @@
       <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="9">
         <v>996</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2238,14 +2817,14 @@
       <c r="L19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="18"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="2">
         <v>996</v>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="16"/>
       <c r="R19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2255,14 +2834,14 @@
       <c r="T19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="U19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="15"/>
+      <c r="V19" s="18"/>
       <c r="W19" s="6">
         <v>996</v>
       </c>
-      <c r="Y19" s="14"/>
+      <c r="Y19" s="16"/>
       <c r="Z19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2272,14 +2851,14 @@
       <c r="AB19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="15" t="s">
+      <c r="AC19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="15"/>
+      <c r="AD19" s="18"/>
       <c r="AE19" s="8">
         <v>996</v>
       </c>
-      <c r="AG19" s="14"/>
+      <c r="AG19" s="16"/>
       <c r="AH19" s="12" t="s">
         <v>19</v>
       </c>
@@ -2289,22 +2868,59 @@
       <c r="AJ19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="15" t="s">
+      <c r="AK19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AL19" s="15"/>
+      <c r="AL19" s="18"/>
       <c r="AM19" s="13">
         <v>996</v>
       </c>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="12"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="12"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="14">
+        <v>996</v>
+      </c>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="14">
+        <v>996</v>
+      </c>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="12"/>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2341,16 +2957,31 @@
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="12"/>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2362,15 +2993,15 @@
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="19" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -2382,14 +3013,14 @@
       <c r="L21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="18"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -2401,14 +3032,14 @@
       <c r="T21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="15"/>
+      <c r="V21" s="18"/>
       <c r="W21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="14" t="s">
+      <c r="Y21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="7" t="s">
@@ -2420,14 +3051,14 @@
       <c r="AB21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="15" t="s">
+      <c r="AC21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="15"/>
+      <c r="AD21" s="18"/>
       <c r="AE21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG21" s="14" t="s">
+      <c r="AG21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="AH21" s="12" t="s">
@@ -2439,23 +3070,64 @@
       <c r="AJ21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK21" s="15" t="s">
+      <c r="AK21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="15"/>
+      <c r="AL21" s="18"/>
       <c r="AM21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="12"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
@@ -2465,15 +3137,15 @@
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="9">
         <v>500</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2483,14 +3155,14 @@
       <c r="L22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="18"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="2">
         <v>500</v>
       </c>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="16"/>
       <c r="R22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2500,14 +3172,14 @@
       <c r="T22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="15"/>
+      <c r="V22" s="18"/>
       <c r="W22" s="6">
         <v>500</v>
       </c>
-      <c r="Y22" s="14"/>
+      <c r="Y22" s="16"/>
       <c r="Z22" s="7" t="s">
         <v>6</v>
       </c>
@@ -2517,14 +3189,14 @@
       <c r="AB22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="15" t="s">
+      <c r="AC22" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="AD22" s="15"/>
+      <c r="AD22" s="18"/>
       <c r="AE22" s="8">
         <v>500</v>
       </c>
-      <c r="AG22" s="14"/>
+      <c r="AG22" s="16"/>
       <c r="AH22" s="12" t="s">
         <v>6</v>
       </c>
@@ -2534,23 +3206,60 @@
       <c r="AJ22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AK22" s="15" t="s">
+      <c r="AK22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AL22" s="15"/>
+      <c r="AL22" s="18"/>
       <c r="AM22" s="13">
         <v>500</v>
       </c>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="14">
+        <v>500</v>
+      </c>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="14">
+        <v>500</v>
+      </c>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="12"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
@@ -2560,15 +3269,15 @@
       <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="9">
         <v>500</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2578,14 +3287,14 @@
       <c r="L23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="18"/>
+      <c r="N23" s="20"/>
       <c r="O23" s="2">
         <v>500</v>
       </c>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="5" t="s">
         <v>7</v>
       </c>
@@ -2595,14 +3304,14 @@
       <c r="T23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="15"/>
+      <c r="V23" s="18"/>
       <c r="W23" s="6">
         <v>500</v>
       </c>
-      <c r="Y23" s="14"/>
+      <c r="Y23" s="16"/>
       <c r="Z23" s="7" t="s">
         <v>7</v>
       </c>
@@ -2612,14 +3321,14 @@
       <c r="AB23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC23" s="15" t="s">
+      <c r="AC23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="15"/>
+      <c r="AD23" s="18"/>
       <c r="AE23" s="8">
         <v>500</v>
       </c>
-      <c r="AG23" s="14"/>
+      <c r="AG23" s="16"/>
       <c r="AH23" s="12" t="s">
         <v>7</v>
       </c>
@@ -2629,23 +3338,60 @@
       <c r="AJ23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AK23" s="15" t="s">
+      <c r="AK23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AL23" s="15"/>
+      <c r="AL23" s="18"/>
       <c r="AM23" s="13">
         <v>500</v>
       </c>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="14">
+        <v>500</v>
+      </c>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="14">
+        <v>500</v>
+      </c>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="12"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
       <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
@@ -2655,13 +3401,13 @@
       <c r="D24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="E24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2671,12 +3417,12 @@
       <c r="L24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="18"/>
+      <c r="M24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="20"/>
       <c r="O24" s="2"/>
-      <c r="Q24" s="14"/>
+      <c r="Q24" s="16"/>
       <c r="R24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2686,12 +3432,12 @@
       <c r="T24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" s="15"/>
+      <c r="U24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="18"/>
       <c r="W24" s="6"/>
-      <c r="Y24" s="14"/>
+      <c r="Y24" s="16"/>
       <c r="Z24" s="7" t="s">
         <v>8</v>
       </c>
@@ -2701,12 +3447,12 @@
       <c r="AB24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="15"/>
+      <c r="AC24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="18"/>
       <c r="AE24" s="8"/>
-      <c r="AG24" s="14"/>
+      <c r="AG24" s="16"/>
       <c r="AH24" s="12" t="s">
         <v>8</v>
       </c>
@@ -2716,21 +3462,54 @@
       <c r="AJ24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL24" s="15"/>
+      <c r="AK24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="18"/>
       <c r="AM24" s="13"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="12"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -2738,119 +3517,165 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="2"/>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="16"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="Y25" s="14"/>
+      <c r="Y25" s="16"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AG25" s="14"/>
+      <c r="AG25" s="16"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="13"/>
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="12"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
       <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="9">
         <v>1000</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="18"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="2">
         <v>1000</v>
       </c>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="15"/>
+      <c r="V26" s="18"/>
       <c r="W26" s="6">
         <v>1000</v>
       </c>
-      <c r="Y26" s="14"/>
+      <c r="Y26" s="16"/>
       <c r="Z26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="15" t="s">
+      <c r="AC26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AD26" s="15"/>
+      <c r="AD26" s="18"/>
       <c r="AE26" s="8">
         <v>1000</v>
       </c>
-      <c r="AG26" s="14"/>
+      <c r="AG26" s="16"/>
       <c r="AH26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="15" t="s">
+      <c r="AK26" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AL26" s="15"/>
+      <c r="AL26" s="18"/>
       <c r="AM26" s="13">
         <v>1000</v>
       </c>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="12"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
@@ -2860,15 +3685,15 @@
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="9">
         <v>1000</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2878,14 +3703,14 @@
       <c r="L27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="18"/>
+      <c r="N27" s="20"/>
       <c r="O27" s="2">
         <v>1000</v>
       </c>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="16"/>
       <c r="R27" s="5" t="s">
         <v>18</v>
       </c>
@@ -2895,14 +3720,14 @@
       <c r="T27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U27" s="15" t="s">
+      <c r="U27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="V27" s="15"/>
+      <c r="V27" s="18"/>
       <c r="W27" s="6">
         <v>1000</v>
       </c>
-      <c r="Y27" s="14"/>
+      <c r="Y27" s="16"/>
       <c r="Z27" s="7" t="s">
         <v>18</v>
       </c>
@@ -2912,14 +3737,14 @@
       <c r="AB27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC27" s="15" t="s">
+      <c r="AC27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AD27" s="15"/>
+      <c r="AD27" s="18"/>
       <c r="AE27" s="8">
         <v>1000</v>
       </c>
-      <c r="AG27" s="14"/>
+      <c r="AG27" s="16"/>
       <c r="AH27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2929,23 +3754,60 @@
       <c r="AJ27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AK27" s="15" t="s">
+      <c r="AK27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AL27" s="15"/>
+      <c r="AL27" s="18"/>
       <c r="AM27" s="13">
         <v>1000</v>
       </c>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="12"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
       <c r="B28" s="10" t="s">
         <v>19</v>
       </c>
@@ -2955,15 +3817,15 @@
       <c r="D28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="9">
         <v>1000</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2973,14 +3835,14 @@
       <c r="L28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="18"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="2">
         <v>1000</v>
       </c>
-      <c r="Q28" s="14"/>
+      <c r="Q28" s="16"/>
       <c r="R28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2990,14 +3852,14 @@
       <c r="T28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="V28" s="15"/>
+      <c r="V28" s="18"/>
       <c r="W28" s="6">
         <v>1000</v>
       </c>
-      <c r="Y28" s="14"/>
+      <c r="Y28" s="16"/>
       <c r="Z28" s="7" t="s">
         <v>19</v>
       </c>
@@ -3007,14 +3869,14 @@
       <c r="AB28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="15" t="s">
+      <c r="AC28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AD28" s="15"/>
+      <c r="AD28" s="18"/>
       <c r="AE28" s="8">
         <v>1000</v>
       </c>
-      <c r="AG28" s="14"/>
+      <c r="AG28" s="16"/>
       <c r="AH28" s="12" t="s">
         <v>19</v>
       </c>
@@ -3024,22 +3886,59 @@
       <c r="AJ28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK28" s="15" t="s">
+      <c r="AK28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AL28" s="15"/>
+      <c r="AL28" s="18"/>
       <c r="AM28" s="13">
         <v>1000</v>
       </c>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="16"/>
+      <c r="AP28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS28" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="16"/>
+      <c r="AX28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA28" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="12"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3076,16 +3975,31 @@
       <c r="AK29" s="12"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="12"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3097,15 +4011,15 @@
       <c r="D30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -3117,14 +4031,14 @@
       <c r="L30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="16"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -3136,14 +4050,14 @@
       <c r="T30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="U30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V30" s="16"/>
+      <c r="V30" s="17"/>
       <c r="W30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="14" t="s">
+      <c r="Y30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="Z30" s="7" t="s">
@@ -3155,14 +4069,14 @@
       <c r="AB30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="16" t="s">
+      <c r="AC30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD30" s="16"/>
+      <c r="AD30" s="17"/>
       <c r="AE30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG30" s="14" t="s">
+      <c r="AG30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AH30" s="12" t="s">
@@ -3174,23 +4088,64 @@
       <c r="AJ30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK30" s="16" t="s">
+      <c r="AK30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AL30" s="16"/>
+      <c r="AL30" s="17"/>
       <c r="AM30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="12"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="12"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
       <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
@@ -3200,15 +4155,15 @@
       <c r="D31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="10">
         <v>167</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="10" t="s">
         <v>6</v>
       </c>
@@ -3218,14 +4173,14 @@
       <c r="L31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="15"/>
+      <c r="N31" s="18"/>
       <c r="O31" s="3">
         <v>167</v>
       </c>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="5" t="s">
         <v>6</v>
       </c>
@@ -3235,14 +4190,14 @@
       <c r="T31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U31" s="15" t="s">
+      <c r="U31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="V31" s="15"/>
+      <c r="V31" s="18"/>
       <c r="W31" s="5">
         <v>167</v>
       </c>
-      <c r="Y31" s="14"/>
+      <c r="Y31" s="16"/>
       <c r="Z31" s="7" t="s">
         <v>6</v>
       </c>
@@ -3252,14 +4207,14 @@
       <c r="AB31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC31" s="15" t="s">
+      <c r="AC31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AD31" s="15"/>
+      <c r="AD31" s="18"/>
       <c r="AE31" s="7">
         <v>167</v>
       </c>
-      <c r="AG31" s="14"/>
+      <c r="AG31" s="16"/>
       <c r="AH31" s="12" t="s">
         <v>6</v>
       </c>
@@ -3269,23 +4224,58 @@
       <c r="AJ31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK31" s="15" t="s">
+      <c r="AK31" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AL31" s="15"/>
+      <c r="AL31" s="18"/>
       <c r="AM31" s="12">
         <v>167</v>
       </c>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="12"/>
+      <c r="AO31" s="16"/>
+      <c r="AP31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="15">
+        <v>167</v>
+      </c>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="16"/>
+      <c r="AX31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB31" s="18"/>
+      <c r="BC31" s="15">
+        <v>167</v>
+      </c>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="12"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
       <c r="B32" s="10" t="s">
         <v>7</v>
       </c>
@@ -3295,15 +4285,15 @@
       <c r="D32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="10">
         <v>769</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="17"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="10" t="s">
         <v>7</v>
       </c>
@@ -3313,14 +4303,14 @@
       <c r="L32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="15"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="3">
         <v>769</v>
       </c>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="5" t="s">
         <v>7</v>
       </c>
@@ -3330,14 +4320,14 @@
       <c r="T32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U32" s="15" t="s">
+      <c r="U32" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="V32" s="15"/>
+      <c r="V32" s="18"/>
       <c r="W32" s="5">
         <v>769</v>
       </c>
-      <c r="Y32" s="14"/>
+      <c r="Y32" s="16"/>
       <c r="Z32" s="7" t="s">
         <v>7</v>
       </c>
@@ -3347,14 +4337,14 @@
       <c r="AB32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AC32" s="15" t="s">
+      <c r="AC32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AD32" s="15"/>
+      <c r="AD32" s="18"/>
       <c r="AE32" s="7">
         <v>769</v>
       </c>
-      <c r="AG32" s="14"/>
+      <c r="AG32" s="16"/>
       <c r="AH32" s="12" t="s">
         <v>7</v>
       </c>
@@ -3364,23 +4354,58 @@
       <c r="AJ32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AK32" s="15" t="s">
+      <c r="AK32" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AL32" s="15"/>
+      <c r="AL32" s="18"/>
       <c r="AM32" s="12">
         <v>769</v>
       </c>
-      <c r="AO32" s="12"/>
-      <c r="AP32" s="12"/>
-      <c r="AQ32" s="12"/>
-      <c r="AR32" s="12"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
-      <c r="AU32" s="12"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT32" s="18"/>
+      <c r="AU32" s="15">
+        <v>769</v>
+      </c>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB32" s="18"/>
+      <c r="BC32" s="15">
+        <v>769</v>
+      </c>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="12"/>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
       <c r="B33" s="10" t="s">
         <v>8</v>
       </c>
@@ -3390,15 +4415,15 @@
       <c r="D33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="E33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="17"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="10" t="s">
         <v>8</v>
       </c>
@@ -3408,14 +4433,14 @@
       <c r="L33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="15"/>
+      <c r="M33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="18"/>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="5" t="s">
         <v>8</v>
       </c>
@@ -3425,14 +4450,14 @@
       <c r="T33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="15"/>
+      <c r="U33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="18"/>
       <c r="W33" s="5">
         <v>0</v>
       </c>
-      <c r="Y33" s="14"/>
+      <c r="Y33" s="16"/>
       <c r="Z33" s="7" t="s">
         <v>8</v>
       </c>
@@ -3442,14 +4467,14 @@
       <c r="AB33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD33" s="15"/>
+      <c r="AC33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="18"/>
       <c r="AE33" s="7">
         <v>0</v>
       </c>
-      <c r="AG33" s="14"/>
+      <c r="AG33" s="16"/>
       <c r="AH33" s="12" t="s">
         <v>8</v>
       </c>
@@ -3459,23 +4484,58 @@
       <c r="AJ33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL33" s="15"/>
+      <c r="AK33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL33" s="18"/>
       <c r="AM33" s="12">
         <v>0</v>
       </c>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="12"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT33" s="18"/>
+      <c r="AU33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB33" s="18"/>
+      <c r="BC33" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="12"/>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -3483,119 +4543,161 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="17"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="5"/>
-      <c r="Y34" s="14"/>
+      <c r="Y34" s="16"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="7"/>
-      <c r="AG34" s="14"/>
+      <c r="AG34" s="16"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
-      <c r="AU34" s="12"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="12"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
       <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="10">
         <v>936</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="15"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="3">
         <v>936</v>
       </c>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="15" t="s">
+      <c r="U35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="V35" s="15"/>
+      <c r="V35" s="18"/>
       <c r="W35" s="5">
         <v>936</v>
       </c>
-      <c r="Y35" s="14"/>
+      <c r="Y35" s="16"/>
       <c r="Z35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="15" t="s">
+      <c r="AC35" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AD35" s="15"/>
+      <c r="AD35" s="18"/>
       <c r="AE35" s="7">
         <v>936</v>
       </c>
-      <c r="AG35" s="14"/>
+      <c r="AG35" s="16"/>
       <c r="AH35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="15" t="s">
+      <c r="AK35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AL35" s="15"/>
+      <c r="AL35" s="18"/>
       <c r="AM35" s="12">
         <v>936</v>
       </c>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
-      <c r="AU35" s="12"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="15">
+        <v>936</v>
+      </c>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="15">
+        <v>936</v>
+      </c>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="12"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
       <c r="B36" s="10" t="s">
         <v>18</v>
       </c>
@@ -3605,15 +4707,15 @@
       <c r="D36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="10">
         <v>936</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="1" t="s">
         <v>18</v>
       </c>
@@ -3623,14 +4725,14 @@
       <c r="L36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="15"/>
+      <c r="N36" s="18"/>
       <c r="O36" s="3">
         <v>936</v>
       </c>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="5" t="s">
         <v>18</v>
       </c>
@@ -3640,14 +4742,14 @@
       <c r="T36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="15" t="s">
+      <c r="U36" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="V36" s="15"/>
+      <c r="V36" s="18"/>
       <c r="W36" s="5">
         <v>936</v>
       </c>
-      <c r="Y36" s="14"/>
+      <c r="Y36" s="16"/>
       <c r="Z36" s="7" t="s">
         <v>18</v>
       </c>
@@ -3657,14 +4759,14 @@
       <c r="AB36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AC36" s="15" t="s">
+      <c r="AC36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AD36" s="15"/>
+      <c r="AD36" s="18"/>
       <c r="AE36" s="7">
         <v>936</v>
       </c>
-      <c r="AG36" s="14"/>
+      <c r="AG36" s="16"/>
       <c r="AH36" s="12" t="s">
         <v>18</v>
       </c>
@@ -3674,23 +4776,58 @@
       <c r="AJ36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AK36" s="15" t="s">
+      <c r="AK36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" s="15"/>
+      <c r="AL36" s="18"/>
       <c r="AM36" s="12">
         <v>936</v>
       </c>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS36" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="15">
+        <v>936</v>
+      </c>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA36" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="15">
+        <v>936</v>
+      </c>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="12"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
@@ -3700,15 +4837,15 @@
       <c r="D37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="10">
         <v>936</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
@@ -3718,14 +4855,14 @@
       <c r="L37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="15"/>
+      <c r="N37" s="18"/>
       <c r="O37" s="3">
         <v>936</v>
       </c>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="16"/>
       <c r="R37" s="5" t="s">
         <v>19</v>
       </c>
@@ -3735,14 +4872,14 @@
       <c r="T37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="15" t="s">
+      <c r="U37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V37" s="15"/>
+      <c r="V37" s="18"/>
       <c r="W37" s="5">
         <v>936</v>
       </c>
-      <c r="Y37" s="14"/>
+      <c r="Y37" s="16"/>
       <c r="Z37" s="7" t="s">
         <v>19</v>
       </c>
@@ -3752,14 +4889,14 @@
       <c r="AB37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AC37" s="15" t="s">
+      <c r="AC37" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AD37" s="15"/>
+      <c r="AD37" s="18"/>
       <c r="AE37" s="7">
         <v>936</v>
       </c>
-      <c r="AG37" s="14"/>
+      <c r="AG37" s="16"/>
       <c r="AH37" s="12" t="s">
         <v>19</v>
       </c>
@@ -3769,22 +4906,57 @@
       <c r="AJ37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AK37" s="15" t="s">
+      <c r="AK37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AL37" s="15"/>
+      <c r="AL37" s="18"/>
       <c r="AM37" s="12">
         <v>936</v>
       </c>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="15">
+        <v>936</v>
+      </c>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="15">
+        <v>936</v>
+      </c>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="12"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3821,16 +4993,31 @@
       <c r="AK38" s="12"/>
       <c r="AL38" s="12"/>
       <c r="AM38" s="12"/>
-      <c r="AO38" s="12"/>
-      <c r="AP38" s="12"/>
-      <c r="AQ38" s="12"/>
-      <c r="AR38" s="12"/>
-      <c r="AS38" s="12"/>
-      <c r="AT38" s="12"/>
-      <c r="AU38" s="12"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="12"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -3842,15 +5029,15 @@
       <c r="D39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3862,14 +5049,14 @@
       <c r="L39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="18"/>
+      <c r="N39" s="20"/>
       <c r="O39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="16" t="s">
         <v>13</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -3881,14 +5068,14 @@
       <c r="T39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U39" s="15" t="s">
+      <c r="U39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="15"/>
+      <c r="V39" s="18"/>
       <c r="W39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="14" t="s">
+      <c r="Y39" s="16" t="s">
         <v>13</v>
       </c>
       <c r="Z39" s="7" t="s">
@@ -3900,14 +5087,14 @@
       <c r="AB39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC39" s="15" t="s">
+      <c r="AC39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AD39" s="15"/>
+      <c r="AD39" s="18"/>
       <c r="AE39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG39" s="14" t="s">
+      <c r="AG39" s="16" t="s">
         <v>13</v>
       </c>
       <c r="AH39" s="12" t="s">
@@ -3919,23 +5106,64 @@
       <c r="AJ39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK39" s="15" t="s">
+      <c r="AK39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AL39" s="15"/>
+      <c r="AL39" s="18"/>
       <c r="AM39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AO39" s="12"/>
-      <c r="AP39" s="12"/>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="12"/>
-      <c r="AT39" s="12"/>
-      <c r="AU39" s="12"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB39" s="18"/>
+      <c r="BC39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="12"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
       <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
@@ -3945,15 +5173,15 @@
       <c r="D40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="9">
         <v>483</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="17"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3963,14 +5191,14 @@
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="18"/>
+      <c r="N40" s="20"/>
       <c r="O40" s="2">
         <v>483</v>
       </c>
-      <c r="Q40" s="14"/>
+      <c r="Q40" s="16"/>
       <c r="R40" s="5" t="s">
         <v>6</v>
       </c>
@@ -3980,14 +5208,14 @@
       <c r="T40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U40" s="15" t="s">
+      <c r="U40" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="V40" s="15"/>
+      <c r="V40" s="18"/>
       <c r="W40" s="6">
         <v>483</v>
       </c>
-      <c r="Y40" s="14"/>
+      <c r="Y40" s="16"/>
       <c r="Z40" s="7" t="s">
         <v>6</v>
       </c>
@@ -3997,14 +5225,14 @@
       <c r="AB40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AC40" s="15" t="s">
+      <c r="AC40" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AD40" s="15"/>
+      <c r="AD40" s="18"/>
       <c r="AE40" s="8">
         <v>483</v>
       </c>
-      <c r="AG40" s="14"/>
+      <c r="AG40" s="16"/>
       <c r="AH40" s="12" t="s">
         <v>6</v>
       </c>
@@ -4014,23 +5242,60 @@
       <c r="AJ40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AK40" s="15" t="s">
+      <c r="AK40" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AL40" s="15"/>
+      <c r="AL40" s="18"/>
       <c r="AM40" s="13">
         <v>483</v>
       </c>
-      <c r="AO40" s="12"/>
-      <c r="AP40" s="12"/>
-      <c r="AQ40" s="12"/>
-      <c r="AR40" s="12"/>
-      <c r="AS40" s="12"/>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS40" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="14">
+        <v>483</v>
+      </c>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="16"/>
+      <c r="AX40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA40" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="14">
+        <v>483</v>
+      </c>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="12"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
       <c r="B41" s="10" t="s">
         <v>7</v>
       </c>
@@ -4040,15 +5305,15 @@
       <c r="D41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="9">
         <v>517</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="17"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
@@ -4058,14 +5323,14 @@
       <c r="L41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="18" t="s">
+      <c r="M41" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="18"/>
+      <c r="N41" s="20"/>
       <c r="O41" s="2">
         <v>517</v>
       </c>
-      <c r="Q41" s="14"/>
+      <c r="Q41" s="16"/>
       <c r="R41" s="5" t="s">
         <v>7</v>
       </c>
@@ -4075,14 +5340,14 @@
       <c r="T41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="15" t="s">
+      <c r="U41" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="V41" s="15"/>
+      <c r="V41" s="18"/>
       <c r="W41" s="6">
         <v>517</v>
       </c>
-      <c r="Y41" s="14"/>
+      <c r="Y41" s="16"/>
       <c r="Z41" s="7" t="s">
         <v>7</v>
       </c>
@@ -4092,14 +5357,14 @@
       <c r="AB41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC41" s="15" t="s">
+      <c r="AC41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="15"/>
+      <c r="AD41" s="18"/>
       <c r="AE41" s="8">
         <v>517</v>
       </c>
-      <c r="AG41" s="14"/>
+      <c r="AG41" s="16"/>
       <c r="AH41" s="12" t="s">
         <v>7</v>
       </c>
@@ -4109,23 +5374,60 @@
       <c r="AJ41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK41" s="15" t="s">
+      <c r="AK41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AL41" s="15"/>
+      <c r="AL41" s="18"/>
       <c r="AM41" s="13">
         <v>517</v>
       </c>
-      <c r="AO41" s="12"/>
-      <c r="AP41" s="12"/>
-      <c r="AQ41" s="12"/>
-      <c r="AR41" s="12"/>
-      <c r="AS41" s="12"/>
-      <c r="AT41" s="12"/>
-      <c r="AU41" s="12"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR41" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS41" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="14">
+        <v>517</v>
+      </c>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="16"/>
+      <c r="AX41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ41" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA41" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB41" s="18"/>
+      <c r="BC41" s="14">
+        <v>517</v>
+      </c>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="12"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
       <c r="B42" s="10" t="s">
         <v>8</v>
       </c>
@@ -4135,15 +5437,15 @@
       <c r="D42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="15"/>
+      <c r="E42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="18"/>
       <c r="G42" s="9">
         <v>0</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="17"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
@@ -4153,14 +5455,14 @@
       <c r="L42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="18"/>
+      <c r="M42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="20"/>
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="Q42" s="14"/>
+      <c r="Q42" s="16"/>
       <c r="R42" s="5" t="s">
         <v>8</v>
       </c>
@@ -4170,14 +5472,14 @@
       <c r="T42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" s="15"/>
+      <c r="U42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="18"/>
       <c r="W42" s="6">
         <v>0</v>
       </c>
-      <c r="Y42" s="14"/>
+      <c r="Y42" s="16"/>
       <c r="Z42" s="7" t="s">
         <v>8</v>
       </c>
@@ -4187,14 +5489,14 @@
       <c r="AB42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD42" s="15"/>
+      <c r="AC42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="18"/>
       <c r="AE42" s="8">
         <v>0</v>
       </c>
-      <c r="AG42" s="14"/>
+      <c r="AG42" s="16"/>
       <c r="AH42" s="12" t="s">
         <v>8</v>
       </c>
@@ -4204,23 +5506,60 @@
       <c r="AJ42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="15"/>
+      <c r="AK42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="18"/>
       <c r="AM42" s="13">
         <v>0</v>
       </c>
-      <c r="AO42" s="12"/>
-      <c r="AP42" s="12"/>
-      <c r="AQ42" s="12"/>
-      <c r="AR42" s="12"/>
-      <c r="AS42" s="12"/>
-      <c r="AT42" s="12"/>
-      <c r="AU42" s="12"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="16"/>
+      <c r="AP42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT42" s="18"/>
+      <c r="AU42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="16"/>
+      <c r="AX42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB42" s="18"/>
+      <c r="BC42" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="12"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -4228,119 +5567,165 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="17"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="2"/>
-      <c r="Q43" s="14"/>
+      <c r="Q43" s="16"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="Y43" s="14"/>
+      <c r="Y43" s="16"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AG43" s="14"/>
+      <c r="AG43" s="16"/>
       <c r="AH43" s="12"/>
       <c r="AI43" s="12"/>
       <c r="AJ43" s="12"/>
       <c r="AK43" s="13"/>
       <c r="AL43" s="13"/>
       <c r="AM43" s="13"/>
-      <c r="AO43" s="12"/>
-      <c r="AP43" s="12"/>
-      <c r="AQ43" s="12"/>
-      <c r="AR43" s="12"/>
-      <c r="AS43" s="12"/>
-      <c r="AT43" s="12"/>
-      <c r="AU43" s="12"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="16"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="14"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="14"/>
+      <c r="BD43" s="14"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="12"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
       <c r="B44" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="9">
         <v>1000</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="17"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="18"/>
+      <c r="N44" s="20"/>
       <c r="O44" s="2">
         <v>1000</v>
       </c>
-      <c r="Q44" s="14"/>
+      <c r="Q44" s="16"/>
       <c r="R44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="15" t="s">
+      <c r="U44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V44" s="15"/>
+      <c r="V44" s="18"/>
       <c r="W44" s="6">
         <v>1000</v>
       </c>
-      <c r="Y44" s="14"/>
+      <c r="Y44" s="16"/>
       <c r="Z44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="15" t="s">
+      <c r="AC44" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AD44" s="15"/>
+      <c r="AD44" s="18"/>
       <c r="AE44" s="8">
         <v>1000</v>
       </c>
-      <c r="AG44" s="14"/>
+      <c r="AG44" s="16"/>
       <c r="AH44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI44" s="12"/>
       <c r="AJ44" s="12"/>
-      <c r="AK44" s="15" t="s">
+      <c r="AK44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AL44" s="15"/>
+      <c r="AL44" s="18"/>
       <c r="AM44" s="13">
         <v>1000</v>
       </c>
-      <c r="AO44" s="12"/>
-      <c r="AP44" s="12"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="12"/>
-      <c r="AS44" s="12"/>
-      <c r="AT44" s="12"/>
-      <c r="AU44" s="12"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="16"/>
+      <c r="AP44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT44" s="18"/>
+      <c r="AU44" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="16"/>
+      <c r="AX44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB44" s="18"/>
+      <c r="BC44" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD44" s="14"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="12"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
       <c r="B45" s="10" t="s">
         <v>18</v>
       </c>
@@ -4350,15 +5735,15 @@
       <c r="D45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="9">
         <v>1000</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="1" t="s">
         <v>18</v>
       </c>
@@ -4368,14 +5753,14 @@
       <c r="L45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N45" s="18"/>
+      <c r="N45" s="20"/>
       <c r="O45" s="2">
         <v>1000</v>
       </c>
-      <c r="Q45" s="14"/>
+      <c r="Q45" s="16"/>
       <c r="R45" s="5" t="s">
         <v>18</v>
       </c>
@@ -4385,14 +5770,14 @@
       <c r="T45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="15" t="s">
+      <c r="U45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V45" s="15"/>
+      <c r="V45" s="18"/>
       <c r="W45" s="6">
         <v>1000</v>
       </c>
-      <c r="Y45" s="14"/>
+      <c r="Y45" s="16"/>
       <c r="Z45" s="7" t="s">
         <v>18</v>
       </c>
@@ -4402,14 +5787,14 @@
       <c r="AB45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AC45" s="15" t="s">
+      <c r="AC45" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AD45" s="15"/>
+      <c r="AD45" s="18"/>
       <c r="AE45" s="8">
         <v>1000</v>
       </c>
-      <c r="AG45" s="14"/>
+      <c r="AG45" s="16"/>
       <c r="AH45" s="12" t="s">
         <v>18</v>
       </c>
@@ -4419,23 +5804,60 @@
       <c r="AJ45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK45" s="15" t="s">
+      <c r="AK45" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AL45" s="15"/>
+      <c r="AL45" s="18"/>
       <c r="AM45" s="13">
         <v>1000</v>
       </c>
-      <c r="AO45" s="12"/>
-      <c r="AP45" s="12"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="12"/>
-      <c r="AS45" s="12"/>
-      <c r="AT45" s="12"/>
-      <c r="AU45" s="12"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS45" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="16"/>
+      <c r="AX45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA45" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB45" s="18"/>
+      <c r="BC45" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="12"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
@@ -4445,15 +5867,15 @@
       <c r="D46" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="9">
         <v>1000</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="17"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="1" t="s">
         <v>19</v>
       </c>
@@ -4463,14 +5885,14 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="18"/>
+      <c r="N46" s="20"/>
       <c r="O46" s="2">
         <v>1000</v>
       </c>
-      <c r="Q46" s="14"/>
+      <c r="Q46" s="16"/>
       <c r="R46" s="5" t="s">
         <v>19</v>
       </c>
@@ -4480,14 +5902,14 @@
       <c r="T46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U46" s="15" t="s">
+      <c r="U46" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V46" s="15"/>
+      <c r="V46" s="18"/>
       <c r="W46" s="6">
         <v>1000</v>
       </c>
-      <c r="Y46" s="14"/>
+      <c r="Y46" s="16"/>
       <c r="Z46" s="7" t="s">
         <v>19</v>
       </c>
@@ -4497,14 +5919,14 @@
       <c r="AB46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AC46" s="15" t="s">
+      <c r="AC46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AD46" s="15"/>
+      <c r="AD46" s="18"/>
       <c r="AE46" s="8">
         <v>1000</v>
       </c>
-      <c r="AG46" s="14"/>
+      <c r="AG46" s="16"/>
       <c r="AH46" s="12" t="s">
         <v>19</v>
       </c>
@@ -4514,22 +5936,59 @@
       <c r="AJ46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK46" s="15" t="s">
+      <c r="AK46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AL46" s="15"/>
+      <c r="AL46" s="18"/>
       <c r="AM46" s="13">
         <v>1000</v>
       </c>
-      <c r="AO46" s="12"/>
-      <c r="AP46" s="12"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="12"/>
-      <c r="AS46" s="12"/>
-      <c r="AT46" s="12"/>
-      <c r="AU46" s="12"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS46" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT46" s="18"/>
+      <c r="AU46" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA46" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB46" s="18"/>
+      <c r="BC46" s="14">
+        <v>1000</v>
+      </c>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="12"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
       <c r="AG48" s="12"/>
       <c r="AH48" s="12"/>
       <c r="AI48" s="12"/>
@@ -4622,40 +6081,73 @@
       <c r="AM57" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="AG30:AG37"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AG39:AG46"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AG12:AG19"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AK28:AL28"/>
+  <mergeCells count="296">
+    <mergeCell ref="AW30:AW37"/>
+    <mergeCell ref="BA30:BB30"/>
+    <mergeCell ref="BA31:BB31"/>
+    <mergeCell ref="BA32:BB32"/>
+    <mergeCell ref="BA33:BB33"/>
+    <mergeCell ref="BA35:BB35"/>
+    <mergeCell ref="BA36:BB36"/>
+    <mergeCell ref="BA37:BB37"/>
+    <mergeCell ref="AW39:AW46"/>
+    <mergeCell ref="BA39:BB39"/>
+    <mergeCell ref="BA40:BB40"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BA42:BB42"/>
+    <mergeCell ref="BA44:BB44"/>
+    <mergeCell ref="BA45:BB45"/>
+    <mergeCell ref="BA46:BB46"/>
+    <mergeCell ref="AW12:AW19"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BA15:BB15"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="AW3:AW10"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="AO39:AO46"/>
+    <mergeCell ref="AS39:AT39"/>
+    <mergeCell ref="AS40:AT40"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AS42:AT42"/>
+    <mergeCell ref="AS44:AT44"/>
+    <mergeCell ref="AS45:AT45"/>
+    <mergeCell ref="AS46:AT46"/>
     <mergeCell ref="AP1:AT2"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AS26:AT26"/>
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AS28:AT28"/>
+    <mergeCell ref="AO30:AO37"/>
+    <mergeCell ref="AS30:AT30"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AS32:AT32"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="AS37:AT37"/>
     <mergeCell ref="AO3:AO10"/>
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AS4:AT4"/>
@@ -4664,31 +6156,138 @@
     <mergeCell ref="AS8:AT8"/>
     <mergeCell ref="AS9:AT9"/>
     <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="Y30:Y37"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="Y39:Y46"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AO12:AO19"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="AH1:AL2"/>
+    <mergeCell ref="AG3:AG10"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="Q30:Q37"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="Q12:Q19"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="R1:V2"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I39:I46"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
@@ -4713,130 +6312,72 @@
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="I39:I46"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R1:V2"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="Q12:Q19"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="Q30:Q37"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q39:Q46"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="AH1:AL2"/>
-    <mergeCell ref="AG3:AG10"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="Y30:Y37"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="Y39:Y46"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="BF1:BJ2"/>
+    <mergeCell ref="BE3:BE10"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="AG12:AG19"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AG30:AG37"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AG39:AG46"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AK46:AL46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasets/Classification Report/Classification Report Total.xlsx
+++ b/Datasets/Classification Report/Classification Report Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Classification Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC8B9C-3748-42D8-A9AD-4DF8DA4E94F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AF0A1-234C-4E0D-9369-AF33F9CE8DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="97">
   <si>
     <t>Stanford</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>IBM</t>
+  </si>
+  <si>
+    <t>0.97</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -393,6 +402,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,12 +410,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7679C0-E6FB-4780-AA1A-EA6D9AA2FADC}">
   <dimension ref="A1:BK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD26" sqref="BD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,142 +748,142 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
       <c r="W1" s="5"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
       <c r="AE1" s="7"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
       <c r="AM1" s="12"/>
       <c r="AO1" s="15"/>
-      <c r="AP1" s="16" t="s">
+      <c r="AP1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
       <c r="AU1" s="15"/>
       <c r="AV1" s="15"/>
       <c r="AW1" s="15"/>
-      <c r="AX1" s="16" t="s">
+      <c r="AX1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
       <c r="BC1" s="15"/>
       <c r="BE1" s="15"/>
-      <c r="BF1" s="16" t="s">
+      <c r="BF1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
       <c r="BK1" s="12"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="10"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="1"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
       <c r="W2" s="5"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
       <c r="AE2" s="7"/>
       <c r="AG2" s="12"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
       <c r="AM2" s="12"/>
       <c r="AO2" s="15"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
       <c r="BC2" s="15"/>
       <c r="BE2" s="15"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
       <c r="BK2" s="12"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -881,15 +895,15 @@
       <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -908,7 +922,7 @@
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -920,14 +934,14 @@
       <c r="T3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="18"/>
+      <c r="V3" s="19"/>
       <c r="W3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -939,14 +953,14 @@
       <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="18"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AG3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AH3" s="12" t="s">
@@ -958,15 +972,15 @@
       <c r="AJ3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AK3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="18"/>
+      <c r="AL3" s="19"/>
       <c r="AM3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN3" s="14"/>
-      <c r="AO3" s="16" t="s">
+      <c r="AO3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AP3" s="15" t="s">
@@ -978,15 +992,15 @@
       <c r="AR3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AS3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="18"/>
+      <c r="AT3" s="19"/>
       <c r="AU3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV3" s="15"/>
-      <c r="AW3" s="16" t="s">
+      <c r="AW3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AX3" s="15" t="s">
@@ -998,15 +1012,15 @@
       <c r="AZ3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA3" s="18" t="s">
+      <c r="BA3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BB3" s="18"/>
+      <c r="BB3" s="19"/>
       <c r="BC3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="BD3" s="14"/>
-      <c r="BE3" s="16" t="s">
+      <c r="BE3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="BF3" s="15" t="s">
@@ -1018,16 +1032,16 @@
       <c r="BH3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BI3" s="18" t="s">
+      <c r="BI3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BJ3" s="18"/>
+      <c r="BJ3" s="19"/>
       <c r="BK3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1037,15 +1051,15 @@
       <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="9">
         <v>504</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1076,7 @@
       <c r="O4" s="2">
         <v>504</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1072,14 +1086,14 @@
       <c r="T4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="6">
         <v>504</v>
       </c>
-      <c r="Y4" s="16"/>
+      <c r="Y4" s="17"/>
       <c r="Z4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1089,14 +1103,14 @@
       <c r="AB4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="18"/>
+      <c r="AD4" s="19"/>
       <c r="AE4" s="8">
         <v>504</v>
       </c>
-      <c r="AG4" s="16"/>
+      <c r="AG4" s="17"/>
       <c r="AH4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1106,15 +1120,15 @@
       <c r="AJ4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="18" t="s">
+      <c r="AK4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="18"/>
+      <c r="AL4" s="19"/>
       <c r="AM4" s="13">
         <v>504</v>
       </c>
       <c r="AN4" s="14"/>
-      <c r="AO4" s="16"/>
+      <c r="AO4" s="17"/>
       <c r="AP4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1124,33 +1138,33 @@
       <c r="AR4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AS4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" s="18"/>
+      <c r="AT4" s="19"/>
       <c r="AU4" s="14">
         <v>504</v>
       </c>
       <c r="AV4" s="15"/>
-      <c r="AW4" s="16"/>
+      <c r="AW4" s="17"/>
       <c r="AX4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AY4" s="15" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AZ4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BB4" s="18"/>
+      <c r="BA4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB4" s="19"/>
       <c r="BC4" s="14">
         <v>504</v>
       </c>
       <c r="BD4" s="14"/>
-      <c r="BE4" s="16"/>
+      <c r="BE4" s="17"/>
       <c r="BF4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1160,16 +1174,16 @@
       <c r="BH4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BI4" s="18" t="s">
+      <c r="BI4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="BJ4" s="18"/>
+      <c r="BJ4" s="19"/>
       <c r="BK4" s="13">
         <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1179,15 +1193,15 @@
       <c r="D5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="9">
         <v>496</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1218,7 @@
       <c r="O5" s="2">
         <v>496</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1214,14 +1228,14 @@
       <c r="T5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="18"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="6">
         <v>496</v>
       </c>
-      <c r="Y5" s="16"/>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1231,14 +1245,14 @@
       <c r="AB5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AC5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="18"/>
+      <c r="AD5" s="19"/>
       <c r="AE5" s="8">
         <v>496</v>
       </c>
-      <c r="AG5" s="16"/>
+      <c r="AG5" s="17"/>
       <c r="AH5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1248,15 +1262,15 @@
       <c r="AJ5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AK5" s="18" t="s">
+      <c r="AK5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="18"/>
+      <c r="AL5" s="19"/>
       <c r="AM5" s="13">
         <v>496</v>
       </c>
       <c r="AN5" s="14"/>
-      <c r="AO5" s="16"/>
+      <c r="AO5" s="17"/>
       <c r="AP5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1266,33 +1280,33 @@
       <c r="AR5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS5" s="18" t="s">
+      <c r="AS5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="18"/>
+      <c r="AT5" s="19"/>
       <c r="AU5" s="14">
         <v>496</v>
       </c>
       <c r="AV5" s="15"/>
-      <c r="AW5" s="16"/>
+      <c r="AW5" s="17"/>
       <c r="AX5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AY5" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AZ5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB5" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="BA5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB5" s="19"/>
       <c r="BC5" s="14">
         <v>496</v>
       </c>
       <c r="BD5" s="14"/>
-      <c r="BE5" s="16"/>
+      <c r="BE5" s="17"/>
       <c r="BF5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1302,24 +1316,24 @@
       <c r="BH5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BI5" s="18" t="s">
+      <c r="BI5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BJ5" s="18"/>
+      <c r="BJ5" s="19"/>
       <c r="BK5" s="13">
         <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1334,9 +1348,9 @@
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="2">
-        <v>504</v>
-      </c>
-      <c r="Q6" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17"/>
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1346,14 +1360,14 @@
       <c r="T6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="18"/>
+      <c r="U6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="19"/>
       <c r="W6" s="6">
-        <v>504</v>
-      </c>
-      <c r="Y6" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1363,14 +1377,14 @@
       <c r="AB6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="18"/>
+      <c r="AC6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="19"/>
       <c r="AE6" s="8">
-        <v>504</v>
-      </c>
-      <c r="AG6" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17"/>
       <c r="AH6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1380,15 +1394,15 @@
       <c r="AJ6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="18"/>
+      <c r="AK6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="19"/>
       <c r="AM6" s="13">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="14"/>
-      <c r="AO6" s="16"/>
+      <c r="AO6" s="17"/>
       <c r="AP6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1398,15 +1412,15 @@
       <c r="AR6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="18"/>
+      <c r="AS6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="19"/>
       <c r="AU6" s="14">
         <v>504</v>
       </c>
       <c r="AV6" s="15"/>
-      <c r="AW6" s="16"/>
+      <c r="AW6" s="17"/>
       <c r="AX6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1416,15 +1430,15 @@
       <c r="AZ6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="18"/>
+      <c r="BA6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="19"/>
       <c r="BC6" s="14">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="14"/>
-      <c r="BE6" s="16"/>
+      <c r="BE6" s="17"/>
       <c r="BF6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,16 +1448,16 @@
       <c r="BH6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BI6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="18"/>
+      <c r="BI6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="19"/>
       <c r="BK6" s="13">
-        <v>504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1451,28 +1465,28 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AG7" s="16"/>
+      <c r="AG7" s="17"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
@@ -1480,7 +1494,7 @@
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="14"/>
-      <c r="AO7" s="16"/>
+      <c r="AO7" s="17"/>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="15"/>
       <c r="AR7" s="15"/>
@@ -1488,7 +1502,7 @@
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="15"/>
-      <c r="AW7" s="16"/>
+      <c r="AW7" s="17"/>
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15"/>
@@ -1496,7 +1510,7 @@
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
       <c r="BD7" s="14"/>
-      <c r="BE7" s="16"/>
+      <c r="BE7" s="17"/>
       <c r="BF7" s="15"/>
       <c r="BG7" s="15"/>
       <c r="BH7" s="15"/>
@@ -1505,21 +1519,21 @@
       <c r="BK7" s="13"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="9">
         <v>1000</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1532,90 +1546,90 @@
       <c r="O8" s="2">
         <v>1000</v>
       </c>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="18"/>
+      <c r="V8" s="19"/>
       <c r="W8" s="6">
         <v>1000</v>
       </c>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="18" t="s">
+      <c r="AC8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="18"/>
+      <c r="AD8" s="19"/>
       <c r="AE8" s="8">
         <v>1000</v>
       </c>
-      <c r="AG8" s="16"/>
+      <c r="AG8" s="17"/>
       <c r="AH8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
-      <c r="AK8" s="18" t="s">
+      <c r="AK8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AL8" s="18"/>
+      <c r="AL8" s="19"/>
       <c r="AM8" s="13">
         <v>1000</v>
       </c>
       <c r="AN8" s="14"/>
-      <c r="AO8" s="16"/>
+      <c r="AO8" s="17"/>
       <c r="AP8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ8" s="15"/>
       <c r="AR8" s="15"/>
-      <c r="AS8" s="18" t="s">
+      <c r="AS8" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AT8" s="18"/>
+      <c r="AT8" s="19"/>
       <c r="AU8" s="14">
         <v>1000</v>
       </c>
       <c r="AV8" s="15"/>
-      <c r="AW8" s="16"/>
+      <c r="AW8" s="17"/>
       <c r="AX8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY8" s="15"/>
       <c r="AZ8" s="15"/>
-      <c r="BA8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB8" s="18"/>
+      <c r="BA8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB8" s="19"/>
       <c r="BC8" s="14">
         <v>1000</v>
       </c>
       <c r="BD8" s="14"/>
-      <c r="BE8" s="16"/>
+      <c r="BE8" s="17"/>
       <c r="BF8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="BG8" s="15"/>
       <c r="BH8" s="15"/>
-      <c r="BI8" s="18" t="s">
+      <c r="BI8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BJ8" s="18"/>
+      <c r="BJ8" s="19"/>
       <c r="BK8" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1625,15 +1639,15 @@
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="9">
         <v>1000</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1664,7 @@
       <c r="O9" s="2">
         <v>1000</v>
       </c>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1660,14 +1674,14 @@
       <c r="T9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="18"/>
+      <c r="V9" s="19"/>
       <c r="W9" s="6">
         <v>1000</v>
       </c>
-      <c r="Y9" s="16"/>
+      <c r="Y9" s="17"/>
       <c r="Z9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1677,14 +1691,14 @@
       <c r="AB9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="18"/>
+      <c r="AD9" s="19"/>
       <c r="AE9" s="8">
         <v>1000</v>
       </c>
-      <c r="AG9" s="16"/>
+      <c r="AG9" s="17"/>
       <c r="AH9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1694,15 +1708,15 @@
       <c r="AJ9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AK9" s="18" t="s">
+      <c r="AK9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="18"/>
+      <c r="AL9" s="19"/>
       <c r="AM9" s="13">
         <v>1000</v>
       </c>
       <c r="AN9" s="14"/>
-      <c r="AO9" s="16"/>
+      <c r="AO9" s="17"/>
       <c r="AP9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1712,33 +1726,33 @@
       <c r="AR9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS9" s="18" t="s">
+      <c r="AS9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="18"/>
+      <c r="AT9" s="19"/>
       <c r="AU9" s="14">
         <v>1000</v>
       </c>
       <c r="AV9" s="15"/>
-      <c r="AW9" s="16"/>
+      <c r="AW9" s="17"/>
       <c r="AX9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AY9" s="15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AZ9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB9" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="BA9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB9" s="19"/>
       <c r="BC9" s="14">
         <v>1000</v>
       </c>
       <c r="BD9" s="14"/>
-      <c r="BE9" s="16"/>
+      <c r="BE9" s="17"/>
       <c r="BF9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1748,16 +1762,16 @@
       <c r="BH9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="BI9" s="18" t="s">
+      <c r="BI9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="BJ9" s="18"/>
+      <c r="BJ9" s="19"/>
       <c r="BK9" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1767,15 +1781,15 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="9">
         <v>1000</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1792,7 +1806,7 @@
       <c r="O10" s="2">
         <v>1000</v>
       </c>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1802,14 +1816,14 @@
       <c r="T10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="6">
         <v>1000</v>
       </c>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1819,14 +1833,14 @@
       <c r="AB10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="18" t="s">
+      <c r="AC10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" s="18"/>
+      <c r="AD10" s="19"/>
       <c r="AE10" s="8">
         <v>1000</v>
       </c>
-      <c r="AG10" s="16"/>
+      <c r="AG10" s="17"/>
       <c r="AH10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1836,15 +1850,15 @@
       <c r="AJ10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK10" s="18" t="s">
+      <c r="AK10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AL10" s="18"/>
+      <c r="AL10" s="19"/>
       <c r="AM10" s="13">
         <v>1000</v>
       </c>
       <c r="AN10" s="14"/>
-      <c r="AO10" s="16"/>
+      <c r="AO10" s="17"/>
       <c r="AP10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1854,33 +1868,33 @@
       <c r="AR10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AS10" s="18" t="s">
+      <c r="AS10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AT10" s="18"/>
+      <c r="AT10" s="19"/>
       <c r="AU10" s="14">
         <v>1000</v>
       </c>
       <c r="AV10" s="15"/>
-      <c r="AW10" s="16"/>
+      <c r="AW10" s="17"/>
       <c r="AX10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AY10" s="15" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AZ10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB10" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="BA10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB10" s="19"/>
       <c r="BC10" s="14">
         <v>1000</v>
       </c>
       <c r="BD10" s="14"/>
-      <c r="BE10" s="16"/>
+      <c r="BE10" s="17"/>
       <c r="BF10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1890,10 +1904,10 @@
       <c r="BH10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BI10" s="18" t="s">
+      <c r="BI10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="BJ10" s="18"/>
+      <c r="BJ10" s="19"/>
       <c r="BK10" s="13">
         <v>1000</v>
       </c>
@@ -1959,7 +1973,7 @@
       <c r="BK11" s="12"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1971,15 +1985,15 @@
       <c r="D12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1998,7 +2012,7 @@
       <c r="O12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -2010,14 +2024,14 @@
       <c r="T12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="18"/>
+      <c r="V12" s="19"/>
       <c r="W12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="Z12" s="7" t="s">
@@ -2029,14 +2043,14 @@
       <c r="AB12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AC12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="18"/>
+      <c r="AD12" s="19"/>
       <c r="AE12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="16" t="s">
+      <c r="AG12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="AH12" s="12" t="s">
@@ -2048,15 +2062,15 @@
       <c r="AJ12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK12" s="18" t="s">
+      <c r="AK12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AL12" s="18"/>
+      <c r="AL12" s="19"/>
       <c r="AM12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN12" s="14"/>
-      <c r="AO12" s="16" t="s">
+      <c r="AO12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="AP12" s="15" t="s">
@@ -2068,15 +2082,15 @@
       <c r="AR12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS12" s="18" t="s">
+      <c r="AS12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AT12" s="18"/>
+      <c r="AT12" s="19"/>
       <c r="AU12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV12" s="15"/>
-      <c r="AW12" s="16" t="s">
+      <c r="AW12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="AX12" s="15" t="s">
@@ -2088,10 +2102,10 @@
       <c r="AZ12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA12" s="18" t="s">
+      <c r="BA12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BB12" s="18"/>
+      <c r="BB12" s="19"/>
       <c r="BC12" s="14" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2119,7 @@
       <c r="BK12" s="12"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -2115,15 +2129,15 @@
       <c r="D13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="9">
         <v>498</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2154,7 @@
       <c r="O13" s="2">
         <v>498</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2150,14 +2164,14 @@
       <c r="T13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="U13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="18"/>
+      <c r="V13" s="19"/>
       <c r="W13" s="6">
         <v>498</v>
       </c>
-      <c r="Y13" s="16"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2167,14 +2181,14 @@
       <c r="AB13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="18" t="s">
+      <c r="AC13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AD13" s="18"/>
+      <c r="AD13" s="19"/>
       <c r="AE13" s="8">
         <v>498</v>
       </c>
-      <c r="AG13" s="16"/>
+      <c r="AG13" s="17"/>
       <c r="AH13" s="12" t="s">
         <v>6</v>
       </c>
@@ -2184,15 +2198,15 @@
       <c r="AJ13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK13" s="18" t="s">
+      <c r="AK13" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AL13" s="18"/>
+      <c r="AL13" s="19"/>
       <c r="AM13" s="13">
         <v>498</v>
       </c>
       <c r="AN13" s="14"/>
-      <c r="AO13" s="16"/>
+      <c r="AO13" s="17"/>
       <c r="AP13" s="15" t="s">
         <v>6</v>
       </c>
@@ -2202,28 +2216,28 @@
       <c r="AR13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AS13" s="18" t="s">
+      <c r="AS13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AT13" s="18"/>
+      <c r="AT13" s="19"/>
       <c r="AU13" s="14">
         <v>498</v>
       </c>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="16"/>
+      <c r="AW13" s="17"/>
       <c r="AX13" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AY13" s="15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AZ13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB13" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="BA13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB13" s="19"/>
       <c r="BC13" s="14">
         <v>498</v>
       </c>
@@ -2237,7 +2251,7 @@
       <c r="BK13" s="12"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -2247,15 +2261,15 @@
       <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="9">
         <v>498</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2286,7 @@
       <c r="O14" s="2">
         <v>498</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="5" t="s">
         <v>7</v>
       </c>
@@ -2282,14 +2296,14 @@
       <c r="T14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="18"/>
+      <c r="V14" s="19"/>
       <c r="W14" s="6">
         <v>498</v>
       </c>
-      <c r="Y14" s="16"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2299,14 +2313,14 @@
       <c r="AB14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC14" s="18" t="s">
+      <c r="AC14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AD14" s="18"/>
+      <c r="AD14" s="19"/>
       <c r="AE14" s="8">
         <v>498</v>
       </c>
-      <c r="AG14" s="16"/>
+      <c r="AG14" s="17"/>
       <c r="AH14" s="12" t="s">
         <v>7</v>
       </c>
@@ -2316,15 +2330,15 @@
       <c r="AJ14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="18" t="s">
+      <c r="AK14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AL14" s="18"/>
+      <c r="AL14" s="19"/>
       <c r="AM14" s="13">
         <v>498</v>
       </c>
       <c r="AN14" s="14"/>
-      <c r="AO14" s="16"/>
+      <c r="AO14" s="17"/>
       <c r="AP14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2334,28 +2348,28 @@
       <c r="AR14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AS14" s="18" t="s">
+      <c r="AS14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AT14" s="18"/>
+      <c r="AT14" s="19"/>
       <c r="AU14" s="14">
         <v>498</v>
       </c>
       <c r="AV14" s="15"/>
-      <c r="AW14" s="16"/>
+      <c r="AW14" s="17"/>
       <c r="AX14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AY14" s="15" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="AZ14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB14" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="BA14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB14" s="19"/>
       <c r="BC14" s="14">
         <v>498</v>
       </c>
@@ -2369,15 +2383,15 @@
       <c r="BK14" s="12"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2408,7 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="17"/>
       <c r="R15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2404,14 +2418,14 @@
       <c r="T15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="18"/>
+      <c r="U15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="19"/>
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="16"/>
+      <c r="Y15" s="17"/>
       <c r="Z15" s="7" t="s">
         <v>8</v>
       </c>
@@ -2421,14 +2435,14 @@
       <c r="AB15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="18"/>
+      <c r="AC15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="8">
         <v>0</v>
       </c>
-      <c r="AG15" s="16"/>
+      <c r="AG15" s="17"/>
       <c r="AH15" s="12" t="s">
         <v>8</v>
       </c>
@@ -2438,15 +2452,15 @@
       <c r="AJ15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="18"/>
+      <c r="AK15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="19"/>
       <c r="AM15" s="13">
         <v>0</v>
       </c>
       <c r="AN15" s="14"/>
-      <c r="AO15" s="16"/>
+      <c r="AO15" s="17"/>
       <c r="AP15" s="15" t="s">
         <v>8</v>
       </c>
@@ -2456,15 +2470,15 @@
       <c r="AR15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT15" s="18"/>
+      <c r="AS15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="19"/>
       <c r="AU15" s="14">
         <v>0</v>
       </c>
       <c r="AV15" s="15"/>
-      <c r="AW15" s="16"/>
+      <c r="AW15" s="17"/>
       <c r="AX15" s="15" t="s">
         <v>8</v>
       </c>
@@ -2474,10 +2488,10 @@
       <c r="AZ15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB15" s="18"/>
+      <c r="BA15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB15" s="19"/>
       <c r="BC15" s="14">
         <v>0</v>
       </c>
@@ -2491,7 +2505,7 @@
       <c r="BK15" s="12"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2499,28 +2513,28 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="2"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="17"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="Y16" s="16"/>
+      <c r="Y16" s="17"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
-      <c r="AG16" s="16"/>
+      <c r="AG16" s="17"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
@@ -2528,7 +2542,7 @@
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="14"/>
-      <c r="AO16" s="16"/>
+      <c r="AO16" s="17"/>
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="15"/>
@@ -2536,7 +2550,7 @@
       <c r="AT16" s="14"/>
       <c r="AU16" s="14"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="16"/>
+      <c r="AW16" s="17"/>
       <c r="AX16" s="15"/>
       <c r="AY16" s="15"/>
       <c r="AZ16" s="15"/>
@@ -2553,21 +2567,21 @@
       <c r="BK16" s="12"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="9">
         <v>996</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2580,70 +2594,70 @@
       <c r="O17" s="2">
         <v>996</v>
       </c>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="V17" s="18"/>
+      <c r="V17" s="19"/>
       <c r="W17" s="6">
         <v>996</v>
       </c>
-      <c r="Y17" s="16"/>
+      <c r="Y17" s="17"/>
       <c r="Z17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="18" t="s">
+      <c r="AC17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="18"/>
+      <c r="AD17" s="19"/>
       <c r="AE17" s="8">
         <v>996</v>
       </c>
-      <c r="AG17" s="16"/>
+      <c r="AG17" s="17"/>
       <c r="AH17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
-      <c r="AK17" s="18" t="s">
+      <c r="AK17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AL17" s="18"/>
+      <c r="AL17" s="19"/>
       <c r="AM17" s="13">
         <v>996</v>
       </c>
       <c r="AN17" s="14"/>
-      <c r="AO17" s="16"/>
+      <c r="AO17" s="17"/>
       <c r="AP17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="15"/>
-      <c r="AS17" s="18" t="s">
+      <c r="AS17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AT17" s="18"/>
+      <c r="AT17" s="19"/>
       <c r="AU17" s="14">
         <v>996</v>
       </c>
       <c r="AV17" s="15"/>
-      <c r="AW17" s="16"/>
+      <c r="AW17" s="17"/>
       <c r="AX17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="15"/>
-      <c r="BA17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB17" s="18"/>
+      <c r="BA17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB17" s="19"/>
       <c r="BC17" s="14">
         <v>996</v>
       </c>
@@ -2657,7 +2671,7 @@
       <c r="BK17" s="12"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2667,15 +2681,15 @@
       <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="9">
         <v>996</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2692,7 +2706,7 @@
       <c r="O18" s="2">
         <v>996</v>
       </c>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2702,14 +2716,14 @@
       <c r="T18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="V18" s="18"/>
+      <c r="V18" s="19"/>
       <c r="W18" s="6">
         <v>996</v>
       </c>
-      <c r="Y18" s="16"/>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2719,14 +2733,14 @@
       <c r="AB18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC18" s="18" t="s">
+      <c r="AC18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="18"/>
+      <c r="AD18" s="19"/>
       <c r="AE18" s="8">
         <v>996</v>
       </c>
-      <c r="AG18" s="16"/>
+      <c r="AG18" s="17"/>
       <c r="AH18" s="12" t="s">
         <v>18</v>
       </c>
@@ -2736,15 +2750,15 @@
       <c r="AJ18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AK18" s="18" t="s">
+      <c r="AK18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="18"/>
+      <c r="AL18" s="19"/>
       <c r="AM18" s="13">
         <v>996</v>
       </c>
       <c r="AN18" s="14"/>
-      <c r="AO18" s="16"/>
+      <c r="AO18" s="17"/>
       <c r="AP18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2754,28 +2768,28 @@
       <c r="AR18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="18" t="s">
+      <c r="AS18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AT18" s="18"/>
+      <c r="AT18" s="19"/>
       <c r="AU18" s="14">
         <v>996</v>
       </c>
       <c r="AV18" s="15"/>
-      <c r="AW18" s="16"/>
+      <c r="AW18" s="17"/>
       <c r="AX18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AY18" s="15" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AZ18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB18" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="BA18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB18" s="19"/>
       <c r="BC18" s="14">
         <v>996</v>
       </c>
@@ -2789,7 +2803,7 @@
       <c r="BK18" s="12"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2799,15 +2813,15 @@
       <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="9">
         <v>996</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2824,7 +2838,7 @@
       <c r="O19" s="2">
         <v>996</v>
       </c>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2834,14 +2848,14 @@
       <c r="T19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="U19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="18"/>
+      <c r="V19" s="19"/>
       <c r="W19" s="6">
         <v>996</v>
       </c>
-      <c r="Y19" s="16"/>
+      <c r="Y19" s="17"/>
       <c r="Z19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2851,14 +2865,14 @@
       <c r="AB19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="18" t="s">
+      <c r="AC19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="18"/>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="8">
         <v>996</v>
       </c>
-      <c r="AG19" s="16"/>
+      <c r="AG19" s="17"/>
       <c r="AH19" s="12" t="s">
         <v>19</v>
       </c>
@@ -2868,15 +2882,15 @@
       <c r="AJ19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="18" t="s">
+      <c r="AK19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AL19" s="18"/>
+      <c r="AL19" s="19"/>
       <c r="AM19" s="13">
         <v>996</v>
       </c>
       <c r="AN19" s="14"/>
-      <c r="AO19" s="16"/>
+      <c r="AO19" s="17"/>
       <c r="AP19" s="15" t="s">
         <v>19</v>
       </c>
@@ -2886,28 +2900,28 @@
       <c r="AR19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AS19" s="18" t="s">
+      <c r="AS19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AT19" s="18"/>
+      <c r="AT19" s="19"/>
       <c r="AU19" s="14">
         <v>996</v>
       </c>
       <c r="AV19" s="15"/>
-      <c r="AW19" s="16"/>
+      <c r="AW19" s="17"/>
       <c r="AX19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AY19" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AZ19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB19" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="BA19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB19" s="19"/>
       <c r="BC19" s="14">
         <v>996</v>
       </c>
@@ -2981,7 +2995,7 @@
       <c r="BK20" s="12"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2993,15 +3007,15 @@
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3020,7 +3034,7 @@
       <c r="O21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -3032,14 +3046,14 @@
       <c r="T21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="18"/>
+      <c r="V21" s="19"/>
       <c r="W21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="16" t="s">
+      <c r="Y21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="7" t="s">
@@ -3051,14 +3065,14 @@
       <c r="AB21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="18" t="s">
+      <c r="AC21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="18"/>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG21" s="16" t="s">
+      <c r="AG21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AH21" s="12" t="s">
@@ -3070,15 +3084,15 @@
       <c r="AJ21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK21" s="18" t="s">
+      <c r="AK21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="18"/>
+      <c r="AL21" s="19"/>
       <c r="AM21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN21" s="14"/>
-      <c r="AO21" s="16" t="s">
+      <c r="AO21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AP21" s="15" t="s">
@@ -3090,15 +3104,15 @@
       <c r="AR21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS21" s="18" t="s">
+      <c r="AS21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="18"/>
+      <c r="AT21" s="19"/>
       <c r="AU21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV21" s="15"/>
-      <c r="AW21" s="16" t="s">
+      <c r="AW21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AX21" s="15" t="s">
@@ -3110,10 +3124,10 @@
       <c r="AZ21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA21" s="18" t="s">
+      <c r="BA21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BB21" s="18"/>
+      <c r="BB21" s="19"/>
       <c r="BC21" s="14" t="s">
         <v>14</v>
       </c>
@@ -3127,7 +3141,7 @@
       <c r="BK21" s="12"/>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
@@ -3137,15 +3151,15 @@
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="9">
         <v>500</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3176,7 @@
       <c r="O22" s="2">
         <v>500</v>
       </c>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="17"/>
       <c r="R22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3172,14 +3186,14 @@
       <c r="T22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="18"/>
+      <c r="V22" s="19"/>
       <c r="W22" s="6">
         <v>500</v>
       </c>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="17"/>
       <c r="Z22" s="7" t="s">
         <v>6</v>
       </c>
@@ -3189,14 +3203,14 @@
       <c r="AB22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="18" t="s">
+      <c r="AC22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AD22" s="18"/>
+      <c r="AD22" s="19"/>
       <c r="AE22" s="8">
         <v>500</v>
       </c>
-      <c r="AG22" s="16"/>
+      <c r="AG22" s="17"/>
       <c r="AH22" s="12" t="s">
         <v>6</v>
       </c>
@@ -3206,15 +3220,15 @@
       <c r="AJ22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AK22" s="18" t="s">
+      <c r="AK22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AL22" s="18"/>
+      <c r="AL22" s="19"/>
       <c r="AM22" s="13">
         <v>500</v>
       </c>
       <c r="AN22" s="14"/>
-      <c r="AO22" s="16"/>
+      <c r="AO22" s="17"/>
       <c r="AP22" s="15" t="s">
         <v>6</v>
       </c>
@@ -3224,30 +3238,30 @@
       <c r="AR22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AS22" s="18" t="s">
+      <c r="AS22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AT22" s="18"/>
+      <c r="AT22" s="19"/>
       <c r="AU22" s="14">
         <v>500</v>
       </c>
       <c r="AV22" s="15"/>
-      <c r="AW22" s="16"/>
+      <c r="AW22" s="17"/>
       <c r="AX22" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AY22" s="15" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="AZ22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA22" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="14">
-        <v>500</v>
+        <v>67</v>
+      </c>
+      <c r="BA22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="22">
+        <v>491</v>
       </c>
       <c r="BD22" s="14"/>
       <c r="BE22" s="15"/>
@@ -3259,7 +3273,7 @@
       <c r="BK22" s="12"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
@@ -3269,15 +3283,15 @@
       <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="9">
         <v>500</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +3308,7 @@
       <c r="O23" s="2">
         <v>500</v>
       </c>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="17"/>
       <c r="R23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3304,14 +3318,14 @@
       <c r="T23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="U23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="18"/>
+      <c r="V23" s="19"/>
       <c r="W23" s="6">
         <v>500</v>
       </c>
-      <c r="Y23" s="16"/>
+      <c r="Y23" s="17"/>
       <c r="Z23" s="7" t="s">
         <v>7</v>
       </c>
@@ -3321,14 +3335,14 @@
       <c r="AB23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC23" s="18" t="s">
+      <c r="AC23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="18"/>
+      <c r="AD23" s="19"/>
       <c r="AE23" s="8">
         <v>500</v>
       </c>
-      <c r="AG23" s="16"/>
+      <c r="AG23" s="17"/>
       <c r="AH23" s="12" t="s">
         <v>7</v>
       </c>
@@ -3338,15 +3352,15 @@
       <c r="AJ23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AK23" s="18" t="s">
+      <c r="AK23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AL23" s="18"/>
+      <c r="AL23" s="19"/>
       <c r="AM23" s="13">
         <v>500</v>
       </c>
       <c r="AN23" s="14"/>
-      <c r="AO23" s="16"/>
+      <c r="AO23" s="17"/>
       <c r="AP23" s="15" t="s">
         <v>7</v>
       </c>
@@ -3356,30 +3370,30 @@
       <c r="AR23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AS23" s="18" t="s">
+      <c r="AS23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AT23" s="18"/>
+      <c r="AT23" s="19"/>
       <c r="AU23" s="14">
         <v>500</v>
       </c>
       <c r="AV23" s="15"/>
-      <c r="AW23" s="16"/>
+      <c r="AW23" s="17"/>
       <c r="AX23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AY23" s="15" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="AZ23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="14">
-        <v>500</v>
+        <v>15</v>
+      </c>
+      <c r="BA23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="22">
+        <v>494</v>
       </c>
       <c r="BD23" s="14"/>
       <c r="BE23" s="15"/>
@@ -3391,23 +3405,15 @@
       <c r="BK23" s="12"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3421,8 +3427,10 @@
         <v>9</v>
       </c>
       <c r="N24" s="20"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="16"/>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17"/>
       <c r="R24" s="5" t="s">
         <v>8</v>
       </c>
@@ -3432,12 +3440,14 @@
       <c r="T24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="6"/>
-      <c r="Y24" s="16"/>
+      <c r="U24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="19"/>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="17"/>
       <c r="Z24" s="7" t="s">
         <v>8</v>
       </c>
@@ -3447,12 +3457,14 @@
       <c r="AB24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="8"/>
-      <c r="AG24" s="16"/>
+      <c r="AC24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="17"/>
       <c r="AH24" s="12" t="s">
         <v>8</v>
       </c>
@@ -3462,13 +3474,15 @@
       <c r="AJ24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="13"/>
+      <c r="AK24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="13">
+        <v>0</v>
+      </c>
       <c r="AN24" s="14"/>
-      <c r="AO24" s="16"/>
+      <c r="AO24" s="17"/>
       <c r="AP24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3478,13 +3492,13 @@
       <c r="AR24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT24" s="18"/>
+      <c r="AS24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="19"/>
       <c r="AU24" s="14"/>
       <c r="AV24" s="15"/>
-      <c r="AW24" s="16"/>
+      <c r="AW24" s="17"/>
       <c r="AX24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3494,11 +3508,13 @@
       <c r="AZ24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="14"/>
+      <c r="BA24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="14">
+        <v>0</v>
+      </c>
       <c r="BD24" s="14"/>
       <c r="BE24" s="15"/>
       <c r="BF24" s="15"/>
@@ -3509,36 +3525,42 @@
       <c r="BK24" s="12"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="9">
+        <v>1000</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="2"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="17"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="Y25" s="16"/>
+      <c r="Y25" s="17"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AG25" s="16"/>
+      <c r="AG25" s="17"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
@@ -3546,7 +3568,7 @@
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
       <c r="AN25" s="14"/>
-      <c r="AO25" s="16"/>
+      <c r="AO25" s="17"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="15"/>
@@ -3554,7 +3576,7 @@
       <c r="AT25" s="14"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="15"/>
-      <c r="AW25" s="16"/>
+      <c r="AW25" s="17"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="15"/>
@@ -3571,21 +3593,25 @@
       <c r="BK25" s="12"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="E26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="19"/>
       <c r="G26" s="9">
         <v>1000</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3598,72 +3624,72 @@
       <c r="O26" s="2">
         <v>1000</v>
       </c>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="17"/>
       <c r="R26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="18" t="s">
+      <c r="U26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="18"/>
+      <c r="V26" s="19"/>
       <c r="W26" s="6">
         <v>1000</v>
       </c>
-      <c r="Y26" s="16"/>
+      <c r="Y26" s="17"/>
       <c r="Z26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="18" t="s">
+      <c r="AC26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AD26" s="18"/>
+      <c r="AD26" s="19"/>
       <c r="AE26" s="8">
         <v>1000</v>
       </c>
-      <c r="AG26" s="16"/>
+      <c r="AG26" s="17"/>
       <c r="AH26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="18" t="s">
+      <c r="AK26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AL26" s="18"/>
+      <c r="AL26" s="19"/>
       <c r="AM26" s="13">
         <v>1000</v>
       </c>
       <c r="AN26" s="14"/>
-      <c r="AO26" s="16"/>
+      <c r="AO26" s="17"/>
       <c r="AP26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="15"/>
-      <c r="AS26" s="18" t="s">
+      <c r="AS26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AT26" s="18"/>
+      <c r="AT26" s="19"/>
       <c r="AU26" s="14">
         <v>1000</v>
       </c>
       <c r="AV26" s="15"/>
-      <c r="AW26" s="16"/>
+      <c r="AW26" s="17"/>
       <c r="AX26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
-      <c r="BA26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="14">
-        <v>1000</v>
+      <c r="BA26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="22">
+        <v>985</v>
       </c>
       <c r="BD26" s="14"/>
       <c r="BE26" s="15"/>
@@ -3675,9 +3701,9 @@
       <c r="BK26" s="12"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>22</v>
@@ -3685,15 +3711,15 @@
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="9">
         <v>1000</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="19"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3710,7 +3736,7 @@
       <c r="O27" s="2">
         <v>1000</v>
       </c>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="17"/>
       <c r="R27" s="5" t="s">
         <v>18</v>
       </c>
@@ -3720,14 +3746,14 @@
       <c r="T27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U27" s="18" t="s">
+      <c r="U27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V27" s="18"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="6">
         <v>1000</v>
       </c>
-      <c r="Y27" s="16"/>
+      <c r="Y27" s="17"/>
       <c r="Z27" s="7" t="s">
         <v>18</v>
       </c>
@@ -3737,14 +3763,14 @@
       <c r="AB27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC27" s="18" t="s">
+      <c r="AC27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AD27" s="18"/>
+      <c r="AD27" s="19"/>
       <c r="AE27" s="8">
         <v>1000</v>
       </c>
-      <c r="AG27" s="16"/>
+      <c r="AG27" s="17"/>
       <c r="AH27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3754,15 +3780,15 @@
       <c r="AJ27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AK27" s="18" t="s">
+      <c r="AK27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AL27" s="18"/>
+      <c r="AL27" s="19"/>
       <c r="AM27" s="13">
         <v>1000</v>
       </c>
       <c r="AN27" s="14"/>
-      <c r="AO27" s="16"/>
+      <c r="AO27" s="17"/>
       <c r="AP27" s="15" t="s">
         <v>18</v>
       </c>
@@ -3772,30 +3798,30 @@
       <c r="AR27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AS27" s="18" t="s">
+      <c r="AS27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AT27" s="18"/>
+      <c r="AT27" s="19"/>
       <c r="AU27" s="14">
         <v>1000</v>
       </c>
       <c r="AV27" s="15"/>
-      <c r="AW27" s="16"/>
+      <c r="AW27" s="17"/>
       <c r="AX27" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AY27" s="15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="AZ27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB27" s="18"/>
-      <c r="BC27" s="14">
-        <v>1000</v>
+        <v>78</v>
+      </c>
+      <c r="BA27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="22">
+        <v>985</v>
       </c>
       <c r="BD27" s="14"/>
       <c r="BE27" s="15"/>
@@ -3808,24 +3834,14 @@
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="9">
-        <v>1000</v>
-      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
@@ -3842,7 +3858,7 @@
       <c r="O28" s="2">
         <v>1000</v>
       </c>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="17"/>
       <c r="R28" s="5" t="s">
         <v>19</v>
       </c>
@@ -3852,14 +3868,14 @@
       <c r="T28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="18" t="s">
+      <c r="U28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="V28" s="18"/>
+      <c r="V28" s="19"/>
       <c r="W28" s="6">
         <v>1000</v>
       </c>
-      <c r="Y28" s="16"/>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="7" t="s">
         <v>19</v>
       </c>
@@ -3869,14 +3885,14 @@
       <c r="AB28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="18" t="s">
+      <c r="AC28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AD28" s="18"/>
+      <c r="AD28" s="19"/>
       <c r="AE28" s="8">
         <v>1000</v>
       </c>
-      <c r="AG28" s="16"/>
+      <c r="AG28" s="17"/>
       <c r="AH28" s="12" t="s">
         <v>19</v>
       </c>
@@ -3886,15 +3902,15 @@
       <c r="AJ28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK28" s="18" t="s">
+      <c r="AK28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AL28" s="18"/>
+      <c r="AL28" s="19"/>
       <c r="AM28" s="13">
         <v>1000</v>
       </c>
       <c r="AN28" s="14"/>
-      <c r="AO28" s="16"/>
+      <c r="AO28" s="17"/>
       <c r="AP28" s="15" t="s">
         <v>19</v>
       </c>
@@ -3904,30 +3920,30 @@
       <c r="AR28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AS28" s="18" t="s">
+      <c r="AS28" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AT28" s="18"/>
+      <c r="AT28" s="19"/>
       <c r="AU28" s="14">
         <v>1000</v>
       </c>
       <c r="AV28" s="15"/>
-      <c r="AW28" s="16"/>
+      <c r="AW28" s="17"/>
       <c r="AX28" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AY28" s="15" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="AZ28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB28" s="18"/>
-      <c r="BC28" s="14">
-        <v>1000</v>
+        <v>54</v>
+      </c>
+      <c r="BA28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="22">
+        <v>985</v>
       </c>
       <c r="BD28" s="14"/>
       <c r="BE28" s="15"/>
@@ -3939,13 +3955,25 @@
       <c r="BK28" s="12"/>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3999,27 +4027,25 @@
       <c r="BK29" s="12"/>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="9" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="10">
+        <v>167</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -4031,14 +4057,14 @@
       <c r="L30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="18"/>
       <c r="O30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -4050,14 +4076,14 @@
       <c r="T30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V30" s="17"/>
+      <c r="V30" s="18"/>
       <c r="W30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="16" t="s">
+      <c r="Y30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="Z30" s="7" t="s">
@@ -4069,14 +4095,14 @@
       <c r="AB30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="17" t="s">
+      <c r="AC30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AD30" s="17"/>
+      <c r="AD30" s="18"/>
       <c r="AE30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG30" s="16" t="s">
+      <c r="AG30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AH30" s="12" t="s">
@@ -4088,15 +4114,15 @@
       <c r="AJ30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK30" s="17" t="s">
+      <c r="AK30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AL30" s="17"/>
+      <c r="AL30" s="18"/>
       <c r="AM30" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN30" s="14"/>
-      <c r="AO30" s="16" t="s">
+      <c r="AO30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AP30" s="15" t="s">
@@ -4108,15 +4134,15 @@
       <c r="AR30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS30" s="17" t="s">
+      <c r="AS30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AT30" s="17"/>
+      <c r="AT30" s="18"/>
       <c r="AU30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV30" s="15"/>
-      <c r="AW30" s="16" t="s">
+      <c r="AW30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AX30" s="15" t="s">
@@ -4128,10 +4154,10 @@
       <c r="AZ30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA30" s="17" t="s">
+      <c r="BA30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BB30" s="17"/>
+      <c r="BB30" s="18"/>
       <c r="BC30" s="14" t="s">
         <v>14</v>
       </c>
@@ -4145,25 +4171,25 @@
       <c r="BK30" s="12"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="19"/>
       <c r="G31" s="10">
-        <v>167</v>
+        <v>769</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="19"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="10" t="s">
         <v>6</v>
       </c>
@@ -4173,14 +4199,14 @@
       <c r="L31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="18"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="3">
         <v>167</v>
       </c>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="17"/>
       <c r="R31" s="5" t="s">
         <v>6</v>
       </c>
@@ -4190,14 +4216,14 @@
       <c r="T31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U31" s="18" t="s">
+      <c r="U31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="V31" s="18"/>
+      <c r="V31" s="19"/>
       <c r="W31" s="5">
         <v>167</v>
       </c>
-      <c r="Y31" s="16"/>
+      <c r="Y31" s="17"/>
       <c r="Z31" s="7" t="s">
         <v>6</v>
       </c>
@@ -4207,14 +4233,14 @@
       <c r="AB31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC31" s="18" t="s">
+      <c r="AC31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD31" s="18"/>
+      <c r="AD31" s="19"/>
       <c r="AE31" s="7">
         <v>167</v>
       </c>
-      <c r="AG31" s="16"/>
+      <c r="AG31" s="17"/>
       <c r="AH31" s="12" t="s">
         <v>6</v>
       </c>
@@ -4224,14 +4250,14 @@
       <c r="AJ31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK31" s="18" t="s">
+      <c r="AK31" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AL31" s="18"/>
+      <c r="AL31" s="19"/>
       <c r="AM31" s="12">
         <v>167</v>
       </c>
-      <c r="AO31" s="16"/>
+      <c r="AO31" s="17"/>
       <c r="AP31" s="15" t="s">
         <v>6</v>
       </c>
@@ -4241,28 +4267,28 @@
       <c r="AR31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AS31" s="18" t="s">
+      <c r="AS31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AT31" s="18"/>
+      <c r="AT31" s="19"/>
       <c r="AU31" s="15">
         <v>167</v>
       </c>
       <c r="AV31" s="15"/>
-      <c r="AW31" s="16"/>
+      <c r="AW31" s="17"/>
       <c r="AX31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AY31" s="15" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="AZ31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA31" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB31" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="BA31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB31" s="19"/>
       <c r="BC31" s="15">
         <v>167</v>
       </c>
@@ -4275,25 +4301,15 @@
       <c r="BK31" s="12"/>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="10">
-        <v>769</v>
-      </c>
+      <c r="A32" s="17"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="10" t="s">
         <v>7</v>
       </c>
@@ -4303,14 +4319,14 @@
       <c r="L32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="18"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="3">
         <v>769</v>
       </c>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="17"/>
       <c r="R32" s="5" t="s">
         <v>7</v>
       </c>
@@ -4320,14 +4336,14 @@
       <c r="T32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U32" s="18" t="s">
+      <c r="U32" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="V32" s="18"/>
+      <c r="V32" s="19"/>
       <c r="W32" s="5">
         <v>769</v>
       </c>
-      <c r="Y32" s="16"/>
+      <c r="Y32" s="17"/>
       <c r="Z32" s="7" t="s">
         <v>7</v>
       </c>
@@ -4337,14 +4353,14 @@
       <c r="AB32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AC32" s="18" t="s">
+      <c r="AC32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AD32" s="18"/>
+      <c r="AD32" s="19"/>
       <c r="AE32" s="7">
         <v>769</v>
       </c>
-      <c r="AG32" s="16"/>
+      <c r="AG32" s="17"/>
       <c r="AH32" s="12" t="s">
         <v>7</v>
       </c>
@@ -4354,14 +4370,14 @@
       <c r="AJ32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AK32" s="18" t="s">
+      <c r="AK32" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AL32" s="18"/>
+      <c r="AL32" s="19"/>
       <c r="AM32" s="12">
         <v>769</v>
       </c>
-      <c r="AO32" s="16"/>
+      <c r="AO32" s="17"/>
       <c r="AP32" s="15" t="s">
         <v>7</v>
       </c>
@@ -4371,30 +4387,30 @@
       <c r="AR32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AS32" s="18" t="s">
+      <c r="AS32" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AT32" s="18"/>
+      <c r="AT32" s="19"/>
       <c r="AU32" s="15">
         <v>769</v>
       </c>
       <c r="AV32" s="15"/>
-      <c r="AW32" s="16"/>
+      <c r="AW32" s="17"/>
       <c r="AX32" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AY32" s="15" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="AZ32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA32" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="15">
-        <v>769</v>
+        <v>96</v>
+      </c>
+      <c r="BA32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="23">
+        <v>768</v>
       </c>
       <c r="BE32" s="15"/>
       <c r="BF32" s="15"/>
@@ -4405,25 +4421,21 @@
       <c r="BK32" s="12"/>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="19"/>
       <c r="G33" s="10">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="10" t="s">
         <v>8</v>
       </c>
@@ -4433,14 +4445,14 @@
       <c r="L33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="18"/>
+      <c r="M33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="19"/>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="17"/>
       <c r="R33" s="5" t="s">
         <v>8</v>
       </c>
@@ -4450,14 +4462,14 @@
       <c r="T33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="18"/>
+      <c r="U33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="19"/>
       <c r="W33" s="5">
         <v>0</v>
       </c>
-      <c r="Y33" s="16"/>
+      <c r="Y33" s="17"/>
       <c r="Z33" s="7" t="s">
         <v>8</v>
       </c>
@@ -4467,14 +4479,14 @@
       <c r="AB33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD33" s="18"/>
+      <c r="AC33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="19"/>
       <c r="AE33" s="7">
         <v>0</v>
       </c>
-      <c r="AG33" s="16"/>
+      <c r="AG33" s="17"/>
       <c r="AH33" s="12" t="s">
         <v>8</v>
       </c>
@@ -4484,14 +4496,14 @@
       <c r="AJ33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL33" s="18"/>
+      <c r="AK33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL33" s="19"/>
       <c r="AM33" s="12">
         <v>0</v>
       </c>
-      <c r="AO33" s="16"/>
+      <c r="AO33" s="17"/>
       <c r="AP33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4501,15 +4513,15 @@
       <c r="AR33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT33" s="18"/>
+      <c r="AS33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT33" s="19"/>
       <c r="AU33" s="15">
         <v>0</v>
       </c>
       <c r="AV33" s="15"/>
-      <c r="AW33" s="16"/>
+      <c r="AW33" s="17"/>
       <c r="AX33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4519,10 +4531,10 @@
       <c r="AZ33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB33" s="18"/>
+      <c r="BA33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB33" s="19"/>
       <c r="BC33" s="15">
         <v>0</v>
       </c>
@@ -4535,43 +4547,53 @@
       <c r="BK33" s="12"/>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="10">
+        <v>936</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
-      <c r="Q34" s="16"/>
+      <c r="Q34" s="17"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="5"/>
-      <c r="Y34" s="16"/>
+      <c r="Y34" s="17"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="7"/>
-      <c r="AG34" s="16"/>
+      <c r="AG34" s="17"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="12"/>
-      <c r="AO34" s="16"/>
+      <c r="AO34" s="17"/>
       <c r="AP34" s="15"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="15"/>
@@ -4579,7 +4601,7 @@
       <c r="AT34" s="14"/>
       <c r="AU34" s="15"/>
       <c r="AV34" s="15"/>
-      <c r="AW34" s="16"/>
+      <c r="AW34" s="17"/>
       <c r="AX34" s="15"/>
       <c r="AY34" s="15"/>
       <c r="AZ34" s="15"/>
@@ -4595,98 +4617,102 @@
       <c r="BK34" s="12"/>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="E35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="19"/>
       <c r="G35" s="10">
         <v>936</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="18"/>
+      <c r="N35" s="19"/>
       <c r="O35" s="3">
         <v>936</v>
       </c>
-      <c r="Q35" s="16"/>
+      <c r="Q35" s="17"/>
       <c r="R35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="18" t="s">
+      <c r="U35" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="V35" s="18"/>
+      <c r="V35" s="19"/>
       <c r="W35" s="5">
         <v>936</v>
       </c>
-      <c r="Y35" s="16"/>
+      <c r="Y35" s="17"/>
       <c r="Z35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="18" t="s">
+      <c r="AC35" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AD35" s="18"/>
+      <c r="AD35" s="19"/>
       <c r="AE35" s="7">
         <v>936</v>
       </c>
-      <c r="AG35" s="16"/>
+      <c r="AG35" s="17"/>
       <c r="AH35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="18" t="s">
+      <c r="AK35" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AL35" s="18"/>
+      <c r="AL35" s="19"/>
       <c r="AM35" s="12">
         <v>936</v>
       </c>
-      <c r="AO35" s="16"/>
+      <c r="AO35" s="17"/>
       <c r="AP35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="15"/>
-      <c r="AS35" s="18" t="s">
+      <c r="AS35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AT35" s="18"/>
+      <c r="AT35" s="19"/>
       <c r="AU35" s="15">
         <v>936</v>
       </c>
       <c r="AV35" s="15"/>
-      <c r="AW35" s="16"/>
+      <c r="AW35" s="17"/>
       <c r="AX35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY35" s="15"/>
       <c r="AZ35" s="15"/>
-      <c r="BA35" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB35" s="18"/>
-      <c r="BC35" s="15">
-        <v>936</v>
+      <c r="BA35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="23">
+        <v>935</v>
       </c>
       <c r="BE35" s="15"/>
       <c r="BF35" s="15"/>
@@ -4698,24 +4724,14 @@
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
-      <c r="B36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="10">
-        <v>936</v>
-      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4725,14 +4741,14 @@
       <c r="L36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="18"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="3">
         <v>936</v>
       </c>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="17"/>
       <c r="R36" s="5" t="s">
         <v>18</v>
       </c>
@@ -4742,14 +4758,14 @@
       <c r="T36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="18" t="s">
+      <c r="U36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="V36" s="18"/>
+      <c r="V36" s="19"/>
       <c r="W36" s="5">
         <v>936</v>
       </c>
-      <c r="Y36" s="16"/>
+      <c r="Y36" s="17"/>
       <c r="Z36" s="7" t="s">
         <v>18</v>
       </c>
@@ -4759,14 +4775,14 @@
       <c r="AB36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AC36" s="18" t="s">
+      <c r="AC36" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD36" s="18"/>
+      <c r="AD36" s="19"/>
       <c r="AE36" s="7">
         <v>936</v>
       </c>
-      <c r="AG36" s="16"/>
+      <c r="AG36" s="17"/>
       <c r="AH36" s="12" t="s">
         <v>18</v>
       </c>
@@ -4776,14 +4792,14 @@
       <c r="AJ36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AK36" s="18" t="s">
+      <c r="AK36" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" s="18"/>
+      <c r="AL36" s="19"/>
       <c r="AM36" s="12">
         <v>936</v>
       </c>
-      <c r="AO36" s="16"/>
+      <c r="AO36" s="17"/>
       <c r="AP36" s="15" t="s">
         <v>18</v>
       </c>
@@ -4793,30 +4809,30 @@
       <c r="AR36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="18" t="s">
+      <c r="AS36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AT36" s="18"/>
+      <c r="AT36" s="19"/>
       <c r="AU36" s="15">
         <v>936</v>
       </c>
       <c r="AV36" s="15"/>
-      <c r="AW36" s="16"/>
+      <c r="AW36" s="17"/>
       <c r="AX36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AY36" s="15" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="AZ36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA36" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB36" s="18"/>
-      <c r="BC36" s="15">
-        <v>936</v>
+        <v>66</v>
+      </c>
+      <c r="BA36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="23">
+        <v>935</v>
       </c>
       <c r="BE36" s="15"/>
       <c r="BF36" s="15"/>
@@ -4827,25 +4843,27 @@
       <c r="BK36" s="12"/>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="B37" s="10" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="10">
-        <v>936</v>
+        <v>4</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4855,14 +4873,14 @@
       <c r="L37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="18"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="3">
         <v>936</v>
       </c>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="17"/>
       <c r="R37" s="5" t="s">
         <v>19</v>
       </c>
@@ -4872,14 +4890,14 @@
       <c r="T37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="18" t="s">
+      <c r="U37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="V37" s="18"/>
+      <c r="V37" s="19"/>
       <c r="W37" s="5">
         <v>936</v>
       </c>
-      <c r="Y37" s="16"/>
+      <c r="Y37" s="17"/>
       <c r="Z37" s="7" t="s">
         <v>19</v>
       </c>
@@ -4889,14 +4907,14 @@
       <c r="AB37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AC37" s="18" t="s">
+      <c r="AC37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AD37" s="18"/>
+      <c r="AD37" s="19"/>
       <c r="AE37" s="7">
         <v>936</v>
       </c>
-      <c r="AG37" s="16"/>
+      <c r="AG37" s="17"/>
       <c r="AH37" s="12" t="s">
         <v>19</v>
       </c>
@@ -4906,14 +4924,14 @@
       <c r="AJ37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AK37" s="18" t="s">
+      <c r="AK37" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AL37" s="18"/>
+      <c r="AL37" s="19"/>
       <c r="AM37" s="12">
         <v>936</v>
       </c>
-      <c r="AO37" s="16"/>
+      <c r="AO37" s="17"/>
       <c r="AP37" s="15" t="s">
         <v>19</v>
       </c>
@@ -4923,30 +4941,30 @@
       <c r="AR37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AS37" s="18" t="s">
+      <c r="AS37" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AT37" s="18"/>
+      <c r="AT37" s="19"/>
       <c r="AU37" s="15">
         <v>936</v>
       </c>
       <c r="AV37" s="15"/>
-      <c r="AW37" s="16"/>
+      <c r="AW37" s="17"/>
       <c r="AX37" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AY37" s="15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ37" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA37" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB37" s="18"/>
-      <c r="BC37" s="15">
-        <v>936</v>
+        <v>50</v>
+      </c>
+      <c r="BA37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="23">
+        <v>935</v>
       </c>
       <c r="BE37" s="15"/>
       <c r="BF37" s="15"/>
@@ -4957,13 +4975,23 @@
       <c r="BK37" s="12"/>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="9">
+        <v>483</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -5017,27 +5045,25 @@
       <c r="BK38" s="12"/>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="9" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="9">
+        <v>517</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="21" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -5056,7 +5082,7 @@
       <c r="O39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="16" t="s">
+      <c r="Q39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -5068,14 +5094,14 @@
       <c r="T39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U39" s="18" t="s">
+      <c r="U39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="18"/>
+      <c r="V39" s="19"/>
       <c r="W39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="16" t="s">
+      <c r="Y39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="Z39" s="7" t="s">
@@ -5087,14 +5113,14 @@
       <c r="AB39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC39" s="18" t="s">
+      <c r="AC39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD39" s="18"/>
+      <c r="AD39" s="19"/>
       <c r="AE39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG39" s="16" t="s">
+      <c r="AG39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="AH39" s="12" t="s">
@@ -5106,15 +5132,15 @@
       <c r="AJ39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK39" s="18" t="s">
+      <c r="AK39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AL39" s="18"/>
+      <c r="AL39" s="19"/>
       <c r="AM39" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN39" s="14"/>
-      <c r="AO39" s="16" t="s">
+      <c r="AO39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="AP39" s="15" t="s">
@@ -5126,15 +5152,15 @@
       <c r="AR39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS39" s="18" t="s">
+      <c r="AS39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AT39" s="18"/>
+      <c r="AT39" s="19"/>
       <c r="AU39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV39" s="15"/>
-      <c r="AW39" s="16" t="s">
+      <c r="AW39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="AX39" s="15" t="s">
@@ -5146,10 +5172,10 @@
       <c r="AZ39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA39" s="18" t="s">
+      <c r="BA39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BB39" s="18"/>
+      <c r="BB39" s="19"/>
       <c r="BC39" s="14" t="s">
         <v>14</v>
       </c>
@@ -5163,25 +5189,15 @@
       <c r="BK39" s="12"/>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="9">
-        <v>483</v>
-      </c>
+      <c r="A40" s="17"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="1" t="s">
         <v>6</v>
       </c>
@@ -5198,7 +5214,7 @@
       <c r="O40" s="2">
         <v>483</v>
       </c>
-      <c r="Q40" s="16"/>
+      <c r="Q40" s="17"/>
       <c r="R40" s="5" t="s">
         <v>6</v>
       </c>
@@ -5208,14 +5224,14 @@
       <c r="T40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U40" s="18" t="s">
+      <c r="U40" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="V40" s="18"/>
+      <c r="V40" s="19"/>
       <c r="W40" s="6">
         <v>483</v>
       </c>
-      <c r="Y40" s="16"/>
+      <c r="Y40" s="17"/>
       <c r="Z40" s="7" t="s">
         <v>6</v>
       </c>
@@ -5225,14 +5241,14 @@
       <c r="AB40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AC40" s="18" t="s">
+      <c r="AC40" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD40" s="18"/>
+      <c r="AD40" s="19"/>
       <c r="AE40" s="8">
         <v>483</v>
       </c>
-      <c r="AG40" s="16"/>
+      <c r="AG40" s="17"/>
       <c r="AH40" s="12" t="s">
         <v>6</v>
       </c>
@@ -5242,15 +5258,15 @@
       <c r="AJ40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AK40" s="18" t="s">
+      <c r="AK40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AL40" s="18"/>
+      <c r="AL40" s="19"/>
       <c r="AM40" s="13">
         <v>483</v>
       </c>
       <c r="AN40" s="14"/>
-      <c r="AO40" s="16"/>
+      <c r="AO40" s="17"/>
       <c r="AP40" s="15" t="s">
         <v>6</v>
       </c>
@@ -5260,30 +5276,30 @@
       <c r="AR40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AS40" s="18" t="s">
+      <c r="AS40" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AT40" s="18"/>
+      <c r="AT40" s="19"/>
       <c r="AU40" s="14">
         <v>483</v>
       </c>
       <c r="AV40" s="15"/>
-      <c r="AW40" s="16"/>
+      <c r="AW40" s="17"/>
       <c r="AX40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AY40" s="15" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AZ40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA40" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB40" s="18"/>
-      <c r="BC40" s="14">
-        <v>483</v>
+        <v>54</v>
+      </c>
+      <c r="BA40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="22">
+        <v>482</v>
       </c>
       <c r="BD40" s="14"/>
       <c r="BE40" s="15"/>
@@ -5295,25 +5311,21 @@
       <c r="BK40" s="12"/>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="19"/>
       <c r="G41" s="9">
-        <v>517</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
@@ -5330,7 +5342,7 @@
       <c r="O41" s="2">
         <v>517</v>
       </c>
-      <c r="Q41" s="16"/>
+      <c r="Q41" s="17"/>
       <c r="R41" s="5" t="s">
         <v>7</v>
       </c>
@@ -5340,14 +5352,14 @@
       <c r="T41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="18" t="s">
+      <c r="U41" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="V41" s="18"/>
+      <c r="V41" s="19"/>
       <c r="W41" s="6">
         <v>517</v>
       </c>
-      <c r="Y41" s="16"/>
+      <c r="Y41" s="17"/>
       <c r="Z41" s="7" t="s">
         <v>7</v>
       </c>
@@ -5357,14 +5369,14 @@
       <c r="AB41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC41" s="18" t="s">
+      <c r="AC41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="18"/>
+      <c r="AD41" s="19"/>
       <c r="AE41" s="8">
         <v>517</v>
       </c>
-      <c r="AG41" s="16"/>
+      <c r="AG41" s="17"/>
       <c r="AH41" s="12" t="s">
         <v>7</v>
       </c>
@@ -5374,15 +5386,15 @@
       <c r="AJ41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK41" s="18" t="s">
+      <c r="AK41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AL41" s="18"/>
+      <c r="AL41" s="19"/>
       <c r="AM41" s="13">
         <v>517</v>
       </c>
       <c r="AN41" s="14"/>
-      <c r="AO41" s="16"/>
+      <c r="AO41" s="17"/>
       <c r="AP41" s="15" t="s">
         <v>7</v>
       </c>
@@ -5392,28 +5404,28 @@
       <c r="AR41" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS41" s="18" t="s">
+      <c r="AS41" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AT41" s="18"/>
+      <c r="AT41" s="19"/>
       <c r="AU41" s="14">
         <v>517</v>
       </c>
       <c r="AV41" s="15"/>
-      <c r="AW41" s="16"/>
+      <c r="AW41" s="17"/>
       <c r="AX41" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AY41" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AZ41" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA41" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB41" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="BA41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB41" s="19"/>
       <c r="BC41" s="14">
         <v>517</v>
       </c>
@@ -5427,25 +5439,25 @@
       <c r="BK41" s="12"/>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="19"/>
       <c r="G42" s="9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="19"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
@@ -5462,7 +5474,7 @@
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="Q42" s="16"/>
+      <c r="Q42" s="17"/>
       <c r="R42" s="5" t="s">
         <v>8</v>
       </c>
@@ -5472,14 +5484,14 @@
       <c r="T42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" s="18"/>
+      <c r="U42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="19"/>
       <c r="W42" s="6">
         <v>0</v>
       </c>
-      <c r="Y42" s="16"/>
+      <c r="Y42" s="17"/>
       <c r="Z42" s="7" t="s">
         <v>8</v>
       </c>
@@ -5489,14 +5501,14 @@
       <c r="AB42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD42" s="18"/>
+      <c r="AC42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="19"/>
       <c r="AE42" s="8">
         <v>0</v>
       </c>
-      <c r="AG42" s="16"/>
+      <c r="AG42" s="17"/>
       <c r="AH42" s="12" t="s">
         <v>8</v>
       </c>
@@ -5506,15 +5518,15 @@
       <c r="AJ42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="18"/>
+      <c r="AK42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="19"/>
       <c r="AM42" s="13">
         <v>0</v>
       </c>
       <c r="AN42" s="14"/>
-      <c r="AO42" s="16"/>
+      <c r="AO42" s="17"/>
       <c r="AP42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5524,15 +5536,15 @@
       <c r="AR42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT42" s="18"/>
+      <c r="AS42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT42" s="19"/>
       <c r="AU42" s="14">
         <v>0</v>
       </c>
       <c r="AV42" s="15"/>
-      <c r="AW42" s="16"/>
+      <c r="AW42" s="17"/>
       <c r="AX42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5542,10 +5554,10 @@
       <c r="AZ42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB42" s="18"/>
+      <c r="BA42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB42" s="19"/>
       <c r="BC42" s="14">
         <v>0</v>
       </c>
@@ -5559,36 +5571,46 @@
       <c r="BK42" s="12"/>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="9">
+        <v>1000</v>
+      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="19"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="2"/>
-      <c r="Q43" s="16"/>
+      <c r="Q43" s="17"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="Y43" s="16"/>
+      <c r="Y43" s="17"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AG43" s="16"/>
+      <c r="AG43" s="17"/>
       <c r="AH43" s="12"/>
       <c r="AI43" s="12"/>
       <c r="AJ43" s="12"/>
@@ -5596,7 +5618,7 @@
       <c r="AL43" s="13"/>
       <c r="AM43" s="13"/>
       <c r="AN43" s="14"/>
-      <c r="AO43" s="16"/>
+      <c r="AO43" s="17"/>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="15"/>
@@ -5604,7 +5626,7 @@
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
       <c r="AV43" s="15"/>
-      <c r="AW43" s="16"/>
+      <c r="AW43" s="17"/>
       <c r="AX43" s="15"/>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
@@ -5622,20 +5644,8 @@
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
-      <c r="B44" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="9">
-        <v>1000</v>
-      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="19"/>
+      <c r="I44" s="21"/>
       <c r="J44" s="1" t="s">
         <v>17</v>
       </c>
@@ -5648,72 +5658,72 @@
       <c r="O44" s="2">
         <v>1000</v>
       </c>
-      <c r="Q44" s="16"/>
+      <c r="Q44" s="17"/>
       <c r="R44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="18" t="s">
+      <c r="U44" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="V44" s="18"/>
+      <c r="V44" s="19"/>
       <c r="W44" s="6">
         <v>1000</v>
       </c>
-      <c r="Y44" s="16"/>
+      <c r="Y44" s="17"/>
       <c r="Z44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="18" t="s">
+      <c r="AC44" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AD44" s="18"/>
+      <c r="AD44" s="19"/>
       <c r="AE44" s="8">
         <v>1000</v>
       </c>
-      <c r="AG44" s="16"/>
+      <c r="AG44" s="17"/>
       <c r="AH44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI44" s="12"/>
       <c r="AJ44" s="12"/>
-      <c r="AK44" s="18" t="s">
+      <c r="AK44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AL44" s="18"/>
+      <c r="AL44" s="19"/>
       <c r="AM44" s="13">
         <v>1000</v>
       </c>
       <c r="AN44" s="14"/>
-      <c r="AO44" s="16"/>
+      <c r="AO44" s="17"/>
       <c r="AP44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="15"/>
-      <c r="AS44" s="18" t="s">
+      <c r="AS44" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AT44" s="18"/>
+      <c r="AT44" s="19"/>
       <c r="AU44" s="14">
         <v>1000</v>
       </c>
       <c r="AV44" s="15"/>
-      <c r="AW44" s="16"/>
+      <c r="AW44" s="17"/>
       <c r="AX44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
-      <c r="BA44" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB44" s="18"/>
-      <c r="BC44" s="14">
-        <v>1000</v>
+      <c r="BA44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB44" s="19"/>
+      <c r="BC44" s="22">
+        <v>999</v>
       </c>
       <c r="BD44" s="14"/>
       <c r="BE44" s="15"/>
@@ -5726,24 +5736,8 @@
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
-      <c r="B45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="9">
-        <v>1000</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="19"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="1" t="s">
         <v>18</v>
       </c>
@@ -5760,7 +5754,7 @@
       <c r="O45" s="2">
         <v>1000</v>
       </c>
-      <c r="Q45" s="16"/>
+      <c r="Q45" s="17"/>
       <c r="R45" s="5" t="s">
         <v>18</v>
       </c>
@@ -5770,14 +5764,14 @@
       <c r="T45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="18" t="s">
+      <c r="U45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="V45" s="18"/>
+      <c r="V45" s="19"/>
       <c r="W45" s="6">
         <v>1000</v>
       </c>
-      <c r="Y45" s="16"/>
+      <c r="Y45" s="17"/>
       <c r="Z45" s="7" t="s">
         <v>18</v>
       </c>
@@ -5787,14 +5781,14 @@
       <c r="AB45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AC45" s="18" t="s">
+      <c r="AC45" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AD45" s="18"/>
+      <c r="AD45" s="19"/>
       <c r="AE45" s="8">
         <v>1000</v>
       </c>
-      <c r="AG45" s="16"/>
+      <c r="AG45" s="17"/>
       <c r="AH45" s="12" t="s">
         <v>18</v>
       </c>
@@ -5804,15 +5798,15 @@
       <c r="AJ45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK45" s="18" t="s">
+      <c r="AK45" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AL45" s="18"/>
+      <c r="AL45" s="19"/>
       <c r="AM45" s="13">
         <v>1000</v>
       </c>
       <c r="AN45" s="14"/>
-      <c r="AO45" s="16"/>
+      <c r="AO45" s="17"/>
       <c r="AP45" s="15" t="s">
         <v>18</v>
       </c>
@@ -5822,15 +5816,15 @@
       <c r="AR45" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AS45" s="18" t="s">
+      <c r="AS45" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AT45" s="18"/>
+      <c r="AT45" s="19"/>
       <c r="AU45" s="14">
         <v>1000</v>
       </c>
       <c r="AV45" s="15"/>
-      <c r="AW45" s="16"/>
+      <c r="AW45" s="17"/>
       <c r="AX45" s="15" t="s">
         <v>18</v>
       </c>
@@ -5838,14 +5832,14 @@
         <v>46</v>
       </c>
       <c r="AZ45" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA45" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB45" s="18"/>
-      <c r="BC45" s="14">
-        <v>1000</v>
+        <v>78</v>
+      </c>
+      <c r="BA45" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB45" s="19"/>
+      <c r="BC45" s="22">
+        <v>999</v>
       </c>
       <c r="BD45" s="14"/>
       <c r="BE45" s="15"/>
@@ -5858,24 +5852,9 @@
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
-      <c r="B46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="9">
-        <v>1000</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="1" t="s">
         <v>19</v>
       </c>
@@ -5892,7 +5871,7 @@
       <c r="O46" s="2">
         <v>1000</v>
       </c>
-      <c r="Q46" s="16"/>
+      <c r="Q46" s="17"/>
       <c r="R46" s="5" t="s">
         <v>19</v>
       </c>
@@ -5902,14 +5881,14 @@
       <c r="T46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U46" s="18" t="s">
+      <c r="U46" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="V46" s="18"/>
+      <c r="V46" s="19"/>
       <c r="W46" s="6">
         <v>1000</v>
       </c>
-      <c r="Y46" s="16"/>
+      <c r="Y46" s="17"/>
       <c r="Z46" s="7" t="s">
         <v>19</v>
       </c>
@@ -5919,14 +5898,14 @@
       <c r="AB46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AC46" s="18" t="s">
+      <c r="AC46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AD46" s="18"/>
+      <c r="AD46" s="19"/>
       <c r="AE46" s="8">
         <v>1000</v>
       </c>
-      <c r="AG46" s="16"/>
+      <c r="AG46" s="17"/>
       <c r="AH46" s="12" t="s">
         <v>19</v>
       </c>
@@ -5936,15 +5915,15 @@
       <c r="AJ46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK46" s="18" t="s">
+      <c r="AK46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AL46" s="18"/>
+      <c r="AL46" s="19"/>
       <c r="AM46" s="13">
         <v>1000</v>
       </c>
       <c r="AN46" s="14"/>
-      <c r="AO46" s="16"/>
+      <c r="AO46" s="17"/>
       <c r="AP46" s="15" t="s">
         <v>19</v>
       </c>
@@ -5954,15 +5933,15 @@
       <c r="AR46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AS46" s="18" t="s">
+      <c r="AS46" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AT46" s="18"/>
+      <c r="AT46" s="19"/>
       <c r="AU46" s="14">
         <v>1000</v>
       </c>
       <c r="AV46" s="15"/>
-      <c r="AW46" s="16"/>
+      <c r="AW46" s="17"/>
       <c r="AX46" s="15" t="s">
         <v>19</v>
       </c>
@@ -5970,14 +5949,14 @@
         <v>58</v>
       </c>
       <c r="AZ46" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA46" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB46" s="18"/>
-      <c r="BC46" s="14">
-        <v>1000</v>
+        <v>57</v>
+      </c>
+      <c r="BA46" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB46" s="19"/>
+      <c r="BC46" s="22">
+        <v>999</v>
       </c>
       <c r="BD46" s="14"/>
       <c r="BE46" s="15"/>
@@ -5999,7 +5978,6 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
       <c r="AG49" s="12"/>
       <c r="AH49" s="12"/>
       <c r="AI49" s="12"/>
@@ -6081,48 +6059,235 @@
       <c r="AM57" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="296">
-    <mergeCell ref="AW30:AW37"/>
-    <mergeCell ref="BA30:BB30"/>
-    <mergeCell ref="BA31:BB31"/>
-    <mergeCell ref="BA32:BB32"/>
-    <mergeCell ref="BA33:BB33"/>
-    <mergeCell ref="BA35:BB35"/>
-    <mergeCell ref="BA36:BB36"/>
-    <mergeCell ref="BA37:BB37"/>
-    <mergeCell ref="AW39:AW46"/>
-    <mergeCell ref="BA39:BB39"/>
-    <mergeCell ref="BA40:BB40"/>
-    <mergeCell ref="BA41:BB41"/>
-    <mergeCell ref="BA42:BB42"/>
-    <mergeCell ref="BA44:BB44"/>
-    <mergeCell ref="BA45:BB45"/>
-    <mergeCell ref="BA46:BB46"/>
-    <mergeCell ref="AW12:AW19"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BA15:BB15"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="AX1:BB2"/>
-    <mergeCell ref="AW3:AW10"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BA10:BB10"/>
+  <mergeCells count="293">
+    <mergeCell ref="AG30:AG37"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AG39:AG46"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AG12:AG19"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="BF1:BJ2"/>
+    <mergeCell ref="BE3:BE10"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="Y30:Y37"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="Y39:Y46"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="Z1:AD2"/>
+    <mergeCell ref="Y3:Y10"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="Y12:Y19"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I39:I46"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R1:V2"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="Q12:Q19"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="Q30:Q37"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="AH1:AL2"/>
+    <mergeCell ref="AG3:AG10"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="AO3:AO10"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AO12:AO19"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AS19:AT19"/>
     <mergeCell ref="AO39:AO46"/>
     <mergeCell ref="AS39:AT39"/>
     <mergeCell ref="AS40:AT40"/>
@@ -6147,237 +6312,47 @@
     <mergeCell ref="AS33:AT33"/>
     <mergeCell ref="AS35:AT35"/>
     <mergeCell ref="AS36:AT36"/>
-    <mergeCell ref="AS37:AT37"/>
-    <mergeCell ref="AO3:AO10"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AO12:AO19"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="AH1:AL2"/>
-    <mergeCell ref="AG3:AG10"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="Q30:Q37"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q39:Q46"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="Q12:Q19"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R1:V2"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="I39:I46"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="Z1:AD2"/>
-    <mergeCell ref="Y3:Y10"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="Y12:Y19"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="Y30:Y37"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="Y39:Y46"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="BF1:BJ2"/>
-    <mergeCell ref="BE3:BE10"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="AG12:AG19"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AG30:AG37"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AG39:AG46"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="AW3:AW10"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="AW12:AW19"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BA15:BB15"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="AW30:AW37"/>
+    <mergeCell ref="BA30:BB30"/>
+    <mergeCell ref="BA31:BB31"/>
+    <mergeCell ref="BA32:BB32"/>
+    <mergeCell ref="BA33:BB33"/>
+    <mergeCell ref="BA35:BB35"/>
+    <mergeCell ref="BA36:BB36"/>
+    <mergeCell ref="BA37:BB37"/>
+    <mergeCell ref="AW39:AW46"/>
+    <mergeCell ref="BA39:BB39"/>
+    <mergeCell ref="BA40:BB40"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BA42:BB42"/>
+    <mergeCell ref="BA44:BB44"/>
+    <mergeCell ref="BA45:BB45"/>
+    <mergeCell ref="BA46:BB46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasets/Classification Report/Classification Report Total.xlsx
+++ b/Datasets/Classification Report/Classification Report Total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Classification Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AF0A1-234C-4E0D-9369-AF33F9CE8DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CA9E7F-C841-49AA-AE37-B1D7F22A83FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -403,6 +397,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,16 +405,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7679C0-E6FB-4780-AA1A-EA6D9AA2FADC}">
   <dimension ref="A1:BK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BD26" sqref="BD26"/>
+    <sheetView tabSelected="1" topLeftCell="AJ16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB49" sqref="BB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,13 +739,13 @@
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -767,68 +758,68 @@
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
       <c r="W1" s="5"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
       <c r="AE1" s="7"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
       <c r="AM1" s="12"/>
       <c r="AO1" s="15"/>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
       <c r="AU1" s="15"/>
       <c r="AV1" s="15"/>
       <c r="AW1" s="15"/>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
       <c r="BC1" s="15"/>
       <c r="BE1" s="15"/>
-      <c r="BF1" s="17" t="s">
+      <c r="BF1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
       <c r="BK1" s="12"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="10"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -839,51 +830,51 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
       <c r="W2" s="5"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
       <c r="AE2" s="7"/>
       <c r="AG2" s="12"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
       <c r="AM2" s="12"/>
       <c r="AO2" s="15"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
       <c r="BC2" s="15"/>
       <c r="BE2" s="15"/>
-      <c r="BF2" s="17"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
       <c r="BK2" s="12"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -895,10 +886,10 @@
       <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
@@ -915,14 +906,14 @@
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="20"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -934,14 +925,14 @@
       <c r="T3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="19"/>
+      <c r="V3" s="20"/>
       <c r="W3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -953,14 +944,14 @@
       <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="19"/>
+      <c r="AD3" s="20"/>
       <c r="AE3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="AH3" s="12" t="s">
@@ -972,15 +963,15 @@
       <c r="AJ3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="19"/>
+      <c r="AL3" s="20"/>
       <c r="AM3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN3" s="14"/>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="AP3" s="15" t="s">
@@ -992,15 +983,15 @@
       <c r="AR3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AS3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="19"/>
+      <c r="AT3" s="20"/>
       <c r="AU3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV3" s="15"/>
-      <c r="AW3" s="17" t="s">
+      <c r="AW3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="AX3" s="15" t="s">
@@ -1012,15 +1003,15 @@
       <c r="AZ3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA3" s="19" t="s">
+      <c r="BA3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BB3" s="19"/>
+      <c r="BB3" s="20"/>
       <c r="BC3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="BD3" s="14"/>
-      <c r="BE3" s="17" t="s">
+      <c r="BE3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="BF3" s="15" t="s">
@@ -1032,16 +1023,16 @@
       <c r="BH3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BI3" s="19" t="s">
+      <c r="BI3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BJ3" s="19"/>
+      <c r="BJ3" s="20"/>
       <c r="BK3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1051,10 +1042,10 @@
       <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="9">
         <v>504</v>
       </c>
@@ -1069,14 +1060,14 @@
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="20"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="2">
         <v>504</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1086,14 +1077,14 @@
       <c r="T4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="19"/>
+      <c r="V4" s="20"/>
       <c r="W4" s="6">
         <v>504</v>
       </c>
-      <c r="Y4" s="17"/>
+      <c r="Y4" s="18"/>
       <c r="Z4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1103,14 +1094,14 @@
       <c r="AB4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AC4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="19"/>
+      <c r="AD4" s="20"/>
       <c r="AE4" s="8">
         <v>504</v>
       </c>
-      <c r="AG4" s="17"/>
+      <c r="AG4" s="18"/>
       <c r="AH4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1120,15 +1111,15 @@
       <c r="AJ4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AK4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="19"/>
+      <c r="AL4" s="20"/>
       <c r="AM4" s="13">
         <v>504</v>
       </c>
       <c r="AN4" s="14"/>
-      <c r="AO4" s="17"/>
+      <c r="AO4" s="18"/>
       <c r="AP4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1138,15 +1129,15 @@
       <c r="AR4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AS4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" s="19"/>
+      <c r="AT4" s="20"/>
       <c r="AU4" s="14">
         <v>504</v>
       </c>
       <c r="AV4" s="15"/>
-      <c r="AW4" s="17"/>
+      <c r="AW4" s="18"/>
       <c r="AX4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1156,15 +1147,15 @@
       <c r="AZ4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BA4" s="19" t="s">
+      <c r="BA4" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="BB4" s="19"/>
+      <c r="BB4" s="20"/>
       <c r="BC4" s="14">
         <v>504</v>
       </c>
       <c r="BD4" s="14"/>
-      <c r="BE4" s="17"/>
+      <c r="BE4" s="18"/>
       <c r="BF4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1174,16 +1165,16 @@
       <c r="BH4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BI4" s="19" t="s">
+      <c r="BI4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="BJ4" s="19"/>
+      <c r="BJ4" s="20"/>
       <c r="BK4" s="13">
         <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1193,10 +1184,10 @@
       <c r="D5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="9">
         <v>496</v>
       </c>
@@ -1211,14 +1202,14 @@
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="2">
         <v>496</v>
       </c>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1228,14 +1219,14 @@
       <c r="T5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="19"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="6">
         <v>496</v>
       </c>
-      <c r="Y5" s="17"/>
+      <c r="Y5" s="18"/>
       <c r="Z5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1245,14 +1236,14 @@
       <c r="AB5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AC5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="19"/>
+      <c r="AD5" s="20"/>
       <c r="AE5" s="8">
         <v>496</v>
       </c>
-      <c r="AG5" s="17"/>
+      <c r="AG5" s="18"/>
       <c r="AH5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1262,15 +1253,15 @@
       <c r="AJ5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AK5" s="19" t="s">
+      <c r="AK5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="19"/>
+      <c r="AL5" s="20"/>
       <c r="AM5" s="13">
         <v>496</v>
       </c>
       <c r="AN5" s="14"/>
-      <c r="AO5" s="17"/>
+      <c r="AO5" s="18"/>
       <c r="AP5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1280,15 +1271,15 @@
       <c r="AR5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS5" s="19" t="s">
+      <c r="AS5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="19"/>
+      <c r="AT5" s="20"/>
       <c r="AU5" s="14">
         <v>496</v>
       </c>
       <c r="AV5" s="15"/>
-      <c r="AW5" s="17"/>
+      <c r="AW5" s="18"/>
       <c r="AX5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1298,15 +1289,15 @@
       <c r="AZ5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="BA5" s="19" t="s">
+      <c r="BA5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="BB5" s="19"/>
+      <c r="BB5" s="20"/>
       <c r="BC5" s="14">
         <v>496</v>
       </c>
       <c r="BD5" s="14"/>
-      <c r="BE5" s="17"/>
+      <c r="BE5" s="18"/>
       <c r="BF5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1316,21 +1307,21 @@
       <c r="BH5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BI5" s="19" t="s">
+      <c r="BI5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="BJ5" s="19"/>
+      <c r="BJ5" s="20"/>
       <c r="BK5" s="13">
         <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21"/>
@@ -1343,14 +1334,14 @@
       <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="20"/>
+      <c r="M6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="22"/>
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1360,14 +1351,14 @@
       <c r="T6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="19"/>
+      <c r="U6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="20"/>
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="Y6" s="17"/>
+      <c r="Y6" s="18"/>
       <c r="Z6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1377,14 +1368,14 @@
       <c r="AB6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="19"/>
+      <c r="AC6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="20"/>
       <c r="AE6" s="8">
         <v>0</v>
       </c>
-      <c r="AG6" s="17"/>
+      <c r="AG6" s="18"/>
       <c r="AH6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1394,15 +1385,15 @@
       <c r="AJ6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="19"/>
+      <c r="AK6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="20"/>
       <c r="AM6" s="13">
         <v>0</v>
       </c>
       <c r="AN6" s="14"/>
-      <c r="AO6" s="17"/>
+      <c r="AO6" s="18"/>
       <c r="AP6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1412,15 +1403,15 @@
       <c r="AR6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="19"/>
+      <c r="AS6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="20"/>
       <c r="AU6" s="14">
         <v>504</v>
       </c>
       <c r="AV6" s="15"/>
-      <c r="AW6" s="17"/>
+      <c r="AW6" s="18"/>
       <c r="AX6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1430,15 +1421,15 @@
       <c r="AZ6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="19"/>
+      <c r="BA6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="20"/>
       <c r="BC6" s="14">
         <v>0</v>
       </c>
       <c r="BD6" s="14"/>
-      <c r="BE6" s="17"/>
+      <c r="BE6" s="18"/>
       <c r="BF6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1448,16 +1439,16 @@
       <c r="BH6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BI6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="19"/>
+      <c r="BI6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="20"/>
       <c r="BK6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1472,21 +1463,21 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="Y7" s="17"/>
+      <c r="Y7" s="18"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AG7" s="17"/>
+      <c r="AG7" s="18"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
@@ -1494,7 +1485,7 @@
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="14"/>
-      <c r="AO7" s="17"/>
+      <c r="AO7" s="18"/>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="15"/>
       <c r="AR7" s="15"/>
@@ -1502,7 +1493,7 @@
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="15"/>
-      <c r="AW7" s="17"/>
+      <c r="AW7" s="18"/>
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15"/>
@@ -1510,7 +1501,7 @@
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
       <c r="BD7" s="14"/>
-      <c r="BE7" s="17"/>
+      <c r="BE7" s="18"/>
       <c r="BF7" s="15"/>
       <c r="BG7" s="15"/>
       <c r="BH7" s="15"/>
@@ -1519,16 +1510,16 @@
       <c r="BK7" s="13"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9">
         <v>1000</v>
       </c>
@@ -1539,97 +1530,97 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="2">
         <v>1000</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="19"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="6">
         <v>1000</v>
       </c>
-      <c r="Y8" s="17"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="19" t="s">
+      <c r="AC8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="19"/>
+      <c r="AD8" s="20"/>
       <c r="AE8" s="8">
         <v>1000</v>
       </c>
-      <c r="AG8" s="17"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
-      <c r="AK8" s="19" t="s">
+      <c r="AK8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AL8" s="19"/>
+      <c r="AL8" s="20"/>
       <c r="AM8" s="13">
         <v>1000</v>
       </c>
       <c r="AN8" s="14"/>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="18"/>
       <c r="AP8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ8" s="15"/>
       <c r="AR8" s="15"/>
-      <c r="AS8" s="19" t="s">
+      <c r="AS8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AT8" s="19"/>
+      <c r="AT8" s="20"/>
       <c r="AU8" s="14">
         <v>1000</v>
       </c>
       <c r="AV8" s="15"/>
-      <c r="AW8" s="17"/>
+      <c r="AW8" s="18"/>
       <c r="AX8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY8" s="15"/>
       <c r="AZ8" s="15"/>
-      <c r="BA8" s="19" t="s">
+      <c r="BA8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="BB8" s="19"/>
+      <c r="BB8" s="20"/>
       <c r="BC8" s="14">
         <v>1000</v>
       </c>
       <c r="BD8" s="14"/>
-      <c r="BE8" s="17"/>
+      <c r="BE8" s="18"/>
       <c r="BF8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="BG8" s="15"/>
       <c r="BH8" s="15"/>
-      <c r="BI8" s="19" t="s">
+      <c r="BI8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BJ8" s="19"/>
+      <c r="BJ8" s="20"/>
       <c r="BK8" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1639,10 +1630,10 @@
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="9">
         <v>1000</v>
       </c>
@@ -1657,14 +1648,14 @@
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="20"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="2">
         <v>1000</v>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1674,14 +1665,14 @@
       <c r="T9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="19"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="6">
         <v>1000</v>
       </c>
-      <c r="Y9" s="17"/>
+      <c r="Y9" s="18"/>
       <c r="Z9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1691,14 +1682,14 @@
       <c r="AB9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AC9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="19"/>
+      <c r="AD9" s="20"/>
       <c r="AE9" s="8">
         <v>1000</v>
       </c>
-      <c r="AG9" s="17"/>
+      <c r="AG9" s="18"/>
       <c r="AH9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1708,15 +1699,15 @@
       <c r="AJ9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AK9" s="19" t="s">
+      <c r="AK9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="19"/>
+      <c r="AL9" s="20"/>
       <c r="AM9" s="13">
         <v>1000</v>
       </c>
       <c r="AN9" s="14"/>
-      <c r="AO9" s="17"/>
+      <c r="AO9" s="18"/>
       <c r="AP9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1726,15 +1717,15 @@
       <c r="AR9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AS9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="19"/>
+      <c r="AT9" s="20"/>
       <c r="AU9" s="14">
         <v>1000</v>
       </c>
       <c r="AV9" s="15"/>
-      <c r="AW9" s="17"/>
+      <c r="AW9" s="18"/>
       <c r="AX9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1744,15 +1735,15 @@
       <c r="AZ9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BA9" s="19" t="s">
+      <c r="BA9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BB9" s="19"/>
+      <c r="BB9" s="20"/>
       <c r="BC9" s="14">
         <v>1000</v>
       </c>
       <c r="BD9" s="14"/>
-      <c r="BE9" s="17"/>
+      <c r="BE9" s="18"/>
       <c r="BF9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1762,16 +1753,16 @@
       <c r="BH9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="BI9" s="19" t="s">
+      <c r="BI9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="BJ9" s="19"/>
+      <c r="BJ9" s="20"/>
       <c r="BK9" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1781,10 +1772,10 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="9">
         <v>1000</v>
       </c>
@@ -1799,14 +1790,14 @@
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="2">
         <v>1000</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1816,14 +1807,14 @@
       <c r="T10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="20"/>
       <c r="W10" s="6">
         <v>1000</v>
       </c>
-      <c r="Y10" s="17"/>
+      <c r="Y10" s="18"/>
       <c r="Z10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1833,14 +1824,14 @@
       <c r="AB10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="19" t="s">
+      <c r="AC10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" s="19"/>
+      <c r="AD10" s="20"/>
       <c r="AE10" s="8">
         <v>1000</v>
       </c>
-      <c r="AG10" s="17"/>
+      <c r="AG10" s="18"/>
       <c r="AH10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1850,15 +1841,15 @@
       <c r="AJ10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK10" s="19" t="s">
+      <c r="AK10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AL10" s="19"/>
+      <c r="AL10" s="20"/>
       <c r="AM10" s="13">
         <v>1000</v>
       </c>
       <c r="AN10" s="14"/>
-      <c r="AO10" s="17"/>
+      <c r="AO10" s="18"/>
       <c r="AP10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1868,15 +1859,15 @@
       <c r="AR10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AS10" s="19" t="s">
+      <c r="AS10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AT10" s="19"/>
+      <c r="AT10" s="20"/>
       <c r="AU10" s="14">
         <v>1000</v>
       </c>
       <c r="AV10" s="15"/>
-      <c r="AW10" s="17"/>
+      <c r="AW10" s="18"/>
       <c r="AX10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1886,15 +1877,15 @@
       <c r="AZ10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="BA10" s="19" t="s">
+      <c r="BA10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="BB10" s="19"/>
+      <c r="BB10" s="20"/>
       <c r="BC10" s="14">
         <v>1000</v>
       </c>
       <c r="BD10" s="14"/>
-      <c r="BE10" s="17"/>
+      <c r="BE10" s="18"/>
       <c r="BF10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1904,10 +1895,10 @@
       <c r="BH10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BI10" s="19" t="s">
+      <c r="BI10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="BJ10" s="19"/>
+      <c r="BJ10" s="20"/>
       <c r="BK10" s="13">
         <v>1000</v>
       </c>
@@ -1973,7 +1964,7 @@
       <c r="BK11" s="12"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1985,10 +1976,10 @@
       <c r="D12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
@@ -2005,14 +1996,14 @@
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="20"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -2024,14 +2015,14 @@
       <c r="T12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Y12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="Z12" s="7" t="s">
@@ -2043,14 +2034,14 @@
       <c r="AB12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AC12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="19"/>
+      <c r="AD12" s="20"/>
       <c r="AE12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="17" t="s">
+      <c r="AG12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AH12" s="12" t="s">
@@ -2062,15 +2053,15 @@
       <c r="AJ12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK12" s="19" t="s">
+      <c r="AK12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AL12" s="19"/>
+      <c r="AL12" s="20"/>
       <c r="AM12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN12" s="14"/>
-      <c r="AO12" s="17" t="s">
+      <c r="AO12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AP12" s="15" t="s">
@@ -2082,15 +2073,15 @@
       <c r="AR12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AS12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AT12" s="19"/>
+      <c r="AT12" s="20"/>
       <c r="AU12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV12" s="15"/>
-      <c r="AW12" s="17" t="s">
+      <c r="AW12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AX12" s="15" t="s">
@@ -2102,10 +2093,10 @@
       <c r="AZ12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA12" s="19" t="s">
+      <c r="BA12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BB12" s="19"/>
+      <c r="BB12" s="20"/>
       <c r="BC12" s="14" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +2110,7 @@
       <c r="BK12" s="12"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -2129,10 +2120,10 @@
       <c r="D13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="9">
         <v>498</v>
       </c>
@@ -2147,14 +2138,14 @@
       <c r="L13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="20"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="2">
         <v>498</v>
       </c>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2164,14 +2155,14 @@
       <c r="T13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="19"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="6">
         <v>498</v>
       </c>
-      <c r="Y13" s="17"/>
+      <c r="Y13" s="18"/>
       <c r="Z13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2181,14 +2172,14 @@
       <c r="AB13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="19" t="s">
+      <c r="AC13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AD13" s="19"/>
+      <c r="AD13" s="20"/>
       <c r="AE13" s="8">
         <v>498</v>
       </c>
-      <c r="AG13" s="17"/>
+      <c r="AG13" s="18"/>
       <c r="AH13" s="12" t="s">
         <v>6</v>
       </c>
@@ -2198,15 +2189,15 @@
       <c r="AJ13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK13" s="19" t="s">
+      <c r="AK13" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AL13" s="19"/>
+      <c r="AL13" s="20"/>
       <c r="AM13" s="13">
         <v>498</v>
       </c>
       <c r="AN13" s="14"/>
-      <c r="AO13" s="17"/>
+      <c r="AO13" s="18"/>
       <c r="AP13" s="15" t="s">
         <v>6</v>
       </c>
@@ -2216,15 +2207,15 @@
       <c r="AR13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AS13" s="19" t="s">
+      <c r="AS13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AT13" s="19"/>
+      <c r="AT13" s="20"/>
       <c r="AU13" s="14">
         <v>498</v>
       </c>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="17"/>
+      <c r="AW13" s="18"/>
       <c r="AX13" s="15" t="s">
         <v>6</v>
       </c>
@@ -2234,10 +2225,10 @@
       <c r="AZ13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="BA13" s="19" t="s">
+      <c r="BA13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="BB13" s="19"/>
+      <c r="BB13" s="20"/>
       <c r="BC13" s="14">
         <v>498</v>
       </c>
@@ -2251,7 +2242,7 @@
       <c r="BK13" s="12"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -2261,10 +2252,10 @@
       <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="9">
         <v>498</v>
       </c>
@@ -2279,14 +2270,14 @@
       <c r="L14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="20"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="2">
         <v>498</v>
       </c>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="5" t="s">
         <v>7</v>
       </c>
@@ -2296,14 +2287,14 @@
       <c r="T14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="19"/>
+      <c r="V14" s="20"/>
       <c r="W14" s="6">
         <v>498</v>
       </c>
-      <c r="Y14" s="17"/>
+      <c r="Y14" s="18"/>
       <c r="Z14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2313,14 +2304,14 @@
       <c r="AB14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC14" s="19" t="s">
+      <c r="AC14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AD14" s="19"/>
+      <c r="AD14" s="20"/>
       <c r="AE14" s="8">
         <v>498</v>
       </c>
-      <c r="AG14" s="17"/>
+      <c r="AG14" s="18"/>
       <c r="AH14" s="12" t="s">
         <v>7</v>
       </c>
@@ -2330,15 +2321,15 @@
       <c r="AJ14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="19" t="s">
+      <c r="AK14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AL14" s="19"/>
+      <c r="AL14" s="20"/>
       <c r="AM14" s="13">
         <v>498</v>
       </c>
       <c r="AN14" s="14"/>
-      <c r="AO14" s="17"/>
+      <c r="AO14" s="18"/>
       <c r="AP14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2348,15 +2339,15 @@
       <c r="AR14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AS14" s="19" t="s">
+      <c r="AS14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AT14" s="19"/>
+      <c r="AT14" s="20"/>
       <c r="AU14" s="14">
         <v>498</v>
       </c>
       <c r="AV14" s="15"/>
-      <c r="AW14" s="17"/>
+      <c r="AW14" s="18"/>
       <c r="AX14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2366,10 +2357,10 @@
       <c r="AZ14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="BA14" s="19" t="s">
+      <c r="BA14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="BB14" s="19"/>
+      <c r="BB14" s="20"/>
       <c r="BC14" s="14">
         <v>498</v>
       </c>
@@ -2383,12 +2374,12 @@
       <c r="BK14" s="12"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="21"/>
@@ -2401,14 +2392,14 @@
       <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="20"/>
+      <c r="M15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="22"/>
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="Q15" s="17"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2418,14 +2409,14 @@
       <c r="T15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="19"/>
+      <c r="U15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="20"/>
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="17"/>
+      <c r="Y15" s="18"/>
       <c r="Z15" s="7" t="s">
         <v>8</v>
       </c>
@@ -2435,14 +2426,14 @@
       <c r="AB15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="19"/>
+      <c r="AC15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="20"/>
       <c r="AE15" s="8">
         <v>0</v>
       </c>
-      <c r="AG15" s="17"/>
+      <c r="AG15" s="18"/>
       <c r="AH15" s="12" t="s">
         <v>8</v>
       </c>
@@ -2452,15 +2443,15 @@
       <c r="AJ15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="19"/>
+      <c r="AK15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="20"/>
       <c r="AM15" s="13">
         <v>0</v>
       </c>
       <c r="AN15" s="14"/>
-      <c r="AO15" s="17"/>
+      <c r="AO15" s="18"/>
       <c r="AP15" s="15" t="s">
         <v>8</v>
       </c>
@@ -2470,15 +2461,15 @@
       <c r="AR15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT15" s="19"/>
+      <c r="AS15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="20"/>
       <c r="AU15" s="14">
         <v>0</v>
       </c>
       <c r="AV15" s="15"/>
-      <c r="AW15" s="17"/>
+      <c r="AW15" s="18"/>
       <c r="AX15" s="15" t="s">
         <v>8</v>
       </c>
@@ -2488,10 +2479,10 @@
       <c r="AZ15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB15" s="19"/>
+      <c r="BA15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB15" s="20"/>
       <c r="BC15" s="14">
         <v>0</v>
       </c>
@@ -2505,7 +2496,7 @@
       <c r="BK15" s="12"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2520,21 +2511,21 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="2"/>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="18"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
-      <c r="AG16" s="17"/>
+      <c r="AG16" s="18"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
@@ -2542,7 +2533,7 @@
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="14"/>
-      <c r="AO16" s="17"/>
+      <c r="AO16" s="18"/>
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="15"/>
@@ -2550,7 +2541,7 @@
       <c r="AT16" s="14"/>
       <c r="AU16" s="14"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="17"/>
+      <c r="AW16" s="18"/>
       <c r="AX16" s="15"/>
       <c r="AY16" s="15"/>
       <c r="AZ16" s="15"/>
@@ -2567,16 +2558,16 @@
       <c r="BK16" s="12"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="9">
         <v>996</v>
       </c>
@@ -2587,77 +2578,77 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="20"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="2">
         <v>996</v>
       </c>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="V17" s="19"/>
+      <c r="V17" s="20"/>
       <c r="W17" s="6">
         <v>996</v>
       </c>
-      <c r="Y17" s="17"/>
+      <c r="Y17" s="18"/>
       <c r="Z17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="19" t="s">
+      <c r="AC17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="19"/>
+      <c r="AD17" s="20"/>
       <c r="AE17" s="8">
         <v>996</v>
       </c>
-      <c r="AG17" s="17"/>
+      <c r="AG17" s="18"/>
       <c r="AH17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
-      <c r="AK17" s="19" t="s">
+      <c r="AK17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AL17" s="19"/>
+      <c r="AL17" s="20"/>
       <c r="AM17" s="13">
         <v>996</v>
       </c>
       <c r="AN17" s="14"/>
-      <c r="AO17" s="17"/>
+      <c r="AO17" s="18"/>
       <c r="AP17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="15"/>
-      <c r="AS17" s="19" t="s">
+      <c r="AS17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AT17" s="19"/>
+      <c r="AT17" s="20"/>
       <c r="AU17" s="14">
         <v>996</v>
       </c>
       <c r="AV17" s="15"/>
-      <c r="AW17" s="17"/>
+      <c r="AW17" s="18"/>
       <c r="AX17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="15"/>
-      <c r="BA17" s="19" t="s">
+      <c r="BA17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BB17" s="19"/>
+      <c r="BB17" s="20"/>
       <c r="BC17" s="14">
         <v>996</v>
       </c>
@@ -2671,7 +2662,7 @@
       <c r="BK17" s="12"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2681,10 +2672,10 @@
       <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="9">
         <v>996</v>
       </c>
@@ -2699,14 +2690,14 @@
       <c r="L18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="20"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="2">
         <v>996</v>
       </c>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2716,14 +2707,14 @@
       <c r="T18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="U18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="20"/>
       <c r="W18" s="6">
         <v>996</v>
       </c>
-      <c r="Y18" s="17"/>
+      <c r="Y18" s="18"/>
       <c r="Z18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2733,14 +2724,14 @@
       <c r="AB18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC18" s="19" t="s">
+      <c r="AC18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="19"/>
+      <c r="AD18" s="20"/>
       <c r="AE18" s="8">
         <v>996</v>
       </c>
-      <c r="AG18" s="17"/>
+      <c r="AG18" s="18"/>
       <c r="AH18" s="12" t="s">
         <v>18</v>
       </c>
@@ -2750,15 +2741,15 @@
       <c r="AJ18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AK18" s="19" t="s">
+      <c r="AK18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="19"/>
+      <c r="AL18" s="20"/>
       <c r="AM18" s="13">
         <v>996</v>
       </c>
       <c r="AN18" s="14"/>
-      <c r="AO18" s="17"/>
+      <c r="AO18" s="18"/>
       <c r="AP18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2768,15 +2759,15 @@
       <c r="AR18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="19" t="s">
+      <c r="AS18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AT18" s="19"/>
+      <c r="AT18" s="20"/>
       <c r="AU18" s="14">
         <v>996</v>
       </c>
       <c r="AV18" s="15"/>
-      <c r="AW18" s="17"/>
+      <c r="AW18" s="18"/>
       <c r="AX18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2786,10 +2777,10 @@
       <c r="AZ18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BA18" s="19" t="s">
+      <c r="BA18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BB18" s="19"/>
+      <c r="BB18" s="20"/>
       <c r="BC18" s="14">
         <v>996</v>
       </c>
@@ -2803,7 +2794,7 @@
       <c r="BK18" s="12"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2813,10 +2804,10 @@
       <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="9">
         <v>996</v>
       </c>
@@ -2831,14 +2822,14 @@
       <c r="L19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="20"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="2">
         <v>996</v>
       </c>
-      <c r="Q19" s="17"/>
+      <c r="Q19" s="18"/>
       <c r="R19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2848,14 +2839,14 @@
       <c r="T19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="19" t="s">
+      <c r="U19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="19"/>
+      <c r="V19" s="20"/>
       <c r="W19" s="6">
         <v>996</v>
       </c>
-      <c r="Y19" s="17"/>
+      <c r="Y19" s="18"/>
       <c r="Z19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2865,14 +2856,14 @@
       <c r="AB19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="19" t="s">
+      <c r="AC19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="19"/>
+      <c r="AD19" s="20"/>
       <c r="AE19" s="8">
         <v>996</v>
       </c>
-      <c r="AG19" s="17"/>
+      <c r="AG19" s="18"/>
       <c r="AH19" s="12" t="s">
         <v>19</v>
       </c>
@@ -2882,15 +2873,15 @@
       <c r="AJ19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="19" t="s">
+      <c r="AK19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AL19" s="19"/>
+      <c r="AL19" s="20"/>
       <c r="AM19" s="13">
         <v>996</v>
       </c>
       <c r="AN19" s="14"/>
-      <c r="AO19" s="17"/>
+      <c r="AO19" s="18"/>
       <c r="AP19" s="15" t="s">
         <v>19</v>
       </c>
@@ -2900,15 +2891,15 @@
       <c r="AR19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AS19" s="19" t="s">
+      <c r="AS19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AT19" s="19"/>
+      <c r="AT19" s="20"/>
       <c r="AU19" s="14">
         <v>996</v>
       </c>
       <c r="AV19" s="15"/>
-      <c r="AW19" s="17"/>
+      <c r="AW19" s="18"/>
       <c r="AX19" s="15" t="s">
         <v>19</v>
       </c>
@@ -2918,10 +2909,10 @@
       <c r="AZ19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BA19" s="19" t="s">
+      <c r="BA19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="BB19" s="19"/>
+      <c r="BB19" s="20"/>
       <c r="BC19" s="14">
         <v>996</v>
       </c>
@@ -2995,7 +2986,7 @@
       <c r="BK20" s="12"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3007,10 +2998,10 @@
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
@@ -3027,14 +3018,14 @@
       <c r="L21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="20"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -3046,14 +3037,14 @@
       <c r="T21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="19"/>
+      <c r="V21" s="20"/>
       <c r="W21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="7" t="s">
@@ -3065,14 +3056,14 @@
       <c r="AB21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="19" t="s">
+      <c r="AC21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="19"/>
+      <c r="AD21" s="20"/>
       <c r="AE21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG21" s="17" t="s">
+      <c r="AG21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="AH21" s="12" t="s">
@@ -3084,15 +3075,15 @@
       <c r="AJ21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK21" s="19" t="s">
+      <c r="AK21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="19"/>
+      <c r="AL21" s="20"/>
       <c r="AM21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN21" s="14"/>
-      <c r="AO21" s="17" t="s">
+      <c r="AO21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="AP21" s="15" t="s">
@@ -3104,15 +3095,15 @@
       <c r="AR21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS21" s="19" t="s">
+      <c r="AS21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="19"/>
+      <c r="AT21" s="20"/>
       <c r="AU21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV21" s="15"/>
-      <c r="AW21" s="17" t="s">
+      <c r="AW21" s="18" t="s">
         <v>11</v>
       </c>
       <c r="AX21" s="15" t="s">
@@ -3124,10 +3115,10 @@
       <c r="AZ21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA21" s="19" t="s">
+      <c r="BA21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BB21" s="19"/>
+      <c r="BB21" s="20"/>
       <c r="BC21" s="14" t="s">
         <v>14</v>
       </c>
@@ -3141,7 +3132,7 @@
       <c r="BK21" s="12"/>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
@@ -3151,10 +3142,10 @@
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="9">
         <v>500</v>
       </c>
@@ -3169,14 +3160,14 @@
       <c r="L22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="20"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="2">
         <v>500</v>
       </c>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3186,14 +3177,14 @@
       <c r="T22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="U22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="19"/>
+      <c r="V22" s="20"/>
       <c r="W22" s="6">
         <v>500</v>
       </c>
-      <c r="Y22" s="17"/>
+      <c r="Y22" s="18"/>
       <c r="Z22" s="7" t="s">
         <v>6</v>
       </c>
@@ -3203,14 +3194,14 @@
       <c r="AB22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="19" t="s">
+      <c r="AC22" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AD22" s="19"/>
+      <c r="AD22" s="20"/>
       <c r="AE22" s="8">
         <v>500</v>
       </c>
-      <c r="AG22" s="17"/>
+      <c r="AG22" s="18"/>
       <c r="AH22" s="12" t="s">
         <v>6</v>
       </c>
@@ -3220,15 +3211,15 @@
       <c r="AJ22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AK22" s="19" t="s">
+      <c r="AK22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AL22" s="19"/>
+      <c r="AL22" s="20"/>
       <c r="AM22" s="13">
         <v>500</v>
       </c>
       <c r="AN22" s="14"/>
-      <c r="AO22" s="17"/>
+      <c r="AO22" s="18"/>
       <c r="AP22" s="15" t="s">
         <v>6</v>
       </c>
@@ -3238,15 +3229,15 @@
       <c r="AR22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AS22" s="19" t="s">
+      <c r="AS22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AT22" s="19"/>
+      <c r="AT22" s="20"/>
       <c r="AU22" s="14">
         <v>500</v>
       </c>
       <c r="AV22" s="15"/>
-      <c r="AW22" s="17"/>
+      <c r="AW22" s="18"/>
       <c r="AX22" s="15" t="s">
         <v>6</v>
       </c>
@@ -3256,12 +3247,12 @@
       <c r="AZ22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BA22" s="19" t="s">
+      <c r="BA22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="22">
-        <v>491</v>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="17">
+        <v>500</v>
       </c>
       <c r="BD22" s="14"/>
       <c r="BE22" s="15"/>
@@ -3273,7 +3264,7 @@
       <c r="BK22" s="12"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
@@ -3283,10 +3274,10 @@
       <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="9">
         <v>500</v>
       </c>
@@ -3301,14 +3292,14 @@
       <c r="L23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="20"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="2">
         <v>500</v>
       </c>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3318,14 +3309,14 @@
       <c r="T23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="U23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="19"/>
+      <c r="V23" s="20"/>
       <c r="W23" s="6">
         <v>500</v>
       </c>
-      <c r="Y23" s="17"/>
+      <c r="Y23" s="18"/>
       <c r="Z23" s="7" t="s">
         <v>7</v>
       </c>
@@ -3335,14 +3326,14 @@
       <c r="AB23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC23" s="19" t="s">
+      <c r="AC23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="19"/>
+      <c r="AD23" s="20"/>
       <c r="AE23" s="8">
         <v>500</v>
       </c>
-      <c r="AG23" s="17"/>
+      <c r="AG23" s="18"/>
       <c r="AH23" s="12" t="s">
         <v>7</v>
       </c>
@@ -3352,15 +3343,15 @@
       <c r="AJ23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AK23" s="19" t="s">
+      <c r="AK23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AL23" s="19"/>
+      <c r="AL23" s="20"/>
       <c r="AM23" s="13">
         <v>500</v>
       </c>
       <c r="AN23" s="14"/>
-      <c r="AO23" s="17"/>
+      <c r="AO23" s="18"/>
       <c r="AP23" s="15" t="s">
         <v>7</v>
       </c>
@@ -3370,15 +3361,15 @@
       <c r="AR23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AS23" s="19" t="s">
+      <c r="AS23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AT23" s="19"/>
+      <c r="AT23" s="20"/>
       <c r="AU23" s="14">
         <v>500</v>
       </c>
       <c r="AV23" s="15"/>
-      <c r="AW23" s="17"/>
+      <c r="AW23" s="18"/>
       <c r="AX23" s="15" t="s">
         <v>7</v>
       </c>
@@ -3388,12 +3379,12 @@
       <c r="AZ23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="BA23" s="19" t="s">
+      <c r="BA23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="22">
-        <v>494</v>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="17">
+        <v>500</v>
       </c>
       <c r="BD23" s="14"/>
       <c r="BE23" s="15"/>
@@ -3405,7 +3396,7 @@
       <c r="BK23" s="12"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -3423,14 +3414,14 @@
       <c r="L24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="20"/>
+      <c r="M24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="22"/>
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="5" t="s">
         <v>8</v>
       </c>
@@ -3440,14 +3431,14 @@
       <c r="T24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" s="19"/>
+      <c r="U24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="20"/>
       <c r="W24" s="6">
         <v>0</v>
       </c>
-      <c r="Y24" s="17"/>
+      <c r="Y24" s="18"/>
       <c r="Z24" s="7" t="s">
         <v>8</v>
       </c>
@@ -3457,14 +3448,14 @@
       <c r="AB24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="19"/>
+      <c r="AC24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="20"/>
       <c r="AE24" s="8">
         <v>0</v>
       </c>
-      <c r="AG24" s="17"/>
+      <c r="AG24" s="18"/>
       <c r="AH24" s="12" t="s">
         <v>8</v>
       </c>
@@ -3474,15 +3465,15 @@
       <c r="AJ24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL24" s="19"/>
+      <c r="AK24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="20"/>
       <c r="AM24" s="13">
         <v>0</v>
       </c>
       <c r="AN24" s="14"/>
-      <c r="AO24" s="17"/>
+      <c r="AO24" s="18"/>
       <c r="AP24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3492,13 +3483,13 @@
       <c r="AR24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT24" s="19"/>
+      <c r="AS24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="20"/>
       <c r="AU24" s="14"/>
       <c r="AV24" s="15"/>
-      <c r="AW24" s="17"/>
+      <c r="AW24" s="18"/>
       <c r="AX24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3508,11 +3499,11 @@
       <c r="AZ24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="14">
+      <c r="BA24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="17">
         <v>0</v>
       </c>
       <c r="BD24" s="14"/>
@@ -3525,16 +3516,16 @@
       <c r="BK24" s="12"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="9">
         <v>1000</v>
       </c>
@@ -3546,21 +3537,21 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="2"/>
-      <c r="Q25" s="17"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="Y25" s="17"/>
+      <c r="Y25" s="18"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AG25" s="17"/>
+      <c r="AG25" s="18"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
@@ -3568,7 +3559,7 @@
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
       <c r="AN25" s="14"/>
-      <c r="AO25" s="17"/>
+      <c r="AO25" s="18"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="15"/>
@@ -3576,13 +3567,13 @@
       <c r="AT25" s="14"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="15"/>
-      <c r="AW25" s="17"/>
+      <c r="AW25" s="18"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="15"/>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
+      <c r="BC25" s="17"/>
       <c r="BD25" s="14"/>
       <c r="BE25" s="15"/>
       <c r="BF25" s="15"/>
@@ -3593,7 +3584,7 @@
       <c r="BK25" s="12"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -3603,10 +3594,10 @@
       <c r="D26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="9">
         <v>1000</v>
       </c>
@@ -3617,79 +3608,79 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="20"/>
+      <c r="N26" s="22"/>
       <c r="O26" s="2">
         <v>1000</v>
       </c>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="19" t="s">
+      <c r="U26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="19"/>
+      <c r="V26" s="20"/>
       <c r="W26" s="6">
         <v>1000</v>
       </c>
-      <c r="Y26" s="17"/>
+      <c r="Y26" s="18"/>
       <c r="Z26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="19" t="s">
+      <c r="AC26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AD26" s="19"/>
+      <c r="AD26" s="20"/>
       <c r="AE26" s="8">
         <v>1000</v>
       </c>
-      <c r="AG26" s="17"/>
+      <c r="AG26" s="18"/>
       <c r="AH26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="19" t="s">
+      <c r="AK26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AL26" s="19"/>
+      <c r="AL26" s="20"/>
       <c r="AM26" s="13">
         <v>1000</v>
       </c>
       <c r="AN26" s="14"/>
-      <c r="AO26" s="17"/>
+      <c r="AO26" s="18"/>
       <c r="AP26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="15"/>
-      <c r="AS26" s="19" t="s">
+      <c r="AS26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AT26" s="19"/>
+      <c r="AT26" s="20"/>
       <c r="AU26" s="14">
         <v>1000</v>
       </c>
       <c r="AV26" s="15"/>
-      <c r="AW26" s="17"/>
+      <c r="AW26" s="18"/>
       <c r="AX26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
-      <c r="BA26" s="19" t="s">
+      <c r="BA26" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="22">
-        <v>985</v>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="17">
+        <v>1000</v>
       </c>
       <c r="BD26" s="14"/>
       <c r="BE26" s="15"/>
@@ -3701,7 +3692,7 @@
       <c r="BK26" s="12"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
@@ -3711,10 +3702,10 @@
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="9">
         <v>1000</v>
       </c>
@@ -3729,14 +3720,14 @@
       <c r="L27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="20"/>
+      <c r="N27" s="22"/>
       <c r="O27" s="2">
         <v>1000</v>
       </c>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="5" t="s">
         <v>18</v>
       </c>
@@ -3746,14 +3737,14 @@
       <c r="T27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U27" s="19" t="s">
+      <c r="U27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V27" s="19"/>
+      <c r="V27" s="20"/>
       <c r="W27" s="6">
         <v>1000</v>
       </c>
-      <c r="Y27" s="17"/>
+      <c r="Y27" s="18"/>
       <c r="Z27" s="7" t="s">
         <v>18</v>
       </c>
@@ -3763,14 +3754,14 @@
       <c r="AB27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC27" s="19" t="s">
+      <c r="AC27" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AD27" s="19"/>
+      <c r="AD27" s="20"/>
       <c r="AE27" s="8">
         <v>1000</v>
       </c>
-      <c r="AG27" s="17"/>
+      <c r="AG27" s="18"/>
       <c r="AH27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3780,15 +3771,15 @@
       <c r="AJ27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AK27" s="19" t="s">
+      <c r="AK27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AL27" s="19"/>
+      <c r="AL27" s="20"/>
       <c r="AM27" s="13">
         <v>1000</v>
       </c>
       <c r="AN27" s="14"/>
-      <c r="AO27" s="17"/>
+      <c r="AO27" s="18"/>
       <c r="AP27" s="15" t="s">
         <v>18</v>
       </c>
@@ -3798,15 +3789,15 @@
       <c r="AR27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AS27" s="19" t="s">
+      <c r="AS27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AT27" s="19"/>
+      <c r="AT27" s="20"/>
       <c r="AU27" s="14">
         <v>1000</v>
       </c>
       <c r="AV27" s="15"/>
-      <c r="AW27" s="17"/>
+      <c r="AW27" s="18"/>
       <c r="AX27" s="15" t="s">
         <v>18</v>
       </c>
@@ -3816,12 +3807,12 @@
       <c r="AZ27" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BA27" s="19" t="s">
+      <c r="BA27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="BB27" s="19"/>
-      <c r="BC27" s="22">
-        <v>985</v>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="17">
+        <v>1000</v>
       </c>
       <c r="BD27" s="14"/>
       <c r="BE27" s="15"/>
@@ -3851,14 +3842,14 @@
       <c r="L28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="20"/>
+      <c r="N28" s="22"/>
       <c r="O28" s="2">
         <v>1000</v>
       </c>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="5" t="s">
         <v>19</v>
       </c>
@@ -3868,14 +3859,14 @@
       <c r="T28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="19" t="s">
+      <c r="U28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="V28" s="19"/>
+      <c r="V28" s="20"/>
       <c r="W28" s="6">
         <v>1000</v>
       </c>
-      <c r="Y28" s="17"/>
+      <c r="Y28" s="18"/>
       <c r="Z28" s="7" t="s">
         <v>19</v>
       </c>
@@ -3885,14 +3876,14 @@
       <c r="AB28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="19" t="s">
+      <c r="AC28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AD28" s="19"/>
+      <c r="AD28" s="20"/>
       <c r="AE28" s="8">
         <v>1000</v>
       </c>
-      <c r="AG28" s="17"/>
+      <c r="AG28" s="18"/>
       <c r="AH28" s="12" t="s">
         <v>19</v>
       </c>
@@ -3902,15 +3893,15 @@
       <c r="AJ28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK28" s="19" t="s">
+      <c r="AK28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AL28" s="19"/>
+      <c r="AL28" s="20"/>
       <c r="AM28" s="13">
         <v>1000</v>
       </c>
       <c r="AN28" s="14"/>
-      <c r="AO28" s="17"/>
+      <c r="AO28" s="18"/>
       <c r="AP28" s="15" t="s">
         <v>19</v>
       </c>
@@ -3920,15 +3911,15 @@
       <c r="AR28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AS28" s="19" t="s">
+      <c r="AS28" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AT28" s="19"/>
+      <c r="AT28" s="20"/>
       <c r="AU28" s="14">
         <v>1000</v>
       </c>
       <c r="AV28" s="15"/>
-      <c r="AW28" s="17"/>
+      <c r="AW28" s="18"/>
       <c r="AX28" s="15" t="s">
         <v>19</v>
       </c>
@@ -3938,12 +3929,12 @@
       <c r="AZ28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BA28" s="19" t="s">
+      <c r="BA28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="22">
-        <v>985</v>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="17">
+        <v>1000</v>
       </c>
       <c r="BD28" s="14"/>
       <c r="BE28" s="15"/>
@@ -3955,7 +3946,7 @@
       <c r="BK28" s="12"/>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3967,10 +3958,10 @@
       <c r="D29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4017,7 +4008,7 @@
       <c r="AZ29" s="15"/>
       <c r="BA29" s="15"/>
       <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
+      <c r="BC29" s="17"/>
       <c r="BE29" s="15"/>
       <c r="BF29" s="15"/>
       <c r="BG29" s="15"/>
@@ -4027,7 +4018,7 @@
       <c r="BK29" s="12"/>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
@@ -4037,10 +4028,10 @@
       <c r="D30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="10">
         <v>167</v>
       </c>
@@ -4057,14 +4048,14 @@
       <c r="L30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="18"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="Q30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -4076,14 +4067,14 @@
       <c r="T30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="18" t="s">
+      <c r="U30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V30" s="18"/>
+      <c r="V30" s="19"/>
       <c r="W30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="17" t="s">
+      <c r="Y30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="Z30" s="7" t="s">
@@ -4095,14 +4086,14 @@
       <c r="AB30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="18" t="s">
+      <c r="AC30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AD30" s="18"/>
+      <c r="AD30" s="19"/>
       <c r="AE30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG30" s="17" t="s">
+      <c r="AG30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="AH30" s="12" t="s">
@@ -4114,15 +4105,15 @@
       <c r="AJ30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK30" s="18" t="s">
+      <c r="AK30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AL30" s="18"/>
+      <c r="AL30" s="19"/>
       <c r="AM30" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN30" s="14"/>
-      <c r="AO30" s="17" t="s">
+      <c r="AO30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="AP30" s="15" t="s">
@@ -4134,15 +4125,15 @@
       <c r="AR30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS30" s="18" t="s">
+      <c r="AS30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AT30" s="18"/>
+      <c r="AT30" s="19"/>
       <c r="AU30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV30" s="15"/>
-      <c r="AW30" s="17" t="s">
+      <c r="AW30" s="18" t="s">
         <v>12</v>
       </c>
       <c r="AX30" s="15" t="s">
@@ -4154,11 +4145,11 @@
       <c r="AZ30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA30" s="18" t="s">
+      <c r="BA30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="14" t="s">
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="17" t="s">
         <v>14</v>
       </c>
       <c r="BD30" s="14"/>
@@ -4171,7 +4162,7 @@
       <c r="BK30" s="12"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
@@ -4181,10 +4172,10 @@
       <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="10">
         <v>769</v>
       </c>
@@ -4199,14 +4190,14 @@
       <c r="L31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="19"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="3">
         <v>167</v>
       </c>
-      <c r="Q31" s="17"/>
+      <c r="Q31" s="18"/>
       <c r="R31" s="5" t="s">
         <v>6</v>
       </c>
@@ -4216,14 +4207,14 @@
       <c r="T31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U31" s="19" t="s">
+      <c r="U31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V31" s="19"/>
+      <c r="V31" s="20"/>
       <c r="W31" s="5">
         <v>167</v>
       </c>
-      <c r="Y31" s="17"/>
+      <c r="Y31" s="18"/>
       <c r="Z31" s="7" t="s">
         <v>6</v>
       </c>
@@ -4233,14 +4224,14 @@
       <c r="AB31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC31" s="19" t="s">
+      <c r="AC31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AD31" s="19"/>
+      <c r="AD31" s="20"/>
       <c r="AE31" s="7">
         <v>167</v>
       </c>
-      <c r="AG31" s="17"/>
+      <c r="AG31" s="18"/>
       <c r="AH31" s="12" t="s">
         <v>6</v>
       </c>
@@ -4250,14 +4241,14 @@
       <c r="AJ31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK31" s="19" t="s">
+      <c r="AK31" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AL31" s="19"/>
+      <c r="AL31" s="20"/>
       <c r="AM31" s="12">
         <v>167</v>
       </c>
-      <c r="AO31" s="17"/>
+      <c r="AO31" s="18"/>
       <c r="AP31" s="15" t="s">
         <v>6</v>
       </c>
@@ -4267,15 +4258,15 @@
       <c r="AR31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AS31" s="19" t="s">
+      <c r="AS31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AT31" s="19"/>
+      <c r="AT31" s="20"/>
       <c r="AU31" s="15">
         <v>167</v>
       </c>
       <c r="AV31" s="15"/>
-      <c r="AW31" s="17"/>
+      <c r="AW31" s="18"/>
       <c r="AX31" s="15" t="s">
         <v>6</v>
       </c>
@@ -4285,11 +4276,11 @@
       <c r="AZ31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BA31" s="19" t="s">
+      <c r="BA31" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="15">
+      <c r="BB31" s="20"/>
+      <c r="BC31" s="17">
         <v>167</v>
       </c>
       <c r="BE31" s="15"/>
@@ -4301,7 +4292,7 @@
       <c r="BK31" s="12"/>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4319,14 +4310,14 @@
       <c r="L32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="19"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="3">
         <v>769</v>
       </c>
-      <c r="Q32" s="17"/>
+      <c r="Q32" s="18"/>
       <c r="R32" s="5" t="s">
         <v>7</v>
       </c>
@@ -4336,14 +4327,14 @@
       <c r="T32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U32" s="19" t="s">
+      <c r="U32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="V32" s="19"/>
+      <c r="V32" s="20"/>
       <c r="W32" s="5">
         <v>769</v>
       </c>
-      <c r="Y32" s="17"/>
+      <c r="Y32" s="18"/>
       <c r="Z32" s="7" t="s">
         <v>7</v>
       </c>
@@ -4353,14 +4344,14 @@
       <c r="AB32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AC32" s="19" t="s">
+      <c r="AC32" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AD32" s="19"/>
+      <c r="AD32" s="20"/>
       <c r="AE32" s="7">
         <v>769</v>
       </c>
-      <c r="AG32" s="17"/>
+      <c r="AG32" s="18"/>
       <c r="AH32" s="12" t="s">
         <v>7</v>
       </c>
@@ -4370,14 +4361,14 @@
       <c r="AJ32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AK32" s="19" t="s">
+      <c r="AK32" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AL32" s="19"/>
+      <c r="AL32" s="20"/>
       <c r="AM32" s="12">
         <v>769</v>
       </c>
-      <c r="AO32" s="17"/>
+      <c r="AO32" s="18"/>
       <c r="AP32" s="15" t="s">
         <v>7</v>
       </c>
@@ -4387,15 +4378,15 @@
       <c r="AR32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AS32" s="19" t="s">
+      <c r="AS32" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AT32" s="19"/>
+      <c r="AT32" s="20"/>
       <c r="AU32" s="15">
         <v>769</v>
       </c>
       <c r="AV32" s="15"/>
-      <c r="AW32" s="17"/>
+      <c r="AW32" s="18"/>
       <c r="AX32" s="15" t="s">
         <v>7</v>
       </c>
@@ -4405,12 +4396,12 @@
       <c r="AZ32" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="BA32" s="19" t="s">
+      <c r="BA32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="23">
-        <v>768</v>
+      <c r="BB32" s="20"/>
+      <c r="BC32" s="17">
+        <v>769</v>
       </c>
       <c r="BE32" s="15"/>
       <c r="BF32" s="15"/>
@@ -4421,16 +4412,16 @@
       <c r="BK32" s="12"/>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="10">
         <v>936</v>
       </c>
@@ -4445,14 +4436,14 @@
       <c r="L33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="19"/>
+      <c r="M33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="20"/>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="17"/>
+      <c r="Q33" s="18"/>
       <c r="R33" s="5" t="s">
         <v>8</v>
       </c>
@@ -4462,14 +4453,14 @@
       <c r="T33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="19"/>
+      <c r="U33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="20"/>
       <c r="W33" s="5">
         <v>0</v>
       </c>
-      <c r="Y33" s="17"/>
+      <c r="Y33" s="18"/>
       <c r="Z33" s="7" t="s">
         <v>8</v>
       </c>
@@ -4479,14 +4470,14 @@
       <c r="AB33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD33" s="19"/>
+      <c r="AC33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="20"/>
       <c r="AE33" s="7">
         <v>0</v>
       </c>
-      <c r="AG33" s="17"/>
+      <c r="AG33" s="18"/>
       <c r="AH33" s="12" t="s">
         <v>8</v>
       </c>
@@ -4496,14 +4487,14 @@
       <c r="AJ33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL33" s="19"/>
+      <c r="AK33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL33" s="20"/>
       <c r="AM33" s="12">
         <v>0</v>
       </c>
-      <c r="AO33" s="17"/>
+      <c r="AO33" s="18"/>
       <c r="AP33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4513,15 +4504,15 @@
       <c r="AR33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT33" s="19"/>
+      <c r="AS33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT33" s="20"/>
       <c r="AU33" s="15">
         <v>0</v>
       </c>
       <c r="AV33" s="15"/>
-      <c r="AW33" s="17"/>
+      <c r="AW33" s="18"/>
       <c r="AX33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4531,11 +4522,11 @@
       <c r="AZ33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB33" s="19"/>
-      <c r="BC33" s="15">
+      <c r="BA33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB33" s="20"/>
+      <c r="BC33" s="17">
         <v>0</v>
       </c>
       <c r="BE33" s="15"/>
@@ -4547,7 +4538,7 @@
       <c r="BK33" s="12"/>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -4557,10 +4548,10 @@
       <c r="D34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="10">
         <v>936</v>
       </c>
@@ -4572,28 +4563,28 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
-      <c r="Q34" s="17"/>
+      <c r="Q34" s="18"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="5"/>
-      <c r="Y34" s="17"/>
+      <c r="Y34" s="18"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="7"/>
-      <c r="AG34" s="17"/>
+      <c r="AG34" s="18"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="12"/>
-      <c r="AO34" s="17"/>
+      <c r="AO34" s="18"/>
       <c r="AP34" s="15"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="15"/>
@@ -4601,13 +4592,13 @@
       <c r="AT34" s="14"/>
       <c r="AU34" s="15"/>
       <c r="AV34" s="15"/>
-      <c r="AW34" s="17"/>
+      <c r="AW34" s="18"/>
       <c r="AX34" s="15"/>
       <c r="AY34" s="15"/>
       <c r="AZ34" s="15"/>
       <c r="BA34" s="14"/>
       <c r="BB34" s="14"/>
-      <c r="BC34" s="15"/>
+      <c r="BC34" s="17"/>
       <c r="BE34" s="15"/>
       <c r="BF34" s="15"/>
       <c r="BG34" s="15"/>
@@ -4617,7 +4608,7 @@
       <c r="BK34" s="12"/>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -4627,10 +4618,10 @@
       <c r="D35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="10">
         <v>936</v>
       </c>
@@ -4641,78 +4632,78 @@
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="20"/>
       <c r="O35" s="3">
         <v>936</v>
       </c>
-      <c r="Q35" s="17"/>
+      <c r="Q35" s="18"/>
       <c r="R35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="19" t="s">
+      <c r="U35" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V35" s="19"/>
+      <c r="V35" s="20"/>
       <c r="W35" s="5">
         <v>936</v>
       </c>
-      <c r="Y35" s="17"/>
+      <c r="Y35" s="18"/>
       <c r="Z35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="19" t="s">
+      <c r="AC35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AD35" s="19"/>
+      <c r="AD35" s="20"/>
       <c r="AE35" s="7">
         <v>936</v>
       </c>
-      <c r="AG35" s="17"/>
+      <c r="AG35" s="18"/>
       <c r="AH35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="19" t="s">
+      <c r="AK35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AL35" s="19"/>
+      <c r="AL35" s="20"/>
       <c r="AM35" s="12">
         <v>936</v>
       </c>
-      <c r="AO35" s="17"/>
+      <c r="AO35" s="18"/>
       <c r="AP35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="15"/>
-      <c r="AS35" s="19" t="s">
+      <c r="AS35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AT35" s="19"/>
+      <c r="AT35" s="20"/>
       <c r="AU35" s="15">
         <v>936</v>
       </c>
       <c r="AV35" s="15"/>
-      <c r="AW35" s="17"/>
+      <c r="AW35" s="18"/>
       <c r="AX35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY35" s="15"/>
       <c r="AZ35" s="15"/>
-      <c r="BA35" s="19" t="s">
+      <c r="BA35" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="BB35" s="19"/>
-      <c r="BC35" s="23">
-        <v>935</v>
+      <c r="BB35" s="20"/>
+      <c r="BC35" s="17">
+        <v>936</v>
       </c>
       <c r="BE35" s="15"/>
       <c r="BF35" s="15"/>
@@ -4741,14 +4732,14 @@
       <c r="L36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="20"/>
       <c r="O36" s="3">
         <v>936</v>
       </c>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="18"/>
       <c r="R36" s="5" t="s">
         <v>18</v>
       </c>
@@ -4758,14 +4749,14 @@
       <c r="T36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="19" t="s">
+      <c r="U36" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="V36" s="19"/>
+      <c r="V36" s="20"/>
       <c r="W36" s="5">
         <v>936</v>
       </c>
-      <c r="Y36" s="17"/>
+      <c r="Y36" s="18"/>
       <c r="Z36" s="7" t="s">
         <v>18</v>
       </c>
@@ -4775,14 +4766,14 @@
       <c r="AB36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AC36" s="19" t="s">
+      <c r="AC36" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AD36" s="19"/>
+      <c r="AD36" s="20"/>
       <c r="AE36" s="7">
         <v>936</v>
       </c>
-      <c r="AG36" s="17"/>
+      <c r="AG36" s="18"/>
       <c r="AH36" s="12" t="s">
         <v>18</v>
       </c>
@@ -4792,14 +4783,14 @@
       <c r="AJ36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AK36" s="19" t="s">
+      <c r="AK36" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" s="19"/>
+      <c r="AL36" s="20"/>
       <c r="AM36" s="12">
         <v>936</v>
       </c>
-      <c r="AO36" s="17"/>
+      <c r="AO36" s="18"/>
       <c r="AP36" s="15" t="s">
         <v>18</v>
       </c>
@@ -4809,15 +4800,15 @@
       <c r="AR36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="19" t="s">
+      <c r="AS36" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AT36" s="19"/>
+      <c r="AT36" s="20"/>
       <c r="AU36" s="15">
         <v>936</v>
       </c>
       <c r="AV36" s="15"/>
-      <c r="AW36" s="17"/>
+      <c r="AW36" s="18"/>
       <c r="AX36" s="15" t="s">
         <v>18</v>
       </c>
@@ -4827,12 +4818,12 @@
       <c r="AZ36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BA36" s="19" t="s">
+      <c r="BA36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BB36" s="19"/>
-      <c r="BC36" s="23">
-        <v>935</v>
+      <c r="BB36" s="20"/>
+      <c r="BC36" s="17">
+        <v>936</v>
       </c>
       <c r="BE36" s="15"/>
       <c r="BF36" s="15"/>
@@ -4843,7 +4834,7 @@
       <c r="BK36" s="12"/>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -4855,10 +4846,10 @@
       <c r="D37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="9" t="s">
         <v>14</v>
       </c>
@@ -4873,14 +4864,14 @@
       <c r="L37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="19"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="3">
         <v>936</v>
       </c>
-      <c r="Q37" s="17"/>
+      <c r="Q37" s="18"/>
       <c r="R37" s="5" t="s">
         <v>19</v>
       </c>
@@ -4890,14 +4881,14 @@
       <c r="T37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="19" t="s">
+      <c r="U37" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="V37" s="19"/>
+      <c r="V37" s="20"/>
       <c r="W37" s="5">
         <v>936</v>
       </c>
-      <c r="Y37" s="17"/>
+      <c r="Y37" s="18"/>
       <c r="Z37" s="7" t="s">
         <v>19</v>
       </c>
@@ -4907,14 +4898,14 @@
       <c r="AB37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AC37" s="19" t="s">
+      <c r="AC37" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AD37" s="19"/>
+      <c r="AD37" s="20"/>
       <c r="AE37" s="7">
         <v>936</v>
       </c>
-      <c r="AG37" s="17"/>
+      <c r="AG37" s="18"/>
       <c r="AH37" s="12" t="s">
         <v>19</v>
       </c>
@@ -4924,14 +4915,14 @@
       <c r="AJ37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AK37" s="19" t="s">
+      <c r="AK37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AL37" s="19"/>
+      <c r="AL37" s="20"/>
       <c r="AM37" s="12">
         <v>936</v>
       </c>
-      <c r="AO37" s="17"/>
+      <c r="AO37" s="18"/>
       <c r="AP37" s="15" t="s">
         <v>19</v>
       </c>
@@ -4941,15 +4932,15 @@
       <c r="AR37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AS37" s="19" t="s">
+      <c r="AS37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AT37" s="19"/>
+      <c r="AT37" s="20"/>
       <c r="AU37" s="15">
         <v>936</v>
       </c>
       <c r="AV37" s="15"/>
-      <c r="AW37" s="17"/>
+      <c r="AW37" s="18"/>
       <c r="AX37" s="15" t="s">
         <v>19</v>
       </c>
@@ -4959,12 +4950,12 @@
       <c r="AZ37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BA37" s="19" t="s">
+      <c r="BA37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="BB37" s="19"/>
-      <c r="BC37" s="23">
-        <v>935</v>
+      <c r="BB37" s="20"/>
+      <c r="BC37" s="17">
+        <v>936</v>
       </c>
       <c r="BE37" s="15"/>
       <c r="BF37" s="15"/>
@@ -4975,7 +4966,7 @@
       <c r="BK37" s="12"/>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="10" t="s">
         <v>6</v>
       </c>
@@ -4985,10 +4976,10 @@
       <c r="D38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="9">
         <v>483</v>
       </c>
@@ -5035,7 +5026,7 @@
       <c r="AZ38" s="15"/>
       <c r="BA38" s="15"/>
       <c r="BB38" s="15"/>
-      <c r="BC38" s="15"/>
+      <c r="BC38" s="17"/>
       <c r="BE38" s="15"/>
       <c r="BF38" s="15"/>
       <c r="BG38" s="15"/>
@@ -5045,7 +5036,7 @@
       <c r="BK38" s="12"/>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
@@ -5055,10 +5046,10 @@
       <c r="D39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="9">
         <v>517</v>
       </c>
@@ -5075,14 +5066,14 @@
       <c r="L39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="20"/>
+      <c r="N39" s="22"/>
       <c r="O39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="17" t="s">
+      <c r="Q39" s="18" t="s">
         <v>13</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -5094,14 +5085,14 @@
       <c r="T39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U39" s="19" t="s">
+      <c r="U39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="19"/>
+      <c r="V39" s="20"/>
       <c r="W39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="17" t="s">
+      <c r="Y39" s="18" t="s">
         <v>13</v>
       </c>
       <c r="Z39" s="7" t="s">
@@ -5113,14 +5104,14 @@
       <c r="AB39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC39" s="19" t="s">
+      <c r="AC39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AD39" s="19"/>
+      <c r="AD39" s="20"/>
       <c r="AE39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG39" s="17" t="s">
+      <c r="AG39" s="18" t="s">
         <v>13</v>
       </c>
       <c r="AH39" s="12" t="s">
@@ -5132,15 +5123,15 @@
       <c r="AJ39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK39" s="19" t="s">
+      <c r="AK39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AL39" s="19"/>
+      <c r="AL39" s="20"/>
       <c r="AM39" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN39" s="14"/>
-      <c r="AO39" s="17" t="s">
+      <c r="AO39" s="18" t="s">
         <v>13</v>
       </c>
       <c r="AP39" s="15" t="s">
@@ -5152,15 +5143,15 @@
       <c r="AR39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS39" s="19" t="s">
+      <c r="AS39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AT39" s="19"/>
+      <c r="AT39" s="20"/>
       <c r="AU39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV39" s="15"/>
-      <c r="AW39" s="17" t="s">
+      <c r="AW39" s="18" t="s">
         <v>13</v>
       </c>
       <c r="AX39" s="15" t="s">
@@ -5172,11 +5163,11 @@
       <c r="AZ39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA39" s="19" t="s">
+      <c r="BA39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BB39" s="19"/>
-      <c r="BC39" s="14" t="s">
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="17" t="s">
         <v>14</v>
       </c>
       <c r="BD39" s="14"/>
@@ -5189,7 +5180,7 @@
       <c r="BK39" s="12"/>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -5207,14 +5198,14 @@
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="20"/>
+      <c r="N40" s="22"/>
       <c r="O40" s="2">
         <v>483</v>
       </c>
-      <c r="Q40" s="17"/>
+      <c r="Q40" s="18"/>
       <c r="R40" s="5" t="s">
         <v>6</v>
       </c>
@@ -5224,14 +5215,14 @@
       <c r="T40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U40" s="19" t="s">
+      <c r="U40" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="V40" s="19"/>
+      <c r="V40" s="20"/>
       <c r="W40" s="6">
         <v>483</v>
       </c>
-      <c r="Y40" s="17"/>
+      <c r="Y40" s="18"/>
       <c r="Z40" s="7" t="s">
         <v>6</v>
       </c>
@@ -5241,14 +5232,14 @@
       <c r="AB40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AC40" s="19" t="s">
+      <c r="AC40" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AD40" s="19"/>
+      <c r="AD40" s="20"/>
       <c r="AE40" s="8">
         <v>483</v>
       </c>
-      <c r="AG40" s="17"/>
+      <c r="AG40" s="18"/>
       <c r="AH40" s="12" t="s">
         <v>6</v>
       </c>
@@ -5258,15 +5249,15 @@
       <c r="AJ40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AK40" s="19" t="s">
+      <c r="AK40" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AL40" s="19"/>
+      <c r="AL40" s="20"/>
       <c r="AM40" s="13">
         <v>483</v>
       </c>
       <c r="AN40" s="14"/>
-      <c r="AO40" s="17"/>
+      <c r="AO40" s="18"/>
       <c r="AP40" s="15" t="s">
         <v>6</v>
       </c>
@@ -5276,15 +5267,15 @@
       <c r="AR40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AS40" s="19" t="s">
+      <c r="AS40" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AT40" s="19"/>
+      <c r="AT40" s="20"/>
       <c r="AU40" s="14">
         <v>483</v>
       </c>
       <c r="AV40" s="15"/>
-      <c r="AW40" s="17"/>
+      <c r="AW40" s="18"/>
       <c r="AX40" s="15" t="s">
         <v>6</v>
       </c>
@@ -5292,14 +5283,14 @@
         <v>52</v>
       </c>
       <c r="AZ40" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA40" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BB40" s="19"/>
-      <c r="BC40" s="22">
-        <v>482</v>
+      <c r="BB40" s="20"/>
+      <c r="BC40" s="17">
+        <v>483</v>
       </c>
       <c r="BD40" s="14"/>
       <c r="BE40" s="15"/>
@@ -5311,16 +5302,16 @@
       <c r="BK40" s="12"/>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="9">
         <v>1000</v>
       </c>
@@ -5335,14 +5326,14 @@
       <c r="L41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="20"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="2">
         <v>517</v>
       </c>
-      <c r="Q41" s="17"/>
+      <c r="Q41" s="18"/>
       <c r="R41" s="5" t="s">
         <v>7</v>
       </c>
@@ -5352,14 +5343,14 @@
       <c r="T41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="19" t="s">
+      <c r="U41" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V41" s="19"/>
+      <c r="V41" s="20"/>
       <c r="W41" s="6">
         <v>517</v>
       </c>
-      <c r="Y41" s="17"/>
+      <c r="Y41" s="18"/>
       <c r="Z41" s="7" t="s">
         <v>7</v>
       </c>
@@ -5369,14 +5360,14 @@
       <c r="AB41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC41" s="19" t="s">
+      <c r="AC41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="19"/>
+      <c r="AD41" s="20"/>
       <c r="AE41" s="8">
         <v>517</v>
       </c>
-      <c r="AG41" s="17"/>
+      <c r="AG41" s="18"/>
       <c r="AH41" s="12" t="s">
         <v>7</v>
       </c>
@@ -5386,15 +5377,15 @@
       <c r="AJ41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK41" s="19" t="s">
+      <c r="AK41" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AL41" s="19"/>
+      <c r="AL41" s="20"/>
       <c r="AM41" s="13">
         <v>517</v>
       </c>
       <c r="AN41" s="14"/>
-      <c r="AO41" s="17"/>
+      <c r="AO41" s="18"/>
       <c r="AP41" s="15" t="s">
         <v>7</v>
       </c>
@@ -5404,15 +5395,15 @@
       <c r="AR41" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS41" s="19" t="s">
+      <c r="AS41" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AT41" s="19"/>
+      <c r="AT41" s="20"/>
       <c r="AU41" s="14">
         <v>517</v>
       </c>
       <c r="AV41" s="15"/>
-      <c r="AW41" s="17"/>
+      <c r="AW41" s="18"/>
       <c r="AX41" s="15" t="s">
         <v>7</v>
       </c>
@@ -5422,11 +5413,11 @@
       <c r="AZ41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BA41" s="19" t="s">
+      <c r="BA41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="BB41" s="19"/>
-      <c r="BC41" s="14">
+      <c r="BB41" s="20"/>
+      <c r="BC41" s="17">
         <v>517</v>
       </c>
       <c r="BD41" s="14"/>
@@ -5439,7 +5430,7 @@
       <c r="BK41" s="12"/>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="10" t="s">
         <v>18</v>
       </c>
@@ -5449,10 +5440,10 @@
       <c r="D42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="9">
         <v>1000</v>
       </c>
@@ -5467,14 +5458,14 @@
       <c r="L42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="20"/>
+      <c r="M42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="22"/>
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="Q42" s="17"/>
+      <c r="Q42" s="18"/>
       <c r="R42" s="5" t="s">
         <v>8</v>
       </c>
@@ -5484,14 +5475,14 @@
       <c r="T42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" s="19"/>
+      <c r="U42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="20"/>
       <c r="W42" s="6">
         <v>0</v>
       </c>
-      <c r="Y42" s="17"/>
+      <c r="Y42" s="18"/>
       <c r="Z42" s="7" t="s">
         <v>8</v>
       </c>
@@ -5501,14 +5492,14 @@
       <c r="AB42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD42" s="19"/>
+      <c r="AC42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="20"/>
       <c r="AE42" s="8">
         <v>0</v>
       </c>
-      <c r="AG42" s="17"/>
+      <c r="AG42" s="18"/>
       <c r="AH42" s="12" t="s">
         <v>8</v>
       </c>
@@ -5518,15 +5509,15 @@
       <c r="AJ42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="19"/>
+      <c r="AK42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="20"/>
       <c r="AM42" s="13">
         <v>0</v>
       </c>
       <c r="AN42" s="14"/>
-      <c r="AO42" s="17"/>
+      <c r="AO42" s="18"/>
       <c r="AP42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5536,15 +5527,15 @@
       <c r="AR42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT42" s="19"/>
+      <c r="AS42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT42" s="20"/>
       <c r="AU42" s="14">
         <v>0</v>
       </c>
       <c r="AV42" s="15"/>
-      <c r="AW42" s="17"/>
+      <c r="AW42" s="18"/>
       <c r="AX42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5554,11 +5545,11 @@
       <c r="AZ42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB42" s="19"/>
-      <c r="BC42" s="14">
+      <c r="BA42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB42" s="20"/>
+      <c r="BC42" s="17">
         <v>0</v>
       </c>
       <c r="BD42" s="14"/>
@@ -5571,7 +5562,7 @@
       <c r="BK42" s="12"/>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -5581,10 +5572,10 @@
       <c r="D43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="19"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="9">
         <v>1000</v>
       </c>
@@ -5596,21 +5587,21 @@
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="2"/>
-      <c r="Q43" s="17"/>
+      <c r="Q43" s="18"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="Y43" s="17"/>
+      <c r="Y43" s="18"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AG43" s="17"/>
+      <c r="AG43" s="18"/>
       <c r="AH43" s="12"/>
       <c r="AI43" s="12"/>
       <c r="AJ43" s="12"/>
@@ -5618,7 +5609,7 @@
       <c r="AL43" s="13"/>
       <c r="AM43" s="13"/>
       <c r="AN43" s="14"/>
-      <c r="AO43" s="17"/>
+      <c r="AO43" s="18"/>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="15"/>
@@ -5626,13 +5617,13 @@
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
       <c r="AV43" s="15"/>
-      <c r="AW43" s="17"/>
+      <c r="AW43" s="18"/>
       <c r="AX43" s="15"/>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
       <c r="BA43" s="14"/>
       <c r="BB43" s="14"/>
-      <c r="BC43" s="14"/>
+      <c r="BC43" s="17"/>
       <c r="BD43" s="14"/>
       <c r="BE43" s="15"/>
       <c r="BF43" s="15"/>
@@ -5651,79 +5642,79 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="20"/>
+      <c r="N44" s="22"/>
       <c r="O44" s="2">
         <v>1000</v>
       </c>
-      <c r="Q44" s="17"/>
+      <c r="Q44" s="18"/>
       <c r="R44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="19" t="s">
+      <c r="U44" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V44" s="19"/>
+      <c r="V44" s="20"/>
       <c r="W44" s="6">
         <v>1000</v>
       </c>
-      <c r="Y44" s="17"/>
+      <c r="Y44" s="18"/>
       <c r="Z44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="19" t="s">
+      <c r="AC44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AD44" s="19"/>
+      <c r="AD44" s="20"/>
       <c r="AE44" s="8">
         <v>1000</v>
       </c>
-      <c r="AG44" s="17"/>
+      <c r="AG44" s="18"/>
       <c r="AH44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI44" s="12"/>
       <c r="AJ44" s="12"/>
-      <c r="AK44" s="19" t="s">
+      <c r="AK44" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AL44" s="19"/>
+      <c r="AL44" s="20"/>
       <c r="AM44" s="13">
         <v>1000</v>
       </c>
       <c r="AN44" s="14"/>
-      <c r="AO44" s="17"/>
+      <c r="AO44" s="18"/>
       <c r="AP44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="15"/>
-      <c r="AS44" s="19" t="s">
+      <c r="AS44" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AT44" s="19"/>
+      <c r="AT44" s="20"/>
       <c r="AU44" s="14">
         <v>1000</v>
       </c>
       <c r="AV44" s="15"/>
-      <c r="AW44" s="17"/>
+      <c r="AW44" s="18"/>
       <c r="AX44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
-      <c r="BA44" s="19" t="s">
+      <c r="BA44" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BB44" s="19"/>
-      <c r="BC44" s="22">
-        <v>999</v>
+      <c r="BB44" s="20"/>
+      <c r="BC44" s="17">
+        <v>1000</v>
       </c>
       <c r="BD44" s="14"/>
       <c r="BE44" s="15"/>
@@ -5747,14 +5738,14 @@
       <c r="L45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N45" s="20"/>
+      <c r="N45" s="22"/>
       <c r="O45" s="2">
         <v>1000</v>
       </c>
-      <c r="Q45" s="17"/>
+      <c r="Q45" s="18"/>
       <c r="R45" s="5" t="s">
         <v>18</v>
       </c>
@@ -5764,14 +5755,14 @@
       <c r="T45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="19" t="s">
+      <c r="U45" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="V45" s="19"/>
+      <c r="V45" s="20"/>
       <c r="W45" s="6">
         <v>1000</v>
       </c>
-      <c r="Y45" s="17"/>
+      <c r="Y45" s="18"/>
       <c r="Z45" s="7" t="s">
         <v>18</v>
       </c>
@@ -5781,14 +5772,14 @@
       <c r="AB45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AC45" s="19" t="s">
+      <c r="AC45" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AD45" s="19"/>
+      <c r="AD45" s="20"/>
       <c r="AE45" s="8">
         <v>1000</v>
       </c>
-      <c r="AG45" s="17"/>
+      <c r="AG45" s="18"/>
       <c r="AH45" s="12" t="s">
         <v>18</v>
       </c>
@@ -5798,15 +5789,15 @@
       <c r="AJ45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK45" s="19" t="s">
+      <c r="AK45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AL45" s="19"/>
+      <c r="AL45" s="20"/>
       <c r="AM45" s="13">
         <v>1000</v>
       </c>
       <c r="AN45" s="14"/>
-      <c r="AO45" s="17"/>
+      <c r="AO45" s="18"/>
       <c r="AP45" s="15" t="s">
         <v>18</v>
       </c>
@@ -5816,30 +5807,30 @@
       <c r="AR45" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AS45" s="19" t="s">
+      <c r="AS45" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AT45" s="19"/>
+      <c r="AT45" s="20"/>
       <c r="AU45" s="14">
         <v>1000</v>
       </c>
       <c r="AV45" s="15"/>
-      <c r="AW45" s="17"/>
+      <c r="AW45" s="18"/>
       <c r="AX45" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AY45" s="15" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AZ45" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BA45" s="19" t="s">
+      <c r="BA45" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="BB45" s="19"/>
-      <c r="BC45" s="22">
-        <v>999</v>
+      <c r="BB45" s="20"/>
+      <c r="BC45" s="17">
+        <v>1000</v>
       </c>
       <c r="BD45" s="14"/>
       <c r="BE45" s="15"/>
@@ -5864,14 +5855,14 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="20" t="s">
+      <c r="M46" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="20"/>
+      <c r="N46" s="22"/>
       <c r="O46" s="2">
         <v>1000</v>
       </c>
-      <c r="Q46" s="17"/>
+      <c r="Q46" s="18"/>
       <c r="R46" s="5" t="s">
         <v>19</v>
       </c>
@@ -5881,14 +5872,14 @@
       <c r="T46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U46" s="19" t="s">
+      <c r="U46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="V46" s="19"/>
+      <c r="V46" s="20"/>
       <c r="W46" s="6">
         <v>1000</v>
       </c>
-      <c r="Y46" s="17"/>
+      <c r="Y46" s="18"/>
       <c r="Z46" s="7" t="s">
         <v>19</v>
       </c>
@@ -5898,14 +5889,14 @@
       <c r="AB46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AC46" s="19" t="s">
+      <c r="AC46" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AD46" s="19"/>
+      <c r="AD46" s="20"/>
       <c r="AE46" s="8">
         <v>1000</v>
       </c>
-      <c r="AG46" s="17"/>
+      <c r="AG46" s="18"/>
       <c r="AH46" s="12" t="s">
         <v>19</v>
       </c>
@@ -5915,15 +5906,15 @@
       <c r="AJ46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK46" s="19" t="s">
+      <c r="AK46" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AL46" s="19"/>
+      <c r="AL46" s="20"/>
       <c r="AM46" s="13">
         <v>1000</v>
       </c>
       <c r="AN46" s="14"/>
-      <c r="AO46" s="17"/>
+      <c r="AO46" s="18"/>
       <c r="AP46" s="15" t="s">
         <v>19</v>
       </c>
@@ -5933,30 +5924,30 @@
       <c r="AR46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AS46" s="19" t="s">
+      <c r="AS46" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AT46" s="19"/>
+      <c r="AT46" s="20"/>
       <c r="AU46" s="14">
         <v>1000</v>
       </c>
       <c r="AV46" s="15"/>
-      <c r="AW46" s="17"/>
+      <c r="AW46" s="18"/>
       <c r="AX46" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AY46" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AZ46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BB46" s="19"/>
-      <c r="BC46" s="22">
-        <v>999</v>
+      <c r="BA46" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB46" s="20"/>
+      <c r="BC46" s="17">
+        <v>1000</v>
       </c>
       <c r="BD46" s="14"/>
       <c r="BE46" s="15"/>
@@ -6060,72 +6051,209 @@
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="AG30:AG37"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AG39:AG46"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AG12:AG19"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="BF1:BJ2"/>
-    <mergeCell ref="BE3:BE10"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="Y30:Y37"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="Y39:Y46"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AW30:AW37"/>
+    <mergeCell ref="BA30:BB30"/>
+    <mergeCell ref="BA31:BB31"/>
+    <mergeCell ref="BA32:BB32"/>
+    <mergeCell ref="BA33:BB33"/>
+    <mergeCell ref="BA35:BB35"/>
+    <mergeCell ref="BA36:BB36"/>
+    <mergeCell ref="BA37:BB37"/>
+    <mergeCell ref="AW39:AW46"/>
+    <mergeCell ref="BA39:BB39"/>
+    <mergeCell ref="BA40:BB40"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BA42:BB42"/>
+    <mergeCell ref="BA44:BB44"/>
+    <mergeCell ref="BA45:BB45"/>
+    <mergeCell ref="BA46:BB46"/>
+    <mergeCell ref="AW12:AW19"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BA15:BB15"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="AW3:AW10"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="AS39:AT39"/>
+    <mergeCell ref="AS40:AT40"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AS42:AT42"/>
+    <mergeCell ref="AS44:AT44"/>
+    <mergeCell ref="AS45:AT45"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AP1:AT2"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AS26:AT26"/>
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AS28:AT28"/>
+    <mergeCell ref="AO30:AO37"/>
+    <mergeCell ref="AS30:AT30"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AS32:AT32"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="AO3:AO10"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AO12:AO19"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AO39:AO46"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="AH1:AL2"/>
+    <mergeCell ref="AG3:AG10"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="Q30:Q37"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="Q12:Q19"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="R1:V2"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I39:I46"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
@@ -6150,209 +6278,72 @@
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="I39:I46"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R1:V2"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="Q12:Q19"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="Q30:Q37"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q39:Q46"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="AH1:AL2"/>
-    <mergeCell ref="AG3:AG10"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="AS37:AT37"/>
-    <mergeCell ref="AO3:AO10"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AO12:AO19"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="AO39:AO46"/>
-    <mergeCell ref="AS39:AT39"/>
-    <mergeCell ref="AS40:AT40"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AS42:AT42"/>
-    <mergeCell ref="AS44:AT44"/>
-    <mergeCell ref="AS45:AT45"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AP1:AT2"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AS24:AT24"/>
-    <mergeCell ref="AS26:AT26"/>
-    <mergeCell ref="AS27:AT27"/>
-    <mergeCell ref="AS28:AT28"/>
-    <mergeCell ref="AO30:AO37"/>
-    <mergeCell ref="AS30:AT30"/>
-    <mergeCell ref="AS31:AT31"/>
-    <mergeCell ref="AS32:AT32"/>
-    <mergeCell ref="AS33:AT33"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AS36:AT36"/>
-    <mergeCell ref="AX1:BB2"/>
-    <mergeCell ref="AW3:AW10"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="AW12:AW19"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BA15:BB15"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="AW30:AW37"/>
-    <mergeCell ref="BA30:BB30"/>
-    <mergeCell ref="BA31:BB31"/>
-    <mergeCell ref="BA32:BB32"/>
-    <mergeCell ref="BA33:BB33"/>
-    <mergeCell ref="BA35:BB35"/>
-    <mergeCell ref="BA36:BB36"/>
-    <mergeCell ref="BA37:BB37"/>
-    <mergeCell ref="AW39:AW46"/>
-    <mergeCell ref="BA39:BB39"/>
-    <mergeCell ref="BA40:BB40"/>
-    <mergeCell ref="BA41:BB41"/>
-    <mergeCell ref="BA42:BB42"/>
-    <mergeCell ref="BA44:BB44"/>
-    <mergeCell ref="BA45:BB45"/>
-    <mergeCell ref="BA46:BB46"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="Y30:Y37"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="Y39:Y46"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="BF1:BJ2"/>
+    <mergeCell ref="BE3:BE10"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="AG12:AG19"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AG30:AG37"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AG39:AG46"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AK46:AL46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasets/Classification Report/Classification Report Total.xlsx
+++ b/Datasets/Classification Report/Classification Report Total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Classification Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuobe\github\bachelorthesis\Datasets\Classification Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CA9E7F-C841-49AA-AE37-B1D7F22A83FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C7D5D2-2359-49C3-BC65-6170E309FEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +349,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -405,18 +417,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00B0F0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -429,7 +460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -727,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7679C0-E6FB-4780-AA1A-EA6D9AA2FADC}">
   <dimension ref="A1:BK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB49" sqref="BB49"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR48" sqref="AR48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="40" max="40" width="9.140625" style="15"/>
     <col min="56" max="56" width="9.140625" style="15"/>
@@ -749,13 +780,13 @@
       <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="18" t="s">
@@ -823,11 +854,11 @@
       <c r="G2" s="10"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="1"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="18"/>
@@ -894,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -906,10 +937,10 @@
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1081,7 @@
         <v>504</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,10 +1091,10 @@
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="22"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="2">
         <v>504</v>
       </c>
@@ -1192,7 +1223,7 @@
         <v>496</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1202,10 +1233,10 @@
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="22"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="2">
         <v>496</v>
       </c>
@@ -1324,7 +1355,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1334,10 +1365,10 @@
       <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="22"/>
+      <c r="M6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="21"/>
       <c r="O6" s="2">
         <v>0</v>
       </c>
@@ -1456,7 +1487,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1524,16 +1555,16 @@
         <v>1000</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="2">
         <v>1000</v>
       </c>
@@ -1638,7 +1669,7 @@
         <v>1000</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1648,10 +1679,10 @@
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="2">
         <v>1000</v>
       </c>
@@ -1780,7 +1811,7 @@
         <v>1000</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1790,10 +1821,10 @@
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="2">
         <v>1000</v>
       </c>
@@ -1877,10 +1908,10 @@
       <c r="AZ10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="BA10" s="20" t="s">
+      <c r="BA10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="BB10" s="20"/>
+      <c r="BB10" s="25"/>
       <c r="BC10" s="14">
         <v>1000</v>
       </c>
@@ -1984,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1996,10 +2027,10 @@
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2159,7 @@
         <v>498</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2138,10 +2169,10 @@
       <c r="L13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="2">
         <v>498</v>
       </c>
@@ -2260,7 +2291,7 @@
         <v>498</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2270,10 +2301,10 @@
       <c r="L14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="2">
         <v>498</v>
       </c>
@@ -2382,7 +2413,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2392,10 +2423,10 @@
       <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="22"/>
+      <c r="M15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="21"/>
       <c r="O15" s="2">
         <v>0</v>
       </c>
@@ -2504,7 +2535,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2572,16 +2603,16 @@
         <v>996</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="22"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="2">
         <v>996</v>
       </c>
@@ -2680,7 +2711,7 @@
         <v>996</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2690,10 +2721,10 @@
       <c r="L18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="2">
         <v>996</v>
       </c>
@@ -2804,15 +2835,15 @@
       <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="9">
         <v>996</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2822,10 +2853,10 @@
       <c r="L19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="22"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="2">
         <v>996</v>
       </c>
@@ -2909,10 +2940,10 @@
       <c r="AZ19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BA19" s="20" t="s">
+      <c r="BA19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="BB19" s="20"/>
+      <c r="BB19" s="25"/>
       <c r="BC19" s="14">
         <v>996</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="22" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3018,10 +3049,10 @@
       <c r="L21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="22"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="2" t="s">
         <v>14</v>
       </c>
@@ -3150,7 +3181,7 @@
         <v>500</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3160,10 +3191,10 @@
       <c r="L22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="22"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="2">
         <v>500</v>
       </c>
@@ -3282,7 +3313,7 @@
         <v>500</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3292,10 +3323,10 @@
       <c r="L23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="22"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="2">
         <v>500</v>
       </c>
@@ -3404,7 +3435,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3414,10 +3445,10 @@
       <c r="L24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="22"/>
+      <c r="M24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="21"/>
       <c r="O24" s="2">
         <v>0</v>
       </c>
@@ -3530,7 +3561,7 @@
         <v>1000</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3602,16 +3633,16 @@
         <v>1000</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="21"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="22"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="2">
         <v>1000</v>
       </c>
@@ -3710,7 +3741,7 @@
         <v>1000</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="21"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3720,10 +3751,10 @@
       <c r="L27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="22"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="2">
         <v>1000</v>
       </c>
@@ -3832,7 +3863,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
@@ -3842,10 +3873,10 @@
       <c r="L28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="22"/>
+      <c r="N28" s="24"/>
       <c r="O28" s="2">
         <v>1000</v>
       </c>
@@ -3859,10 +3890,10 @@
       <c r="T28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="20" t="s">
+      <c r="U28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="V28" s="20"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="6">
         <v>1000</v>
       </c>
@@ -3876,13 +3907,14 @@
       <c r="AB28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="20" t="s">
+      <c r="AC28" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AD28" s="20"/>
+      <c r="AD28" s="23"/>
       <c r="AE28" s="8">
         <v>1000</v>
       </c>
+      <c r="AF28" s="28"/>
       <c r="AG28" s="18"/>
       <c r="AH28" s="12" t="s">
         <v>19</v>
@@ -3911,10 +3943,10 @@
       <c r="AR28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AS28" s="20" t="s">
+      <c r="AS28" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AT28" s="20"/>
+      <c r="AT28" s="23"/>
       <c r="AU28" s="14">
         <v>1000</v>
       </c>
@@ -3929,14 +3961,14 @@
       <c r="AZ28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BA28" s="20" t="s">
+      <c r="BA28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="BB28" s="20"/>
+      <c r="BB28" s="23"/>
       <c r="BC28" s="17">
         <v>1000</v>
       </c>
-      <c r="BD28" s="14"/>
+      <c r="BD28" s="27"/>
       <c r="BE28" s="15"/>
       <c r="BF28" s="15"/>
       <c r="BG28" s="15"/>
@@ -4036,7 +4068,7 @@
         <v>167</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="22" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -4180,7 +4212,7 @@
         <v>769</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="21"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="10" t="s">
         <v>6</v>
       </c>
@@ -4300,7 +4332,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="21"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="10" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4458,7 @@
         <v>936</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="21"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="10" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +4588,7 @@
         <v>936</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="21"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -4626,7 +4658,7 @@
         <v>936</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="21"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
@@ -4722,7 +4754,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="21"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4854,7 +4886,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4915,10 +4947,10 @@
       <c r="AJ37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AK37" s="20" t="s">
+      <c r="AK37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AL37" s="20"/>
+      <c r="AL37" s="23"/>
       <c r="AM37" s="12">
         <v>936</v>
       </c>
@@ -4950,13 +4982,14 @@
       <c r="AZ37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BA37" s="20" t="s">
+      <c r="BA37" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="BB37" s="20"/>
+      <c r="BB37" s="23"/>
       <c r="BC37" s="17">
         <v>936</v>
       </c>
+      <c r="BD37" s="28"/>
       <c r="BE37" s="15"/>
       <c r="BF37" s="15"/>
       <c r="BG37" s="15"/>
@@ -5054,7 +5087,7 @@
         <v>517</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -5066,10 +5099,10 @@
       <c r="L39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="22"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="2" t="s">
         <v>14</v>
       </c>
@@ -5188,7 +5221,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="1" t="s">
         <v>6</v>
       </c>
@@ -5198,10 +5231,10 @@
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="22"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="2">
         <v>483</v>
       </c>
@@ -5316,7 +5349,7 @@
         <v>1000</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="21"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
@@ -5326,10 +5359,10 @@
       <c r="L41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="22" t="s">
+      <c r="M41" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="22"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="2">
         <v>517</v>
       </c>
@@ -5448,7 +5481,7 @@
         <v>1000</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="21"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
@@ -5458,10 +5491,10 @@
       <c r="L42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="22"/>
+      <c r="M42" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="21"/>
       <c r="O42" s="2">
         <v>0</v>
       </c>
@@ -5580,7 +5613,7 @@
         <v>1000</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="21"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5636,16 +5669,16 @@
     <row r="44" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="21"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="22"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="2">
         <v>1000</v>
       </c>
@@ -5728,7 +5761,7 @@
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="21"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="1" t="s">
         <v>18</v>
       </c>
@@ -5738,10 +5771,10 @@
       <c r="L45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N45" s="22"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="2">
         <v>1000</v>
       </c>
@@ -5845,7 +5878,7 @@
       <c r="A46" s="16"/>
       <c r="B46" s="4"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="21"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="1" t="s">
         <v>19</v>
       </c>
@@ -5855,10 +5888,10 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="22" t="s">
+      <c r="M46" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="22"/>
+      <c r="N46" s="21"/>
       <c r="O46" s="2">
         <v>1000</v>
       </c>
@@ -5949,7 +5982,7 @@
       <c r="BC46" s="17">
         <v>1000</v>
       </c>
-      <c r="BD46" s="14"/>
+      <c r="BD46" s="27"/>
       <c r="BE46" s="15"/>
       <c r="BF46" s="15"/>
       <c r="BG46" s="15"/>
@@ -6051,70 +6084,211 @@
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="AW30:AW37"/>
-    <mergeCell ref="BA30:BB30"/>
-    <mergeCell ref="BA31:BB31"/>
-    <mergeCell ref="BA32:BB32"/>
-    <mergeCell ref="BA33:BB33"/>
-    <mergeCell ref="BA35:BB35"/>
-    <mergeCell ref="BA36:BB36"/>
-    <mergeCell ref="BA37:BB37"/>
-    <mergeCell ref="AW39:AW46"/>
-    <mergeCell ref="BA39:BB39"/>
-    <mergeCell ref="BA40:BB40"/>
-    <mergeCell ref="BA41:BB41"/>
-    <mergeCell ref="BA42:BB42"/>
-    <mergeCell ref="BA44:BB44"/>
-    <mergeCell ref="BA45:BB45"/>
-    <mergeCell ref="BA46:BB46"/>
-    <mergeCell ref="AW12:AW19"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BA15:BB15"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="AX1:BB2"/>
-    <mergeCell ref="AW3:AW10"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="AS39:AT39"/>
-    <mergeCell ref="AS40:AT40"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AS42:AT42"/>
-    <mergeCell ref="AS44:AT44"/>
-    <mergeCell ref="AS45:AT45"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AP1:AT2"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AS24:AT24"/>
-    <mergeCell ref="AS26:AT26"/>
-    <mergeCell ref="AS27:AT27"/>
-    <mergeCell ref="AS28:AT28"/>
-    <mergeCell ref="AO30:AO37"/>
-    <mergeCell ref="AS30:AT30"/>
-    <mergeCell ref="AS31:AT31"/>
-    <mergeCell ref="AS32:AT32"/>
-    <mergeCell ref="AS33:AT33"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="AG30:AG37"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AG39:AG46"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AG12:AG19"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="BF1:BJ2"/>
+    <mergeCell ref="BE3:BE10"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="Y30:Y37"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="Y39:Y46"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="Z1:AD2"/>
+    <mergeCell ref="Y3:Y10"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="Y12:Y19"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I39:I46"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="R1:V2"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="Q12:Q19"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="Q30:Q37"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="AH1:AL2"/>
+    <mergeCell ref="AG3:AG10"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
@@ -6139,211 +6313,70 @@
     <mergeCell ref="AS18:AT18"/>
     <mergeCell ref="AS19:AT19"/>
     <mergeCell ref="AO39:AO46"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="AH1:AL2"/>
-    <mergeCell ref="AG3:AG10"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="Q30:Q37"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q39:Q46"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="Q12:Q19"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="R1:V2"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="I39:I46"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="Z1:AD2"/>
-    <mergeCell ref="Y3:Y10"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="Y12:Y19"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="Y30:Y37"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="Y39:Y46"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="BF1:BJ2"/>
-    <mergeCell ref="BE3:BE10"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="AG12:AG19"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AG30:AG37"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AG39:AG46"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AS39:AT39"/>
+    <mergeCell ref="AS40:AT40"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AS42:AT42"/>
+    <mergeCell ref="AS44:AT44"/>
+    <mergeCell ref="AS45:AT45"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AP1:AT2"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AS26:AT26"/>
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AS28:AT28"/>
+    <mergeCell ref="AO30:AO37"/>
+    <mergeCell ref="AS30:AT30"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AS32:AT32"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="AW3:AW10"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="AW12:AW19"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BA15:BB15"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="AW30:AW37"/>
+    <mergeCell ref="BA30:BB30"/>
+    <mergeCell ref="BA31:BB31"/>
+    <mergeCell ref="BA32:BB32"/>
+    <mergeCell ref="BA33:BB33"/>
+    <mergeCell ref="BA35:BB35"/>
+    <mergeCell ref="BA36:BB36"/>
+    <mergeCell ref="BA37:BB37"/>
+    <mergeCell ref="AW39:AW46"/>
+    <mergeCell ref="BA39:BB39"/>
+    <mergeCell ref="BA40:BB40"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BA42:BB42"/>
+    <mergeCell ref="BA44:BB44"/>
+    <mergeCell ref="BA45:BB45"/>
+    <mergeCell ref="BA46:BB46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasets/Classification Report/Classification Report Total.xlsx
+++ b/Datasets/Classification Report/Classification Report Total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuobe\github\bachelorthesis\Datasets\Classification Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Classification Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C7D5D2-2359-49C3-BC65-6170E309FEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9DAECC-828D-4CF1-BFC9-6AD9293CD341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
+    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{356F8004-839F-4170-968A-E905A86D7A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="104">
   <si>
     <t>Stanford</t>
   </si>
@@ -324,6 +324,27 @@
   </si>
   <si>
     <t>0.97</t>
+  </si>
+  <si>
+    <t>Average F1 Yelp</t>
+  </si>
+  <si>
+    <t>Average F1 Uber</t>
+  </si>
+  <si>
+    <t>Average F1 Restaurant</t>
+  </si>
+  <si>
+    <t>Average F1 IMDB</t>
+  </si>
+  <si>
+    <t>Average F1 Amazon</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -339,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -377,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -410,6 +437,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,13 +448,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -432,14 +463,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,7 +494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,156 +790,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7679C0-E6FB-4780-AA1A-EA6D9AA2FADC}">
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR48" sqref="AR48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19:AT19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="40" max="40" width="9.140625" style="15"/>
     <col min="56" max="56" width="9.140625" style="15"/>
+    <col min="58" max="58" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="10"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="1"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
       <c r="W1" s="5"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
       <c r="AE1" s="7"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
       <c r="AM1" s="12"/>
       <c r="AO1" s="15"/>
-      <c r="AP1" s="18" t="s">
+      <c r="AP1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
       <c r="AU1" s="15"/>
       <c r="AV1" s="15"/>
       <c r="AW1" s="15"/>
-      <c r="AX1" s="18" t="s">
+      <c r="AX1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
       <c r="BC1" s="15"/>
       <c r="BE1" s="15"/>
       <c r="BF1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG1" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="BG1" s="18">
+        <v>0.67</v>
+      </c>
       <c r="BH1" s="18"/>
       <c r="BI1" s="18"/>
       <c r="BJ1" s="18"/>
       <c r="BK1" s="12"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="18"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="10"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="1"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
       <c r="W2" s="5"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
       <c r="AE2" s="7"/>
       <c r="AG2" s="12"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
       <c r="AM2" s="12"/>
       <c r="AO2" s="15"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
       <c r="BC2" s="15"/>
       <c r="BE2" s="15"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
+      <c r="BF2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG2" s="18">
+        <v>0.63</v>
+      </c>
       <c r="BH2" s="18"/>
       <c r="BI2" s="18"/>
       <c r="BJ2" s="18"/>
       <c r="BK2" s="12"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="18"/>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -917,15 +974,15 @@
       <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -937,14 +994,14 @@
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -956,14 +1013,14 @@
       <c r="T3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="20"/>
+      <c r="V3" s="22"/>
       <c r="W3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -975,14 +1032,14 @@
       <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="20"/>
+      <c r="AD3" s="22"/>
       <c r="AE3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="AH3" s="12" t="s">
@@ -994,15 +1051,15 @@
       <c r="AJ3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="20"/>
+      <c r="AL3" s="22"/>
       <c r="AM3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN3" s="14"/>
-      <c r="AO3" s="18" t="s">
+      <c r="AO3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="AP3" s="15" t="s">
@@ -1014,15 +1071,15 @@
       <c r="AR3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="20"/>
+      <c r="AT3" s="22"/>
       <c r="AU3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV3" s="15"/>
-      <c r="AW3" s="18" t="s">
+      <c r="AW3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="AX3" s="15" t="s">
@@ -1034,36 +1091,47 @@
       <c r="AZ3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA3" s="20" t="s">
+      <c r="BA3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB3" s="20"/>
+      <c r="BB3" s="22"/>
       <c r="BC3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="BD3" s="14"/>
-      <c r="BE3" s="18" t="s">
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="13"/>
+      <c r="BN3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="BF3" s="15" t="s">
+      <c r="BO3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BG3" s="15" t="s">
+      <c r="BP3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15" t="s">
+      <c r="BQ3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BI3" s="20" t="s">
+      <c r="BR3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="13" t="s">
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1073,15 +1141,15 @@
       <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="9">
         <v>504</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1091,14 +1159,14 @@
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="2">
         <v>504</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1108,14 +1176,14 @@
       <c r="T4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="20"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="6">
         <v>504</v>
       </c>
-      <c r="Y4" s="18"/>
+      <c r="Y4" s="20"/>
       <c r="Z4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1125,14 +1193,14 @@
       <c r="AB4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="20"/>
+      <c r="AD4" s="22"/>
       <c r="AE4" s="8">
         <v>504</v>
       </c>
-      <c r="AG4" s="18"/>
+      <c r="AG4" s="20"/>
       <c r="AH4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1142,15 +1210,15 @@
       <c r="AJ4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AK4" s="20" t="s">
+      <c r="AK4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="20"/>
+      <c r="AL4" s="22"/>
       <c r="AM4" s="13">
         <v>504</v>
       </c>
       <c r="AN4" s="14"/>
-      <c r="AO4" s="18"/>
+      <c r="AO4" s="20"/>
       <c r="AP4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1160,15 +1228,15 @@
       <c r="AR4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AS4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" s="20"/>
+      <c r="AT4" s="22"/>
       <c r="AU4" s="14">
         <v>504</v>
       </c>
       <c r="AV4" s="15"/>
-      <c r="AW4" s="18"/>
+      <c r="AW4" s="20"/>
       <c r="AX4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1178,34 +1246,45 @@
       <c r="AZ4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BA4" s="20" t="s">
+      <c r="BA4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="BB4" s="20"/>
+      <c r="BB4" s="22"/>
       <c r="BC4" s="14">
         <v>504</v>
       </c>
       <c r="BD4" s="14"/>
       <c r="BE4" s="18"/>
-      <c r="BF4" s="15" t="s">
+      <c r="BF4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG4" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="13"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BG4" s="15" t="s">
+      <c r="BP4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="BH4" s="15" t="s">
+      <c r="BQ4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="BI4" s="20" t="s">
+      <c r="BR4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="13">
+      <c r="BS4" s="22"/>
+      <c r="BT4" s="19">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1215,15 +1294,15 @@
       <c r="D5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="9">
         <v>496</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1233,14 +1312,14 @@
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="2">
         <v>496</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1250,14 +1329,14 @@
       <c r="T5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="20"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="6">
         <v>496</v>
       </c>
-      <c r="Y5" s="18"/>
+      <c r="Y5" s="20"/>
       <c r="Z5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1267,14 +1346,14 @@
       <c r="AB5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="20"/>
+      <c r="AD5" s="22"/>
       <c r="AE5" s="8">
         <v>496</v>
       </c>
-      <c r="AG5" s="18"/>
+      <c r="AG5" s="20"/>
       <c r="AH5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1284,15 +1363,15 @@
       <c r="AJ5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AK5" s="20" t="s">
+      <c r="AK5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="20"/>
+      <c r="AL5" s="22"/>
       <c r="AM5" s="13">
         <v>496</v>
       </c>
       <c r="AN5" s="14"/>
-      <c r="AO5" s="18"/>
+      <c r="AO5" s="20"/>
       <c r="AP5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1302,15 +1381,15 @@
       <c r="AR5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS5" s="20" t="s">
+      <c r="AS5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="20"/>
+      <c r="AT5" s="22"/>
       <c r="AU5" s="14">
         <v>496</v>
       </c>
       <c r="AV5" s="15"/>
-      <c r="AW5" s="18"/>
+      <c r="AW5" s="20"/>
       <c r="AX5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1320,42 +1399,53 @@
       <c r="AZ5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="BA5" s="20" t="s">
+      <c r="BA5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="BB5" s="20"/>
+      <c r="BB5" s="22"/>
       <c r="BC5" s="14">
         <v>496</v>
       </c>
       <c r="BD5" s="14"/>
       <c r="BE5" s="18"/>
-      <c r="BF5" s="15" t="s">
+      <c r="BF5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="13"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BG5" s="15" t="s">
+      <c r="BP5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="BH5" s="15" t="s">
+      <c r="BQ5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="BI5" s="20" t="s">
+      <c r="BR5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="13">
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="19">
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1365,14 +1455,14 @@
       <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="21"/>
+      <c r="M6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="25"/>
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1382,14 +1472,14 @@
       <c r="T6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="20"/>
+      <c r="U6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="22"/>
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="Y6" s="18"/>
+      <c r="Y6" s="20"/>
       <c r="Z6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1399,14 +1489,14 @@
       <c r="AB6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="20"/>
+      <c r="AC6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="22"/>
       <c r="AE6" s="8">
         <v>0</v>
       </c>
-      <c r="AG6" s="18"/>
+      <c r="AG6" s="20"/>
       <c r="AH6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1416,15 +1506,15 @@
       <c r="AJ6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="20"/>
+      <c r="AK6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="22"/>
       <c r="AM6" s="13">
         <v>0</v>
       </c>
       <c r="AN6" s="14"/>
-      <c r="AO6" s="18"/>
+      <c r="AO6" s="20"/>
       <c r="AP6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,15 +1524,15 @@
       <c r="AR6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="20"/>
+      <c r="AS6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="22"/>
       <c r="AU6" s="14">
         <v>504</v>
       </c>
       <c r="AV6" s="15"/>
-      <c r="AW6" s="18"/>
+      <c r="AW6" s="20"/>
       <c r="AX6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1452,34 +1542,41 @@
       <c r="AZ6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="20"/>
+      <c r="BA6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="22"/>
       <c r="BC6" s="14">
         <v>0</v>
       </c>
       <c r="BD6" s="14"/>
       <c r="BE6" s="18"/>
-      <c r="BF6" s="15" t="s">
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="13"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BG6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="20"/>
-      <c r="BK6" s="13">
+      <c r="BP6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1487,28 +1584,28 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="Y7" s="18"/>
+      <c r="Y7" s="20"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AG7" s="18"/>
+      <c r="AG7" s="20"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
@@ -1516,7 +1613,7 @@
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="14"/>
-      <c r="AO7" s="18"/>
+      <c r="AO7" s="20"/>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="15"/>
       <c r="AR7" s="15"/>
@@ -1524,7 +1621,7 @@
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="15"/>
-      <c r="AW7" s="18"/>
+      <c r="AW7" s="20"/>
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15"/>
@@ -1539,119 +1636,150 @@
       <c r="BI7" s="14"/>
       <c r="BJ7" s="14"/>
       <c r="BK7" s="13"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="19"/>
+      <c r="BS7" s="19"/>
+      <c r="BT7" s="19"/>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="9">
         <v>1000</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="2">
         <v>1000</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="20"/>
       <c r="R8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="20" t="s">
+      <c r="U8" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="20"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="6">
         <v>1000</v>
       </c>
-      <c r="Y8" s="18"/>
+      <c r="X8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="20" t="s">
+      <c r="AC8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="20"/>
+      <c r="AD8" s="22"/>
       <c r="AE8" s="8">
         <v>1000</v>
       </c>
-      <c r="AG8" s="18"/>
+      <c r="AF8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
-      <c r="AK8" s="20" t="s">
+      <c r="AK8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AL8" s="20"/>
+      <c r="AL8" s="22"/>
       <c r="AM8" s="13">
         <v>1000</v>
       </c>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="18"/>
+      <c r="AN8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ8" s="15"/>
       <c r="AR8" s="15"/>
-      <c r="AS8" s="20" t="s">
+      <c r="AS8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AT8" s="20"/>
+      <c r="AT8" s="22"/>
       <c r="AU8" s="14">
         <v>1000</v>
       </c>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="18"/>
+      <c r="AV8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW8" s="20"/>
       <c r="AX8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY8" s="15"/>
       <c r="AZ8" s="15"/>
-      <c r="BA8" s="20" t="s">
+      <c r="BA8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="BB8" s="20"/>
+      <c r="BB8" s="22"/>
       <c r="BC8" s="14">
         <v>1000</v>
       </c>
-      <c r="BD8" s="14"/>
+      <c r="BD8" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="BE8" s="18"/>
-      <c r="BF8" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="BF8" s="15"/>
       <c r="BG8" s="15"/>
       <c r="BH8" s="15"/>
-      <c r="BI8" s="20" t="s">
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="13"/>
+      <c r="BN8" s="20"/>
+      <c r="BO8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="13">
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="19">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1661,15 +1789,17 @@
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="9">
         <v>1000</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="24"/>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1679,14 +1809,17 @@
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="2">
         <v>1000</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="P9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="20"/>
       <c r="R9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1696,14 +1829,17 @@
       <c r="T9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="20"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="6">
         <v>1000</v>
       </c>
-      <c r="Y9" s="18"/>
+      <c r="X9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1713,14 +1849,17 @@
       <c r="AB9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AC9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="20"/>
+      <c r="AD9" s="22"/>
       <c r="AE9" s="8">
         <v>1000</v>
       </c>
-      <c r="AG9" s="18"/>
+      <c r="AF9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG9" s="20"/>
       <c r="AH9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1730,15 +1869,17 @@
       <c r="AJ9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AK9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="20"/>
+      <c r="AL9" s="22"/>
       <c r="AM9" s="13">
         <v>1000</v>
       </c>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="18"/>
+      <c r="AN9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO9" s="20"/>
       <c r="AP9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1748,15 +1889,17 @@
       <c r="AR9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS9" s="20" t="s">
+      <c r="AS9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="20"/>
+      <c r="AT9" s="22"/>
       <c r="AU9" s="14">
         <v>1000</v>
       </c>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="18"/>
+      <c r="AV9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW9" s="20"/>
       <c r="AX9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1766,34 +1909,43 @@
       <c r="AZ9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BA9" s="20" t="s">
+      <c r="BA9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="BB9" s="20"/>
+      <c r="BB9" s="22"/>
       <c r="BC9" s="14">
         <v>1000</v>
       </c>
-      <c r="BD9" s="14"/>
+      <c r="BD9" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="BE9" s="18"/>
-      <c r="BF9" s="15" t="s">
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="13"/>
+      <c r="BN9" s="20"/>
+      <c r="BO9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="BG9" s="15" t="s">
+      <c r="BP9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BH9" s="15" t="s">
+      <c r="BQ9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="BI9" s="20" t="s">
+      <c r="BR9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="BJ9" s="20"/>
-      <c r="BK9" s="13">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="19">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1803,15 +1955,17 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="9">
         <v>1000</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="22"/>
+      <c r="H10" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1821,14 +1975,17 @@
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="2">
         <v>1000</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="P10" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="Q10" s="20"/>
       <c r="R10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1838,14 +1995,17 @@
       <c r="T10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="20"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="6">
         <v>1000</v>
       </c>
-      <c r="Y10" s="18"/>
+      <c r="X10" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="Y10" s="20"/>
       <c r="Z10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1855,14 +2015,17 @@
       <c r="AB10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AC10" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" s="20"/>
+      <c r="AD10" s="28"/>
       <c r="AE10" s="8">
         <v>1000</v>
       </c>
-      <c r="AG10" s="18"/>
+      <c r="AF10" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AG10" s="20"/>
       <c r="AH10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1872,15 +2035,17 @@
       <c r="AJ10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AK10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AL10" s="20"/>
+      <c r="AL10" s="22"/>
       <c r="AM10" s="13">
         <v>1000</v>
       </c>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="18"/>
+      <c r="AN10" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AO10" s="20"/>
       <c r="AP10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1890,15 +2055,17 @@
       <c r="AR10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AS10" s="20" t="s">
+      <c r="AS10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AT10" s="20"/>
+      <c r="AT10" s="28"/>
       <c r="AU10" s="14">
         <v>1000</v>
       </c>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="18"/>
+      <c r="AV10" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AW10" s="20"/>
       <c r="AX10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1908,33 +2075,42 @@
       <c r="AZ10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="BA10" s="25" t="s">
+      <c r="BA10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="BB10" s="25"/>
+      <c r="BB10" s="27"/>
       <c r="BC10" s="14">
         <v>1000</v>
       </c>
-      <c r="BD10" s="14"/>
+      <c r="BD10" s="18">
+        <v>0.67</v>
+      </c>
       <c r="BE10" s="18"/>
-      <c r="BF10" s="15" t="s">
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="13"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="BG10" s="15" t="s">
+      <c r="BP10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BH10" s="15" t="s">
+      <c r="BQ10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="BI10" s="20" t="s">
+      <c r="BR10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="BJ10" s="20"/>
-      <c r="BK10" s="13">
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="19">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1994,8 +2170,8 @@
       <c r="BJ11" s="15"/>
       <c r="BK11" s="12"/>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2007,15 +2183,15 @@
       <c r="D12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2027,14 +2203,14 @@
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -2046,14 +2222,14 @@
       <c r="T12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="Z12" s="7" t="s">
@@ -2065,14 +2241,14 @@
       <c r="AB12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AC12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AD12" s="20"/>
+      <c r="AD12" s="22"/>
       <c r="AE12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AG12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="AH12" s="12" t="s">
@@ -2084,15 +2260,15 @@
       <c r="AJ12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK12" s="20" t="s">
+      <c r="AK12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL12" s="20"/>
+      <c r="AL12" s="22"/>
       <c r="AM12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN12" s="14"/>
-      <c r="AO12" s="18" t="s">
+      <c r="AO12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="AP12" s="15" t="s">
@@ -2104,15 +2280,15 @@
       <c r="AR12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS12" s="20" t="s">
+      <c r="AS12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AT12" s="20"/>
+      <c r="AT12" s="22"/>
       <c r="AU12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV12" s="15"/>
-      <c r="AW12" s="18" t="s">
+      <c r="AW12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="AX12" s="15" t="s">
@@ -2124,10 +2300,10 @@
       <c r="AZ12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA12" s="20" t="s">
+      <c r="BA12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB12" s="20"/>
+      <c r="BB12" s="22"/>
       <c r="BC12" s="14" t="s">
         <v>14</v>
       </c>
@@ -2140,8 +2316,8 @@
       <c r="BJ12" s="15"/>
       <c r="BK12" s="12"/>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -2151,15 +2327,15 @@
       <c r="D13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="9">
         <v>498</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2169,14 +2345,14 @@
       <c r="L13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="2">
         <v>498</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2186,14 +2362,14 @@
       <c r="T13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="20"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="6">
         <v>498</v>
       </c>
-      <c r="Y13" s="18"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2203,14 +2379,14 @@
       <c r="AB13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="20" t="s">
+      <c r="AC13" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AD13" s="20"/>
+      <c r="AD13" s="22"/>
       <c r="AE13" s="8">
         <v>498</v>
       </c>
-      <c r="AG13" s="18"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="12" t="s">
         <v>6</v>
       </c>
@@ -2220,15 +2396,15 @@
       <c r="AJ13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK13" s="20" t="s">
+      <c r="AK13" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AL13" s="20"/>
+      <c r="AL13" s="22"/>
       <c r="AM13" s="13">
         <v>498</v>
       </c>
       <c r="AN13" s="14"/>
-      <c r="AO13" s="18"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="15" t="s">
         <v>6</v>
       </c>
@@ -2238,15 +2414,15 @@
       <c r="AR13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AS13" s="20" t="s">
+      <c r="AS13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AT13" s="20"/>
+      <c r="AT13" s="22"/>
       <c r="AU13" s="14">
         <v>498</v>
       </c>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="18"/>
+      <c r="AW13" s="20"/>
       <c r="AX13" s="15" t="s">
         <v>6</v>
       </c>
@@ -2256,10 +2432,10 @@
       <c r="AZ13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="BA13" s="20" t="s">
+      <c r="BA13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BB13" s="20"/>
+      <c r="BB13" s="22"/>
       <c r="BC13" s="14">
         <v>498</v>
       </c>
@@ -2272,8 +2448,8 @@
       <c r="BJ13" s="15"/>
       <c r="BK13" s="12"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -2283,15 +2459,15 @@
       <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="9">
         <v>498</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2301,14 +2477,14 @@
       <c r="L14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="2">
         <v>498</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="5" t="s">
         <v>7</v>
       </c>
@@ -2318,14 +2494,14 @@
       <c r="T14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="20"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="6">
         <v>498</v>
       </c>
-      <c r="Y14" s="18"/>
+      <c r="Y14" s="20"/>
       <c r="Z14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2335,14 +2511,14 @@
       <c r="AB14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="AC14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AD14" s="20"/>
+      <c r="AD14" s="22"/>
       <c r="AE14" s="8">
         <v>498</v>
       </c>
-      <c r="AG14" s="18"/>
+      <c r="AG14" s="20"/>
       <c r="AH14" s="12" t="s">
         <v>7</v>
       </c>
@@ -2352,15 +2528,15 @@
       <c r="AJ14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="20" t="s">
+      <c r="AK14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AL14" s="20"/>
+      <c r="AL14" s="22"/>
       <c r="AM14" s="13">
         <v>498</v>
       </c>
       <c r="AN14" s="14"/>
-      <c r="AO14" s="18"/>
+      <c r="AO14" s="20"/>
       <c r="AP14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2370,15 +2546,15 @@
       <c r="AR14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AS14" s="20" t="s">
+      <c r="AS14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AT14" s="20"/>
+      <c r="AT14" s="22"/>
       <c r="AU14" s="14">
         <v>498</v>
       </c>
       <c r="AV14" s="15"/>
-      <c r="AW14" s="18"/>
+      <c r="AW14" s="20"/>
       <c r="AX14" s="15" t="s">
         <v>7</v>
       </c>
@@ -2388,10 +2564,10 @@
       <c r="AZ14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="BA14" s="20" t="s">
+      <c r="BA14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="BB14" s="20"/>
+      <c r="BB14" s="22"/>
       <c r="BC14" s="14">
         <v>498</v>
       </c>
@@ -2404,16 +2580,16 @@
       <c r="BJ14" s="15"/>
       <c r="BK14" s="12"/>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2423,14 +2599,14 @@
       <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="21"/>
+      <c r="M15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="25"/>
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2440,14 +2616,14 @@
       <c r="T15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="20"/>
+      <c r="U15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="22"/>
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="18"/>
+      <c r="Y15" s="20"/>
       <c r="Z15" s="7" t="s">
         <v>8</v>
       </c>
@@ -2457,14 +2633,14 @@
       <c r="AB15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="20"/>
+      <c r="AC15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="22"/>
       <c r="AE15" s="8">
         <v>0</v>
       </c>
-      <c r="AG15" s="18"/>
+      <c r="AG15" s="20"/>
       <c r="AH15" s="12" t="s">
         <v>8</v>
       </c>
@@ -2474,15 +2650,15 @@
       <c r="AJ15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="20"/>
+      <c r="AK15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="22"/>
       <c r="AM15" s="13">
         <v>0</v>
       </c>
       <c r="AN15" s="14"/>
-      <c r="AO15" s="18"/>
+      <c r="AO15" s="20"/>
       <c r="AP15" s="15" t="s">
         <v>8</v>
       </c>
@@ -2492,15 +2668,15 @@
       <c r="AR15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT15" s="20"/>
+      <c r="AS15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="22"/>
       <c r="AU15" s="14">
         <v>0</v>
       </c>
       <c r="AV15" s="15"/>
-      <c r="AW15" s="18"/>
+      <c r="AW15" s="20"/>
       <c r="AX15" s="15" t="s">
         <v>8</v>
       </c>
@@ -2510,10 +2686,10 @@
       <c r="AZ15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB15" s="20"/>
+      <c r="BA15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB15" s="22"/>
       <c r="BC15" s="14">
         <v>0</v>
       </c>
@@ -2526,8 +2702,8 @@
       <c r="BJ15" s="15"/>
       <c r="BK15" s="12"/>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2535,28 +2711,28 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="2"/>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="Y16" s="18"/>
+      <c r="Y16" s="20"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
-      <c r="AG16" s="18"/>
+      <c r="AG16" s="20"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
@@ -2564,7 +2740,7 @@
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="14"/>
-      <c r="AO16" s="18"/>
+      <c r="AO16" s="20"/>
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
       <c r="AR16" s="15"/>
@@ -2572,7 +2748,7 @@
       <c r="AT16" s="14"/>
       <c r="AU16" s="14"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="18"/>
+      <c r="AW16" s="20"/>
       <c r="AX16" s="15"/>
       <c r="AY16" s="15"/>
       <c r="AZ16" s="15"/>
@@ -2589,101 +2765,118 @@
       <c r="BK16" s="12"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="9">
         <v>996</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="24"/>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="21"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="2">
         <v>996</v>
       </c>
-      <c r="Q17" s="18"/>
+      <c r="P17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="20"/>
       <c r="R17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="20" t="s">
+      <c r="U17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="V17" s="20"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="6">
         <v>996</v>
       </c>
-      <c r="Y17" s="18"/>
+      <c r="X17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y17" s="20"/>
       <c r="Z17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="20" t="s">
+      <c r="AC17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="20"/>
+      <c r="AD17" s="22"/>
       <c r="AE17" s="8">
         <v>996</v>
       </c>
-      <c r="AG17" s="18"/>
+      <c r="AF17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG17" s="20"/>
       <c r="AH17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
-      <c r="AK17" s="20" t="s">
+      <c r="AK17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AL17" s="20"/>
+      <c r="AL17" s="22"/>
       <c r="AM17" s="13">
         <v>996</v>
       </c>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="18"/>
+      <c r="AN17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO17" s="20"/>
       <c r="AP17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ17" s="15"/>
       <c r="AR17" s="15"/>
-      <c r="AS17" s="20" t="s">
+      <c r="AS17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AT17" s="20"/>
+      <c r="AT17" s="22"/>
       <c r="AU17" s="14">
         <v>996</v>
       </c>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="18"/>
+      <c r="AV17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW17" s="20"/>
       <c r="AX17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="15"/>
-      <c r="BA17" s="20" t="s">
+      <c r="BA17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="BB17" s="20"/>
+      <c r="BB17" s="22"/>
       <c r="BC17" s="14">
         <v>996</v>
       </c>
-      <c r="BD17" s="14"/>
+      <c r="BD17" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="BE17" s="15"/>
       <c r="BF17" s="15"/>
       <c r="BG17" s="15"/>
@@ -2693,7 +2886,7 @@
       <c r="BK17" s="12"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2703,15 +2896,17 @@
       <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="9">
         <v>996</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="22"/>
+      <c r="H18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="24"/>
       <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2721,14 +2916,17 @@
       <c r="L18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="21"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="2">
         <v>996</v>
       </c>
-      <c r="Q18" s="18"/>
+      <c r="P18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="20"/>
       <c r="R18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2738,14 +2936,17 @@
       <c r="T18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="V18" s="20"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="6">
         <v>996</v>
       </c>
-      <c r="Y18" s="18"/>
+      <c r="X18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y18" s="20"/>
       <c r="Z18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2755,14 +2956,17 @@
       <c r="AB18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC18" s="20" t="s">
+      <c r="AC18" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AD18" s="20"/>
+      <c r="AD18" s="22"/>
       <c r="AE18" s="8">
         <v>996</v>
       </c>
-      <c r="AG18" s="18"/>
+      <c r="AF18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG18" s="20"/>
       <c r="AH18" s="12" t="s">
         <v>18</v>
       </c>
@@ -2772,15 +2976,17 @@
       <c r="AJ18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AK18" s="20" t="s">
+      <c r="AK18" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" s="20"/>
+      <c r="AL18" s="22"/>
       <c r="AM18" s="13">
         <v>996</v>
       </c>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="18"/>
+      <c r="AN18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO18" s="20"/>
       <c r="AP18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2790,15 +2996,17 @@
       <c r="AR18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS18" s="20" t="s">
+      <c r="AS18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AT18" s="20"/>
+      <c r="AT18" s="22"/>
       <c r="AU18" s="14">
         <v>996</v>
       </c>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="18"/>
+      <c r="AV18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW18" s="20"/>
       <c r="AX18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2808,14 +3016,16 @@
       <c r="AZ18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BA18" s="20" t="s">
+      <c r="BA18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="BB18" s="20"/>
+      <c r="BB18" s="22"/>
       <c r="BC18" s="14">
         <v>996</v>
       </c>
-      <c r="BD18" s="14"/>
+      <c r="BD18" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="BE18" s="15"/>
       <c r="BF18" s="15"/>
       <c r="BG18" s="15"/>
@@ -2825,7 +3035,7 @@
       <c r="BK18" s="12"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2842,8 +3052,10 @@
       <c r="G19" s="9">
         <v>996</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="22"/>
+      <c r="H19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="I19" s="24"/>
       <c r="J19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2853,14 +3065,17 @@
       <c r="L19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="21"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="2">
         <v>996</v>
       </c>
-      <c r="Q19" s="18"/>
+      <c r="P19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="Q19" s="20"/>
       <c r="R19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2870,14 +3085,17 @@
       <c r="T19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="20"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="6">
         <v>996</v>
       </c>
-      <c r="Y19" s="18"/>
+      <c r="X19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2887,14 +3105,17 @@
       <c r="AB19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="20" t="s">
+      <c r="AC19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="20"/>
+      <c r="AD19" s="28"/>
       <c r="AE19" s="8">
         <v>996</v>
       </c>
-      <c r="AG19" s="18"/>
+      <c r="AF19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="AG19" s="20"/>
       <c r="AH19" s="12" t="s">
         <v>19</v>
       </c>
@@ -2904,15 +3125,17 @@
       <c r="AJ19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="20" t="s">
+      <c r="AK19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AL19" s="20"/>
+      <c r="AL19" s="22"/>
       <c r="AM19" s="13">
         <v>996</v>
       </c>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="18"/>
+      <c r="AN19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="AO19" s="20"/>
       <c r="AP19" s="15" t="s">
         <v>19</v>
       </c>
@@ -2922,15 +3145,17 @@
       <c r="AR19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AS19" s="20" t="s">
+      <c r="AS19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AT19" s="20"/>
+      <c r="AT19" s="28"/>
       <c r="AU19" s="14">
         <v>996</v>
       </c>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="18"/>
+      <c r="AV19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="AW19" s="20"/>
       <c r="AX19" s="15" t="s">
         <v>19</v>
       </c>
@@ -2940,14 +3165,16 @@
       <c r="AZ19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BA19" s="25" t="s">
+      <c r="BA19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="BB19" s="25"/>
+      <c r="BB19" s="27"/>
       <c r="BC19" s="14">
         <v>996</v>
       </c>
-      <c r="BD19" s="14"/>
+      <c r="BD19" s="18">
+        <v>0.63</v>
+      </c>
       <c r="BE19" s="15"/>
       <c r="BF19" s="15"/>
       <c r="BG19" s="15"/>
@@ -3017,7 +3244,7 @@
       <c r="BK20" s="12"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3029,15 +3256,15 @@
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="24" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3049,14 +3276,14 @@
       <c r="L21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -3068,14 +3295,14 @@
       <c r="T21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="20"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="18" t="s">
+      <c r="Y21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="7" t="s">
@@ -3087,14 +3314,14 @@
       <c r="AB21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="20" t="s">
+      <c r="AC21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="20"/>
+      <c r="AD21" s="22"/>
       <c r="AE21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG21" s="18" t="s">
+      <c r="AG21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AH21" s="12" t="s">
@@ -3106,15 +3333,15 @@
       <c r="AJ21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK21" s="20" t="s">
+      <c r="AK21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="20"/>
+      <c r="AL21" s="22"/>
       <c r="AM21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN21" s="14"/>
-      <c r="AO21" s="18" t="s">
+      <c r="AO21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AP21" s="15" t="s">
@@ -3126,15 +3353,15 @@
       <c r="AR21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS21" s="20" t="s">
+      <c r="AS21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="20"/>
+      <c r="AT21" s="22"/>
       <c r="AU21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV21" s="15"/>
-      <c r="AW21" s="18" t="s">
+      <c r="AW21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AX21" s="15" t="s">
@@ -3146,10 +3373,10 @@
       <c r="AZ21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA21" s="20" t="s">
+      <c r="BA21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB21" s="20"/>
+      <c r="BB21" s="22"/>
       <c r="BC21" s="14" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3390,7 @@
       <c r="BK21" s="12"/>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
@@ -3173,15 +3400,15 @@
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="9">
         <v>500</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3191,14 +3418,14 @@
       <c r="L22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="2">
         <v>500</v>
       </c>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="20"/>
       <c r="R22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3208,14 +3435,14 @@
       <c r="T22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="U22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="20"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="6">
         <v>500</v>
       </c>
-      <c r="Y22" s="18"/>
+      <c r="Y22" s="20"/>
       <c r="Z22" s="7" t="s">
         <v>6</v>
       </c>
@@ -3225,14 +3452,14 @@
       <c r="AB22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AC22" s="20" t="s">
+      <c r="AC22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AD22" s="20"/>
+      <c r="AD22" s="22"/>
       <c r="AE22" s="8">
         <v>500</v>
       </c>
-      <c r="AG22" s="18"/>
+      <c r="AG22" s="20"/>
       <c r="AH22" s="12" t="s">
         <v>6</v>
       </c>
@@ -3242,15 +3469,15 @@
       <c r="AJ22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AK22" s="20" t="s">
+      <c r="AK22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AL22" s="20"/>
+      <c r="AL22" s="22"/>
       <c r="AM22" s="13">
         <v>500</v>
       </c>
       <c r="AN22" s="14"/>
-      <c r="AO22" s="18"/>
+      <c r="AO22" s="20"/>
       <c r="AP22" s="15" t="s">
         <v>6</v>
       </c>
@@ -3260,15 +3487,15 @@
       <c r="AR22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AS22" s="20" t="s">
+      <c r="AS22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AT22" s="20"/>
+      <c r="AT22" s="22"/>
       <c r="AU22" s="14">
         <v>500</v>
       </c>
       <c r="AV22" s="15"/>
-      <c r="AW22" s="18"/>
+      <c r="AW22" s="20"/>
       <c r="AX22" s="15" t="s">
         <v>6</v>
       </c>
@@ -3278,10 +3505,10 @@
       <c r="AZ22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BA22" s="20" t="s">
+      <c r="BA22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BB22" s="20"/>
+      <c r="BB22" s="22"/>
       <c r="BC22" s="17">
         <v>500</v>
       </c>
@@ -3295,7 +3522,7 @@
       <c r="BK22" s="12"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
@@ -3305,15 +3532,15 @@
       <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="9">
         <v>500</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3323,14 +3550,14 @@
       <c r="L23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="2">
         <v>500</v>
       </c>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3340,14 +3567,14 @@
       <c r="T23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="U23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="20"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="6">
         <v>500</v>
       </c>
-      <c r="Y23" s="18"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="7" t="s">
         <v>7</v>
       </c>
@@ -3357,14 +3584,14 @@
       <c r="AB23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC23" s="20" t="s">
+      <c r="AC23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="20"/>
+      <c r="AD23" s="22"/>
       <c r="AE23" s="8">
         <v>500</v>
       </c>
-      <c r="AG23" s="18"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="12" t="s">
         <v>7</v>
       </c>
@@ -3374,15 +3601,15 @@
       <c r="AJ23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AK23" s="20" t="s">
+      <c r="AK23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AL23" s="20"/>
+      <c r="AL23" s="22"/>
       <c r="AM23" s="13">
         <v>500</v>
       </c>
       <c r="AN23" s="14"/>
-      <c r="AO23" s="18"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="15" t="s">
         <v>7</v>
       </c>
@@ -3392,15 +3619,15 @@
       <c r="AR23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AS23" s="20" t="s">
+      <c r="AS23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AT23" s="20"/>
+      <c r="AT23" s="22"/>
       <c r="AU23" s="14">
         <v>500</v>
       </c>
       <c r="AV23" s="15"/>
-      <c r="AW23" s="18"/>
+      <c r="AW23" s="20"/>
       <c r="AX23" s="15" t="s">
         <v>7</v>
       </c>
@@ -3410,10 +3637,10 @@
       <c r="AZ23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="BA23" s="20" t="s">
+      <c r="BA23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="BB23" s="20"/>
+      <c r="BB23" s="22"/>
       <c r="BC23" s="17">
         <v>500</v>
       </c>
@@ -3427,7 +3654,7 @@
       <c r="BK23" s="12"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -3435,7 +3662,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3445,14 +3672,14 @@
       <c r="L24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="21"/>
+      <c r="M24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="25"/>
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="Q24" s="18"/>
+      <c r="Q24" s="20"/>
       <c r="R24" s="5" t="s">
         <v>8</v>
       </c>
@@ -3462,14 +3689,14 @@
       <c r="T24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" s="20"/>
+      <c r="U24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="22"/>
       <c r="W24" s="6">
         <v>0</v>
       </c>
-      <c r="Y24" s="18"/>
+      <c r="Y24" s="20"/>
       <c r="Z24" s="7" t="s">
         <v>8</v>
       </c>
@@ -3479,14 +3706,14 @@
       <c r="AB24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="20"/>
+      <c r="AC24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="8">
         <v>0</v>
       </c>
-      <c r="AG24" s="18"/>
+      <c r="AG24" s="20"/>
       <c r="AH24" s="12" t="s">
         <v>8</v>
       </c>
@@ -3496,15 +3723,15 @@
       <c r="AJ24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL24" s="20"/>
+      <c r="AK24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="22"/>
       <c r="AM24" s="13">
         <v>0</v>
       </c>
       <c r="AN24" s="14"/>
-      <c r="AO24" s="18"/>
+      <c r="AO24" s="20"/>
       <c r="AP24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3514,13 +3741,13 @@
       <c r="AR24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT24" s="20"/>
+      <c r="AS24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="22"/>
       <c r="AU24" s="14"/>
       <c r="AV24" s="15"/>
-      <c r="AW24" s="18"/>
+      <c r="AW24" s="20"/>
       <c r="AX24" s="15" t="s">
         <v>8</v>
       </c>
@@ -3530,10 +3757,10 @@
       <c r="AZ24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB24" s="20"/>
+      <c r="BA24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB24" s="22"/>
       <c r="BC24" s="17">
         <v>0</v>
       </c>
@@ -3547,42 +3774,44 @@
       <c r="BK24" s="12"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="9">
         <v>1000</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="22"/>
+      <c r="H25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="24"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="2"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="Y25" s="18"/>
+      <c r="Y25" s="20"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AG25" s="18"/>
+      <c r="AG25" s="20"/>
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
@@ -3590,7 +3819,7 @@
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
       <c r="AN25" s="14"/>
-      <c r="AO25" s="18"/>
+      <c r="AO25" s="20"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
       <c r="AR25" s="15"/>
@@ -3598,7 +3827,7 @@
       <c r="AT25" s="14"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="15"/>
-      <c r="AW25" s="18"/>
+      <c r="AW25" s="20"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="15"/>
@@ -3615,7 +3844,7 @@
       <c r="BK25" s="12"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -3625,95 +3854,112 @@
       <c r="D26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="9">
         <v>1000</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="22"/>
+      <c r="H26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="24"/>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="21"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="2">
         <v>1000</v>
       </c>
-      <c r="Q26" s="18"/>
+      <c r="P26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="20"/>
       <c r="R26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="20" t="s">
+      <c r="U26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="20"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="6">
         <v>1000</v>
       </c>
-      <c r="Y26" s="18"/>
+      <c r="X26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y26" s="20"/>
       <c r="Z26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="20" t="s">
+      <c r="AC26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AD26" s="20"/>
+      <c r="AD26" s="22"/>
       <c r="AE26" s="8">
         <v>1000</v>
       </c>
-      <c r="AG26" s="18"/>
+      <c r="AF26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG26" s="20"/>
       <c r="AH26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
-      <c r="AK26" s="20" t="s">
+      <c r="AK26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AL26" s="20"/>
+      <c r="AL26" s="22"/>
       <c r="AM26" s="13">
         <v>1000</v>
       </c>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="18"/>
+      <c r="AN26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO26" s="20"/>
       <c r="AP26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ26" s="15"/>
       <c r="AR26" s="15"/>
-      <c r="AS26" s="20" t="s">
+      <c r="AS26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AT26" s="20"/>
+      <c r="AT26" s="22"/>
       <c r="AU26" s="14">
         <v>1000</v>
       </c>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="18"/>
+      <c r="AV26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW26" s="20"/>
       <c r="AX26" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
-      <c r="BA26" s="20" t="s">
+      <c r="BA26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BB26" s="20"/>
+      <c r="BB26" s="22"/>
       <c r="BC26" s="17">
         <v>1000</v>
       </c>
-      <c r="BD26" s="14"/>
+      <c r="BD26" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="BE26" s="15"/>
       <c r="BF26" s="15"/>
       <c r="BG26" s="15"/>
@@ -3723,7 +3969,7 @@
       <c r="BK26" s="12"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
@@ -3733,15 +3979,17 @@
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="9">
         <v>1000</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="22"/>
+      <c r="H27" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="24"/>
       <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3751,14 +3999,17 @@
       <c r="L27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="21"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="2">
         <v>1000</v>
       </c>
-      <c r="Q27" s="18"/>
+      <c r="P27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" s="20"/>
       <c r="R27" s="5" t="s">
         <v>18</v>
       </c>
@@ -3768,14 +4019,17 @@
       <c r="T27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U27" s="20" t="s">
+      <c r="U27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="V27" s="20"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="6">
         <v>1000</v>
       </c>
-      <c r="Y27" s="18"/>
+      <c r="X27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y27" s="20"/>
       <c r="Z27" s="7" t="s">
         <v>18</v>
       </c>
@@ -3785,14 +4039,17 @@
       <c r="AB27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC27" s="20" t="s">
+      <c r="AC27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AD27" s="20"/>
+      <c r="AD27" s="22"/>
       <c r="AE27" s="8">
         <v>1000</v>
       </c>
-      <c r="AG27" s="18"/>
+      <c r="AF27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG27" s="20"/>
       <c r="AH27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3802,15 +4059,17 @@
       <c r="AJ27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AK27" s="20" t="s">
+      <c r="AK27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AL27" s="20"/>
+      <c r="AL27" s="22"/>
       <c r="AM27" s="13">
         <v>1000</v>
       </c>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="18"/>
+      <c r="AN27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO27" s="20"/>
       <c r="AP27" s="15" t="s">
         <v>18</v>
       </c>
@@ -3820,15 +4079,17 @@
       <c r="AR27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AS27" s="20" t="s">
+      <c r="AS27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AT27" s="20"/>
+      <c r="AT27" s="22"/>
       <c r="AU27" s="14">
         <v>1000</v>
       </c>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="18"/>
+      <c r="AV27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW27" s="20"/>
       <c r="AX27" s="15" t="s">
         <v>18</v>
       </c>
@@ -3838,14 +4099,16 @@
       <c r="AZ27" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BA27" s="20" t="s">
+      <c r="BA27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BB27" s="20"/>
+      <c r="BB27" s="22"/>
       <c r="BC27" s="17">
         <v>1000</v>
       </c>
-      <c r="BD27" s="14"/>
+      <c r="BD27" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="BE27" s="15"/>
       <c r="BF27" s="15"/>
       <c r="BG27" s="15"/>
@@ -3863,7 +4126,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="1" t="s">
         <v>19</v>
       </c>
@@ -3873,14 +4136,17 @@
       <c r="L28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="24"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="2">
         <v>1000</v>
       </c>
-      <c r="Q28" s="18"/>
+      <c r="P28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="Q28" s="20"/>
       <c r="R28" s="5" t="s">
         <v>19</v>
       </c>
@@ -3897,7 +4163,10 @@
       <c r="W28" s="6">
         <v>1000</v>
       </c>
-      <c r="Y28" s="18"/>
+      <c r="X28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="7" t="s">
         <v>19</v>
       </c>
@@ -3914,8 +4183,10 @@
       <c r="AE28" s="8">
         <v>1000</v>
       </c>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="18"/>
+      <c r="AF28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="12" t="s">
         <v>19</v>
       </c>
@@ -3925,15 +4196,17 @@
       <c r="AJ28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AK28" s="20" t="s">
+      <c r="AK28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AL28" s="20"/>
+      <c r="AL28" s="22"/>
       <c r="AM28" s="13">
         <v>1000</v>
       </c>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="18"/>
+      <c r="AN28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="15" t="s">
         <v>19</v>
       </c>
@@ -3950,8 +4223,10 @@
       <c r="AU28" s="14">
         <v>1000</v>
       </c>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="18"/>
+      <c r="AV28" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="AW28" s="20"/>
       <c r="AX28" s="15" t="s">
         <v>19</v>
       </c>
@@ -3968,7 +4243,9 @@
       <c r="BC28" s="17">
         <v>1000</v>
       </c>
-      <c r="BD28" s="27"/>
+      <c r="BD28" s="18">
+        <v>0.75</v>
+      </c>
       <c r="BE28" s="15"/>
       <c r="BF28" s="15"/>
       <c r="BG28" s="15"/>
@@ -3978,7 +4255,7 @@
       <c r="BK28" s="12"/>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3990,10 +4267,10 @@
       <c r="D29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4003,21 +4280,21 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="1"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="V29" s="31"/>
       <c r="W29" s="5"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
+      <c r="AD29" s="31"/>
       <c r="AE29" s="7"/>
       <c r="AG29" s="12"/>
       <c r="AH29" s="12"/>
@@ -4026,6 +4303,7 @@
       <c r="AK29" s="12"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
+      <c r="AN29" s="18"/>
       <c r="AO29" s="15"/>
       <c r="AP29" s="15"/>
       <c r="AQ29" s="15"/>
@@ -4050,7 +4328,7 @@
       <c r="BK29" s="12"/>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
@@ -4060,15 +4338,15 @@
       <c r="D30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="10">
         <v>167</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="24" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -4080,14 +4358,14 @@
       <c r="L30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="19"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="20" t="s">
         <v>12</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -4099,14 +4377,14 @@
       <c r="T30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="19" t="s">
+      <c r="U30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="V30" s="19"/>
+      <c r="V30" s="21"/>
       <c r="W30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="18" t="s">
+      <c r="Y30" s="20" t="s">
         <v>12</v>
       </c>
       <c r="Z30" s="7" t="s">
@@ -4118,14 +4396,14 @@
       <c r="AB30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="19" t="s">
+      <c r="AC30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD30" s="19"/>
+      <c r="AD30" s="21"/>
       <c r="AE30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG30" s="18" t="s">
+      <c r="AG30" s="20" t="s">
         <v>12</v>
       </c>
       <c r="AH30" s="12" t="s">
@@ -4137,15 +4415,15 @@
       <c r="AJ30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK30" s="19" t="s">
+      <c r="AK30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AL30" s="19"/>
+      <c r="AL30" s="21"/>
       <c r="AM30" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN30" s="14"/>
-      <c r="AO30" s="18" t="s">
+      <c r="AO30" s="20" t="s">
         <v>12</v>
       </c>
       <c r="AP30" s="15" t="s">
@@ -4157,15 +4435,15 @@
       <c r="AR30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS30" s="19" t="s">
+      <c r="AS30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AT30" s="19"/>
+      <c r="AT30" s="21"/>
       <c r="AU30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV30" s="15"/>
-      <c r="AW30" s="18" t="s">
+      <c r="AW30" s="20" t="s">
         <v>12</v>
       </c>
       <c r="AX30" s="15" t="s">
@@ -4177,10 +4455,10 @@
       <c r="AZ30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA30" s="19" t="s">
+      <c r="BA30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BB30" s="19"/>
+      <c r="BB30" s="21"/>
       <c r="BC30" s="17" t="s">
         <v>14</v>
       </c>
@@ -4194,7 +4472,7 @@
       <c r="BK30" s="12"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
@@ -4204,15 +4482,15 @@
       <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="10">
         <v>769</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="10" t="s">
         <v>6</v>
       </c>
@@ -4222,14 +4500,14 @@
       <c r="L31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="20"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="3">
         <v>167</v>
       </c>
-      <c r="Q31" s="18"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="5" t="s">
         <v>6</v>
       </c>
@@ -4239,14 +4517,14 @@
       <c r="T31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U31" s="20" t="s">
+      <c r="U31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="V31" s="20"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="5">
         <v>167</v>
       </c>
-      <c r="Y31" s="18"/>
+      <c r="Y31" s="20"/>
       <c r="Z31" s="7" t="s">
         <v>6</v>
       </c>
@@ -4256,14 +4534,14 @@
       <c r="AB31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AC31" s="20" t="s">
+      <c r="AC31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AD31" s="20"/>
+      <c r="AD31" s="22"/>
       <c r="AE31" s="7">
         <v>167</v>
       </c>
-      <c r="AG31" s="18"/>
+      <c r="AG31" s="20"/>
       <c r="AH31" s="12" t="s">
         <v>6</v>
       </c>
@@ -4273,14 +4551,14 @@
       <c r="AJ31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AK31" s="20" t="s">
+      <c r="AK31" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AL31" s="20"/>
+      <c r="AL31" s="22"/>
       <c r="AM31" s="12">
         <v>167</v>
       </c>
-      <c r="AO31" s="18"/>
+      <c r="AO31" s="20"/>
       <c r="AP31" s="15" t="s">
         <v>6</v>
       </c>
@@ -4290,15 +4568,15 @@
       <c r="AR31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AS31" s="20" t="s">
+      <c r="AS31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AT31" s="20"/>
+      <c r="AT31" s="22"/>
       <c r="AU31" s="15">
         <v>167</v>
       </c>
       <c r="AV31" s="15"/>
-      <c r="AW31" s="18"/>
+      <c r="AW31" s="20"/>
       <c r="AX31" s="15" t="s">
         <v>6</v>
       </c>
@@ -4308,10 +4586,10 @@
       <c r="AZ31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BA31" s="20" t="s">
+      <c r="BA31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="BB31" s="20"/>
+      <c r="BB31" s="22"/>
       <c r="BC31" s="17">
         <v>167</v>
       </c>
@@ -4324,7 +4602,7 @@
       <c r="BK31" s="12"/>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4332,7 +4610,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="10" t="s">
         <v>7</v>
       </c>
@@ -4342,14 +4620,14 @@
       <c r="L32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="20"/>
+      <c r="N32" s="22"/>
       <c r="O32" s="3">
         <v>769</v>
       </c>
-      <c r="Q32" s="18"/>
+      <c r="Q32" s="20"/>
       <c r="R32" s="5" t="s">
         <v>7</v>
       </c>
@@ -4359,14 +4637,14 @@
       <c r="T32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U32" s="20" t="s">
+      <c r="U32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="V32" s="20"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="5">
         <v>769</v>
       </c>
-      <c r="Y32" s="18"/>
+      <c r="Y32" s="20"/>
       <c r="Z32" s="7" t="s">
         <v>7</v>
       </c>
@@ -4376,14 +4654,14 @@
       <c r="AB32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AC32" s="20" t="s">
+      <c r="AC32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AD32" s="20"/>
+      <c r="AD32" s="22"/>
       <c r="AE32" s="7">
         <v>769</v>
       </c>
-      <c r="AG32" s="18"/>
+      <c r="AG32" s="20"/>
       <c r="AH32" s="12" t="s">
         <v>7</v>
       </c>
@@ -4393,14 +4671,14 @@
       <c r="AJ32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AK32" s="20" t="s">
+      <c r="AK32" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AL32" s="20"/>
+      <c r="AL32" s="22"/>
       <c r="AM32" s="12">
         <v>769</v>
       </c>
-      <c r="AO32" s="18"/>
+      <c r="AO32" s="20"/>
       <c r="AP32" s="15" t="s">
         <v>7</v>
       </c>
@@ -4410,15 +4688,15 @@
       <c r="AR32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AS32" s="20" t="s">
+      <c r="AS32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AT32" s="20"/>
+      <c r="AT32" s="22"/>
       <c r="AU32" s="15">
         <v>769</v>
       </c>
       <c r="AV32" s="15"/>
-      <c r="AW32" s="18"/>
+      <c r="AW32" s="20"/>
       <c r="AX32" s="15" t="s">
         <v>7</v>
       </c>
@@ -4428,10 +4706,10 @@
       <c r="AZ32" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="BA32" s="20" t="s">
+      <c r="BA32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="BB32" s="20"/>
+      <c r="BB32" s="22"/>
       <c r="BC32" s="17">
         <v>769</v>
       </c>
@@ -4444,21 +4722,23 @@
       <c r="BK32" s="12"/>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="10">
         <v>936</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="22"/>
+      <c r="H33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="24"/>
       <c r="J33" s="10" t="s">
         <v>8</v>
       </c>
@@ -4468,14 +4748,14 @@
       <c r="L33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="20"/>
+      <c r="M33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="22"/>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="18"/>
+      <c r="Q33" s="20"/>
       <c r="R33" s="5" t="s">
         <v>8</v>
       </c>
@@ -4485,14 +4765,14 @@
       <c r="T33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="20"/>
+      <c r="U33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="22"/>
       <c r="W33" s="5">
         <v>0</v>
       </c>
-      <c r="Y33" s="18"/>
+      <c r="Y33" s="20"/>
       <c r="Z33" s="7" t="s">
         <v>8</v>
       </c>
@@ -4502,14 +4782,14 @@
       <c r="AB33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD33" s="20"/>
+      <c r="AC33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="22"/>
       <c r="AE33" s="7">
         <v>0</v>
       </c>
-      <c r="AG33" s="18"/>
+      <c r="AG33" s="20"/>
       <c r="AH33" s="12" t="s">
         <v>8</v>
       </c>
@@ -4519,14 +4799,14 @@
       <c r="AJ33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL33" s="20"/>
+      <c r="AK33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL33" s="22"/>
       <c r="AM33" s="12">
         <v>0</v>
       </c>
-      <c r="AO33" s="18"/>
+      <c r="AO33" s="20"/>
       <c r="AP33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4536,15 +4816,15 @@
       <c r="AR33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT33" s="20"/>
+      <c r="AS33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT33" s="22"/>
       <c r="AU33" s="15">
         <v>0</v>
       </c>
       <c r="AV33" s="15"/>
-      <c r="AW33" s="18"/>
+      <c r="AW33" s="20"/>
       <c r="AX33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4554,10 +4834,10 @@
       <c r="AZ33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB33" s="20"/>
+      <c r="BA33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB33" s="22"/>
       <c r="BC33" s="17">
         <v>0</v>
       </c>
@@ -4570,7 +4850,7 @@
       <c r="BK33" s="12"/>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -4580,43 +4860,45 @@
       <c r="D34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="10">
         <v>936</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="22"/>
+      <c r="H34" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="24"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
-      <c r="Q34" s="18"/>
+      <c r="Q34" s="20"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="5"/>
-      <c r="Y34" s="18"/>
+      <c r="Y34" s="20"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="7"/>
-      <c r="AG34" s="18"/>
+      <c r="AG34" s="20"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="12"/>
-      <c r="AO34" s="18"/>
+      <c r="AO34" s="20"/>
       <c r="AP34" s="15"/>
       <c r="AQ34" s="15"/>
       <c r="AR34" s="15"/>
@@ -4624,7 +4906,7 @@
       <c r="AT34" s="14"/>
       <c r="AU34" s="15"/>
       <c r="AV34" s="15"/>
-      <c r="AW34" s="18"/>
+      <c r="AW34" s="20"/>
       <c r="AX34" s="15"/>
       <c r="AY34" s="15"/>
       <c r="AZ34" s="15"/>
@@ -4640,7 +4922,7 @@
       <c r="BK34" s="12"/>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -4650,92 +4932,111 @@
       <c r="D35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="10">
         <v>936</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="I35" s="24"/>
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="20"/>
+      <c r="N35" s="22"/>
       <c r="O35" s="3">
         <v>936</v>
       </c>
-      <c r="Q35" s="18"/>
+      <c r="P35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q35" s="20"/>
       <c r="R35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="V35" s="20"/>
+      <c r="V35" s="22"/>
       <c r="W35" s="5">
         <v>936</v>
       </c>
-      <c r="Y35" s="18"/>
+      <c r="X35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y35" s="20"/>
       <c r="Z35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="20" t="s">
+      <c r="AC35" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AD35" s="20"/>
+      <c r="AD35" s="22"/>
       <c r="AE35" s="7">
         <v>936</v>
       </c>
-      <c r="AG35" s="18"/>
+      <c r="AF35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG35" s="20"/>
       <c r="AH35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
-      <c r="AK35" s="20" t="s">
+      <c r="AK35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AL35" s="20"/>
+      <c r="AL35" s="22"/>
       <c r="AM35" s="12">
         <v>936</v>
       </c>
-      <c r="AO35" s="18"/>
+      <c r="AN35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO35" s="20"/>
       <c r="AP35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ35" s="15"/>
       <c r="AR35" s="15"/>
-      <c r="AS35" s="20" t="s">
+      <c r="AS35" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AT35" s="20"/>
+      <c r="AT35" s="22"/>
       <c r="AU35" s="15">
         <v>936</v>
       </c>
-      <c r="AV35" s="15"/>
-      <c r="AW35" s="18"/>
+      <c r="AV35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW35" s="20"/>
       <c r="AX35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY35" s="15"/>
       <c r="AZ35" s="15"/>
-      <c r="BA35" s="20" t="s">
+      <c r="BA35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BB35" s="20"/>
+      <c r="BB35" s="22"/>
       <c r="BC35" s="17">
         <v>936</v>
+      </c>
+      <c r="BD35" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="BE35" s="15"/>
       <c r="BF35" s="15"/>
@@ -4754,7 +5055,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4764,14 +5065,17 @@
       <c r="L36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="20"/>
+      <c r="N36" s="22"/>
       <c r="O36" s="3">
         <v>936</v>
       </c>
-      <c r="Q36" s="18"/>
+      <c r="P36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" s="20"/>
       <c r="R36" s="5" t="s">
         <v>18</v>
       </c>
@@ -4781,14 +5085,17 @@
       <c r="T36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="20" t="s">
+      <c r="U36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="V36" s="20"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="5">
         <v>936</v>
       </c>
-      <c r="Y36" s="18"/>
+      <c r="X36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y36" s="20"/>
       <c r="Z36" s="7" t="s">
         <v>18</v>
       </c>
@@ -4798,14 +5105,17 @@
       <c r="AB36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AC36" s="20" t="s">
+      <c r="AC36" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AD36" s="20"/>
+      <c r="AD36" s="22"/>
       <c r="AE36" s="7">
         <v>936</v>
       </c>
-      <c r="AG36" s="18"/>
+      <c r="AF36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG36" s="20"/>
       <c r="AH36" s="12" t="s">
         <v>18</v>
       </c>
@@ -4815,14 +5125,17 @@
       <c r="AJ36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AK36" s="20" t="s">
+      <c r="AK36" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" s="20"/>
+      <c r="AL36" s="22"/>
       <c r="AM36" s="12">
         <v>936</v>
       </c>
-      <c r="AO36" s="18"/>
+      <c r="AN36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO36" s="20"/>
       <c r="AP36" s="15" t="s">
         <v>18</v>
       </c>
@@ -4832,15 +5145,17 @@
       <c r="AR36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AS36" s="20" t="s">
+      <c r="AS36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AT36" s="20"/>
+      <c r="AT36" s="22"/>
       <c r="AU36" s="15">
         <v>936</v>
       </c>
-      <c r="AV36" s="15"/>
-      <c r="AW36" s="18"/>
+      <c r="AV36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW36" s="20"/>
       <c r="AX36" s="15" t="s">
         <v>18</v>
       </c>
@@ -4850,12 +5165,15 @@
       <c r="AZ36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BA36" s="20" t="s">
+      <c r="BA36" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="BB36" s="20"/>
+      <c r="BB36" s="22"/>
       <c r="BC36" s="17">
         <v>936</v>
+      </c>
+      <c r="BD36" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="BE36" s="15"/>
       <c r="BF36" s="15"/>
@@ -4866,7 +5184,7 @@
       <c r="BK36" s="12"/>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -4878,15 +5196,15 @@
       <c r="D37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4896,14 +5214,17 @@
       <c r="L37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="20"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="3">
         <v>936</v>
       </c>
-      <c r="Q37" s="18"/>
+      <c r="P37" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="Q37" s="20"/>
       <c r="R37" s="5" t="s">
         <v>19</v>
       </c>
@@ -4913,14 +5234,17 @@
       <c r="T37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U37" s="20" t="s">
+      <c r="U37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V37" s="20"/>
+      <c r="V37" s="22"/>
       <c r="W37" s="5">
         <v>936</v>
       </c>
-      <c r="Y37" s="18"/>
+      <c r="X37" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="Y37" s="20"/>
       <c r="Z37" s="7" t="s">
         <v>19</v>
       </c>
@@ -4930,14 +5254,17 @@
       <c r="AB37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AC37" s="20" t="s">
+      <c r="AC37" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AD37" s="20"/>
+      <c r="AD37" s="28"/>
       <c r="AE37" s="7">
         <v>936</v>
       </c>
-      <c r="AG37" s="18"/>
+      <c r="AF37" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="AG37" s="20"/>
       <c r="AH37" s="12" t="s">
         <v>19</v>
       </c>
@@ -4954,7 +5281,10 @@
       <c r="AM37" s="12">
         <v>936</v>
       </c>
-      <c r="AO37" s="18"/>
+      <c r="AN37" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="AO37" s="20"/>
       <c r="AP37" s="15" t="s">
         <v>19</v>
       </c>
@@ -4964,15 +5294,17 @@
       <c r="AR37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AS37" s="20" t="s">
+      <c r="AS37" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AT37" s="20"/>
+      <c r="AT37" s="28"/>
       <c r="AU37" s="15">
         <v>936</v>
       </c>
-      <c r="AV37" s="15"/>
-      <c r="AW37" s="18"/>
+      <c r="AV37" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="AW37" s="20"/>
       <c r="AX37" s="15" t="s">
         <v>19</v>
       </c>
@@ -4989,7 +5321,9 @@
       <c r="BC37" s="17">
         <v>936</v>
       </c>
-      <c r="BD37" s="28"/>
+      <c r="BD37" s="18">
+        <v>0.68</v>
+      </c>
       <c r="BE37" s="15"/>
       <c r="BF37" s="15"/>
       <c r="BG37" s="15"/>
@@ -4999,7 +5333,7 @@
       <c r="BK37" s="12"/>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="10" t="s">
         <v>6</v>
       </c>
@@ -5009,10 +5343,10 @@
       <c r="D38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="9">
         <v>483</v>
       </c>
@@ -5043,7 +5377,7 @@
       <c r="AI38" s="12"/>
       <c r="AJ38" s="12"/>
       <c r="AK38" s="12"/>
-      <c r="AL38" s="12"/>
+      <c r="AL38" s="31"/>
       <c r="AM38" s="12"/>
       <c r="AO38" s="15"/>
       <c r="AP38" s="15"/>
@@ -5069,7 +5403,7 @@
       <c r="BK38" s="12"/>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
@@ -5079,15 +5413,15 @@
       <c r="D39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="9">
         <v>517</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="24" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -5099,14 +5433,14 @@
       <c r="L39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="21"/>
+      <c r="N39" s="25"/>
       <c r="O39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -5118,14 +5452,14 @@
       <c r="T39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U39" s="20" t="s">
+      <c r="U39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="20"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="18" t="s">
+      <c r="Y39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="Z39" s="7" t="s">
@@ -5137,14 +5471,14 @@
       <c r="AB39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC39" s="20" t="s">
+      <c r="AC39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AD39" s="20"/>
+      <c r="AD39" s="22"/>
       <c r="AE39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG39" s="18" t="s">
+      <c r="AG39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="AH39" s="12" t="s">
@@ -5156,15 +5490,15 @@
       <c r="AJ39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK39" s="20" t="s">
+      <c r="AK39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL39" s="20"/>
+      <c r="AL39" s="22"/>
       <c r="AM39" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AN39" s="14"/>
-      <c r="AO39" s="18" t="s">
+      <c r="AO39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="AP39" s="15" t="s">
@@ -5176,15 +5510,15 @@
       <c r="AR39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS39" s="20" t="s">
+      <c r="AS39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AT39" s="20"/>
+      <c r="AT39" s="22"/>
       <c r="AU39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AV39" s="15"/>
-      <c r="AW39" s="18" t="s">
+      <c r="AW39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="AX39" s="15" t="s">
@@ -5196,10 +5530,10 @@
       <c r="AZ39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BA39" s="20" t="s">
+      <c r="BA39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB39" s="20"/>
+      <c r="BB39" s="22"/>
       <c r="BC39" s="17" t="s">
         <v>14</v>
       </c>
@@ -5213,7 +5547,7 @@
       <c r="BK39" s="12"/>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -5221,7 +5555,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="1" t="s">
         <v>6</v>
       </c>
@@ -5231,14 +5565,14 @@
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="21"/>
+      <c r="N40" s="25"/>
       <c r="O40" s="2">
         <v>483</v>
       </c>
-      <c r="Q40" s="18"/>
+      <c r="Q40" s="20"/>
       <c r="R40" s="5" t="s">
         <v>6</v>
       </c>
@@ -5248,14 +5582,14 @@
       <c r="T40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U40" s="20" t="s">
+      <c r="U40" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="V40" s="20"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="6">
         <v>483</v>
       </c>
-      <c r="Y40" s="18"/>
+      <c r="Y40" s="20"/>
       <c r="Z40" s="7" t="s">
         <v>6</v>
       </c>
@@ -5265,14 +5599,14 @@
       <c r="AB40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AC40" s="20" t="s">
+      <c r="AC40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AD40" s="20"/>
+      <c r="AD40" s="22"/>
       <c r="AE40" s="8">
         <v>483</v>
       </c>
-      <c r="AG40" s="18"/>
+      <c r="AG40" s="20"/>
       <c r="AH40" s="12" t="s">
         <v>6</v>
       </c>
@@ -5282,15 +5616,15 @@
       <c r="AJ40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AK40" s="20" t="s">
+      <c r="AK40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AL40" s="20"/>
+      <c r="AL40" s="22"/>
       <c r="AM40" s="13">
         <v>483</v>
       </c>
       <c r="AN40" s="14"/>
-      <c r="AO40" s="18"/>
+      <c r="AO40" s="20"/>
       <c r="AP40" s="15" t="s">
         <v>6</v>
       </c>
@@ -5300,15 +5634,15 @@
       <c r="AR40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AS40" s="20" t="s">
+      <c r="AS40" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AT40" s="20"/>
+      <c r="AT40" s="22"/>
       <c r="AU40" s="14">
         <v>483</v>
       </c>
       <c r="AV40" s="15"/>
-      <c r="AW40" s="18"/>
+      <c r="AW40" s="20"/>
       <c r="AX40" s="15" t="s">
         <v>6</v>
       </c>
@@ -5318,10 +5652,10 @@
       <c r="AZ40" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="BA40" s="20" t="s">
+      <c r="BA40" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BB40" s="20"/>
+      <c r="BB40" s="22"/>
       <c r="BC40" s="17">
         <v>483</v>
       </c>
@@ -5335,21 +5669,23 @@
       <c r="BK40" s="12"/>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="9">
         <v>1000</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="22"/>
+      <c r="H41" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="24"/>
       <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
@@ -5359,14 +5695,14 @@
       <c r="L41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="21"/>
+      <c r="N41" s="25"/>
       <c r="O41" s="2">
         <v>517</v>
       </c>
-      <c r="Q41" s="18"/>
+      <c r="Q41" s="20"/>
       <c r="R41" s="5" t="s">
         <v>7</v>
       </c>
@@ -5376,14 +5712,14 @@
       <c r="T41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="20" t="s">
+      <c r="U41" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="V41" s="20"/>
+      <c r="V41" s="22"/>
       <c r="W41" s="6">
         <v>517</v>
       </c>
-      <c r="Y41" s="18"/>
+      <c r="Y41" s="20"/>
       <c r="Z41" s="7" t="s">
         <v>7</v>
       </c>
@@ -5393,14 +5729,14 @@
       <c r="AB41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC41" s="20" t="s">
+      <c r="AC41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="20"/>
+      <c r="AD41" s="22"/>
       <c r="AE41" s="8">
         <v>517</v>
       </c>
-      <c r="AG41" s="18"/>
+      <c r="AG41" s="20"/>
       <c r="AH41" s="12" t="s">
         <v>7</v>
       </c>
@@ -5410,15 +5746,15 @@
       <c r="AJ41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK41" s="20" t="s">
+      <c r="AK41" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL41" s="20"/>
+      <c r="AL41" s="22"/>
       <c r="AM41" s="13">
         <v>517</v>
       </c>
       <c r="AN41" s="14"/>
-      <c r="AO41" s="18"/>
+      <c r="AO41" s="20"/>
       <c r="AP41" s="15" t="s">
         <v>7</v>
       </c>
@@ -5428,15 +5764,15 @@
       <c r="AR41" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS41" s="20" t="s">
+      <c r="AS41" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AT41" s="20"/>
+      <c r="AT41" s="22"/>
       <c r="AU41" s="14">
         <v>517</v>
       </c>
       <c r="AV41" s="15"/>
-      <c r="AW41" s="18"/>
+      <c r="AW41" s="20"/>
       <c r="AX41" s="15" t="s">
         <v>7</v>
       </c>
@@ -5446,10 +5782,10 @@
       <c r="AZ41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BA41" s="20" t="s">
+      <c r="BA41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="BB41" s="20"/>
+      <c r="BB41" s="22"/>
       <c r="BC41" s="17">
         <v>517</v>
       </c>
@@ -5463,7 +5799,7 @@
       <c r="BK41" s="12"/>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="10" t="s">
         <v>18</v>
       </c>
@@ -5473,15 +5809,17 @@
       <c r="D42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="9">
         <v>1000</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="22"/>
+      <c r="H42" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="24"/>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
@@ -5491,14 +5829,14 @@
       <c r="L42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="21"/>
+      <c r="M42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="25"/>
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="Q42" s="18"/>
+      <c r="Q42" s="20"/>
       <c r="R42" s="5" t="s">
         <v>8</v>
       </c>
@@ -5508,14 +5846,14 @@
       <c r="T42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" s="20"/>
+      <c r="U42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="22"/>
       <c r="W42" s="6">
         <v>0</v>
       </c>
-      <c r="Y42" s="18"/>
+      <c r="Y42" s="20"/>
       <c r="Z42" s="7" t="s">
         <v>8</v>
       </c>
@@ -5525,14 +5863,14 @@
       <c r="AB42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD42" s="20"/>
+      <c r="AC42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="22"/>
       <c r="AE42" s="8">
         <v>0</v>
       </c>
-      <c r="AG42" s="18"/>
+      <c r="AG42" s="20"/>
       <c r="AH42" s="12" t="s">
         <v>8</v>
       </c>
@@ -5542,15 +5880,15 @@
       <c r="AJ42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="20"/>
+      <c r="AK42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="22"/>
       <c r="AM42" s="13">
         <v>0</v>
       </c>
       <c r="AN42" s="14"/>
-      <c r="AO42" s="18"/>
+      <c r="AO42" s="20"/>
       <c r="AP42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5560,15 +5898,15 @@
       <c r="AR42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT42" s="20"/>
+      <c r="AS42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT42" s="22"/>
       <c r="AU42" s="14">
         <v>0</v>
       </c>
       <c r="AV42" s="15"/>
-      <c r="AW42" s="18"/>
+      <c r="AW42" s="20"/>
       <c r="AX42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5578,10 +5916,10 @@
       <c r="AZ42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BA42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB42" s="20"/>
+      <c r="BA42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB42" s="22"/>
       <c r="BC42" s="17">
         <v>0</v>
       </c>
@@ -5595,7 +5933,7 @@
       <c r="BK42" s="12"/>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -5605,36 +5943,38 @@
       <c r="D43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="9">
         <v>1000</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="22"/>
+      <c r="H43" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="I43" s="24"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="2"/>
-      <c r="Q43" s="18"/>
+      <c r="Q43" s="20"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="Y43" s="18"/>
+      <c r="Y43" s="20"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AG43" s="18"/>
+      <c r="AG43" s="20"/>
       <c r="AH43" s="12"/>
       <c r="AI43" s="12"/>
       <c r="AJ43" s="12"/>
@@ -5642,7 +5982,7 @@
       <c r="AL43" s="13"/>
       <c r="AM43" s="13"/>
       <c r="AN43" s="14"/>
-      <c r="AO43" s="18"/>
+      <c r="AO43" s="20"/>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="15"/>
@@ -5650,7 +5990,7 @@
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
       <c r="AV43" s="15"/>
-      <c r="AW43" s="18"/>
+      <c r="AW43" s="20"/>
       <c r="AX43" s="15"/>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
@@ -5669,87 +6009,102 @@
     <row r="44" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="21"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="2">
         <v>1000</v>
       </c>
-      <c r="Q44" s="18"/>
+      <c r="P44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="20"/>
       <c r="R44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="20" t="s">
+      <c r="U44" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="V44" s="20"/>
+      <c r="V44" s="22"/>
       <c r="W44" s="6">
         <v>1000</v>
       </c>
-      <c r="Y44" s="18"/>
+      <c r="X44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y44" s="20"/>
       <c r="Z44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
-      <c r="AC44" s="20" t="s">
+      <c r="AC44" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AD44" s="20"/>
+      <c r="AD44" s="22"/>
       <c r="AE44" s="8">
         <v>1000</v>
       </c>
-      <c r="AG44" s="18"/>
+      <c r="AF44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG44" s="20"/>
       <c r="AH44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="AI44" s="12"/>
       <c r="AJ44" s="12"/>
-      <c r="AK44" s="20" t="s">
+      <c r="AK44" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL44" s="20"/>
+      <c r="AL44" s="22"/>
       <c r="AM44" s="13">
         <v>1000</v>
       </c>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="18"/>
+      <c r="AN44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO44" s="20"/>
       <c r="AP44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AQ44" s="15"/>
       <c r="AR44" s="15"/>
-      <c r="AS44" s="20" t="s">
+      <c r="AS44" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AT44" s="20"/>
+      <c r="AT44" s="22"/>
       <c r="AU44" s="14">
         <v>1000</v>
       </c>
-      <c r="AV44" s="15"/>
-      <c r="AW44" s="18"/>
+      <c r="AV44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW44" s="20"/>
       <c r="AX44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
-      <c r="BA44" s="20" t="s">
+      <c r="BA44" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BB44" s="20"/>
+      <c r="BB44" s="22"/>
       <c r="BC44" s="17">
         <v>1000</v>
       </c>
-      <c r="BD44" s="14"/>
+      <c r="BD44" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="BE44" s="15"/>
       <c r="BF44" s="15"/>
       <c r="BG44" s="15"/>
@@ -5761,7 +6116,7 @@
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="1" t="s">
         <v>18</v>
       </c>
@@ -5771,14 +6126,17 @@
       <c r="L45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="N45" s="21"/>
+      <c r="N45" s="25"/>
       <c r="O45" s="2">
         <v>1000</v>
       </c>
-      <c r="Q45" s="18"/>
+      <c r="P45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q45" s="20"/>
       <c r="R45" s="5" t="s">
         <v>18</v>
       </c>
@@ -5788,14 +6146,17 @@
       <c r="T45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="20" t="s">
+      <c r="U45" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V45" s="20"/>
+      <c r="V45" s="22"/>
       <c r="W45" s="6">
         <v>1000</v>
       </c>
-      <c r="Y45" s="18"/>
+      <c r="X45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y45" s="20"/>
       <c r="Z45" s="7" t="s">
         <v>18</v>
       </c>
@@ -5805,14 +6166,17 @@
       <c r="AB45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AC45" s="20" t="s">
+      <c r="AC45" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AD45" s="20"/>
+      <c r="AD45" s="22"/>
       <c r="AE45" s="8">
         <v>1000</v>
       </c>
-      <c r="AG45" s="18"/>
+      <c r="AF45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG45" s="20"/>
       <c r="AH45" s="12" t="s">
         <v>18</v>
       </c>
@@ -5822,15 +6186,17 @@
       <c r="AJ45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK45" s="20" t="s">
+      <c r="AK45" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AL45" s="20"/>
+      <c r="AL45" s="22"/>
       <c r="AM45" s="13">
         <v>1000</v>
       </c>
-      <c r="AN45" s="14"/>
-      <c r="AO45" s="18"/>
+      <c r="AN45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO45" s="20"/>
       <c r="AP45" s="15" t="s">
         <v>18</v>
       </c>
@@ -5840,15 +6206,17 @@
       <c r="AR45" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AS45" s="20" t="s">
+      <c r="AS45" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AT45" s="20"/>
+      <c r="AT45" s="22"/>
       <c r="AU45" s="14">
         <v>1000</v>
       </c>
-      <c r="AV45" s="15"/>
-      <c r="AW45" s="18"/>
+      <c r="AV45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW45" s="20"/>
       <c r="AX45" s="15" t="s">
         <v>18</v>
       </c>
@@ -5858,14 +6226,16 @@
       <c r="AZ45" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BA45" s="20" t="s">
+      <c r="BA45" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="BB45" s="20"/>
+      <c r="BB45" s="22"/>
       <c r="BC45" s="17">
         <v>1000</v>
       </c>
-      <c r="BD45" s="14"/>
+      <c r="BD45" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="BE45" s="15"/>
       <c r="BF45" s="15"/>
       <c r="BG45" s="15"/>
@@ -5878,7 +6248,7 @@
       <c r="A46" s="16"/>
       <c r="B46" s="4"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="1" t="s">
         <v>19</v>
       </c>
@@ -5888,14 +6258,17 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="21" t="s">
+      <c r="M46" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="21"/>
+      <c r="N46" s="25"/>
       <c r="O46" s="2">
         <v>1000</v>
       </c>
-      <c r="Q46" s="18"/>
+      <c r="P46" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="Q46" s="20"/>
       <c r="R46" s="5" t="s">
         <v>19</v>
       </c>
@@ -5905,14 +6278,17 @@
       <c r="T46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U46" s="20" t="s">
+      <c r="U46" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="V46" s="20"/>
+      <c r="V46" s="28"/>
       <c r="W46" s="6">
         <v>1000</v>
       </c>
-      <c r="Y46" s="18"/>
+      <c r="X46" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="Y46" s="20"/>
       <c r="Z46" s="7" t="s">
         <v>19</v>
       </c>
@@ -5922,14 +6298,17 @@
       <c r="AB46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AC46" s="20" t="s">
+      <c r="AC46" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AD46" s="20"/>
+      <c r="AD46" s="28"/>
       <c r="AE46" s="8">
         <v>1000</v>
       </c>
-      <c r="AG46" s="18"/>
+      <c r="AF46" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AG46" s="20"/>
       <c r="AH46" s="12" t="s">
         <v>19</v>
       </c>
@@ -5939,15 +6318,17 @@
       <c r="AJ46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK46" s="20" t="s">
+      <c r="AK46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AL46" s="20"/>
+      <c r="AL46" s="22"/>
       <c r="AM46" s="13">
         <v>1000</v>
       </c>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="18"/>
+      <c r="AN46" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AO46" s="20"/>
       <c r="AP46" s="15" t="s">
         <v>19</v>
       </c>
@@ -5957,15 +6338,17 @@
       <c r="AR46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AS46" s="20" t="s">
+      <c r="AS46" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AT46" s="20"/>
+      <c r="AT46" s="28"/>
       <c r="AU46" s="14">
         <v>1000</v>
       </c>
-      <c r="AV46" s="15"/>
-      <c r="AW46" s="18"/>
+      <c r="AV46" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="AW46" s="20"/>
       <c r="AX46" s="15" t="s">
         <v>19</v>
       </c>
@@ -5975,14 +6358,16 @@
       <c r="AZ46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BA46" s="20" t="s">
+      <c r="BA46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BB46" s="20"/>
+      <c r="BB46" s="27"/>
       <c r="BC46" s="17">
         <v>1000</v>
       </c>
-      <c r="BD46" s="27"/>
+      <c r="BD46" s="18">
+        <v>0.67</v>
+      </c>
       <c r="BE46" s="15"/>
       <c r="BF46" s="15"/>
       <c r="BG46" s="15"/>
@@ -6083,73 +6468,219 @@
       <c r="AM57" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
-    <mergeCell ref="AG30:AG37"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AG39:AG46"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AG12:AG19"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG21:AG28"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="BF1:BJ2"/>
-    <mergeCell ref="BE3:BE10"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="Y30:Y37"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="Y39:Y46"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="Y21:Y28"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
+  <mergeCells count="300">
+    <mergeCell ref="BO1:BS2"/>
+    <mergeCell ref="BN3:BN10"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BR10:BS10"/>
+    <mergeCell ref="AW30:AW37"/>
+    <mergeCell ref="BA30:BB30"/>
+    <mergeCell ref="BA31:BB31"/>
+    <mergeCell ref="BA32:BB32"/>
+    <mergeCell ref="BA33:BB33"/>
+    <mergeCell ref="BA35:BB35"/>
+    <mergeCell ref="BA36:BB36"/>
+    <mergeCell ref="BA37:BB37"/>
+    <mergeCell ref="AW39:AW46"/>
+    <mergeCell ref="BA39:BB39"/>
+    <mergeCell ref="BA40:BB40"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BA42:BB42"/>
+    <mergeCell ref="BA44:BB44"/>
+    <mergeCell ref="BA45:BB45"/>
+    <mergeCell ref="BA46:BB46"/>
+    <mergeCell ref="AW12:AW19"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BA15:BB15"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="AW21:AW28"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="AX1:BB2"/>
+    <mergeCell ref="AW3:AW10"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="AS39:AT39"/>
+    <mergeCell ref="AS40:AT40"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AS42:AT42"/>
+    <mergeCell ref="AS44:AT44"/>
+    <mergeCell ref="AS45:AT45"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AP1:AT2"/>
+    <mergeCell ref="AO21:AO28"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AS26:AT26"/>
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AS28:AT28"/>
+    <mergeCell ref="AO30:AO37"/>
+    <mergeCell ref="AS30:AT30"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AS32:AT32"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="AO3:AO10"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AO12:AO19"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AO39:AO46"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="AH1:AL2"/>
+    <mergeCell ref="AG3:AG10"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="Q30:Q37"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="Q39:Q46"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="Q12:Q19"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="R1:V2"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I39:I46"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
@@ -6174,209 +6705,70 @@
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="I30:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="I39:I46"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="R1:V2"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="Q12:Q19"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="Q30:Q37"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q39:Q46"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="AH1:AL2"/>
-    <mergeCell ref="AG3:AG10"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="AS37:AT37"/>
-    <mergeCell ref="AO3:AO10"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AO12:AO19"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="AO39:AO46"/>
-    <mergeCell ref="AS39:AT39"/>
-    <mergeCell ref="AS40:AT40"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AS42:AT42"/>
-    <mergeCell ref="AS44:AT44"/>
-    <mergeCell ref="AS45:AT45"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AP1:AT2"/>
-    <mergeCell ref="AO21:AO28"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AS24:AT24"/>
-    <mergeCell ref="AS26:AT26"/>
-    <mergeCell ref="AS27:AT27"/>
-    <mergeCell ref="AS28:AT28"/>
-    <mergeCell ref="AO30:AO37"/>
-    <mergeCell ref="AS30:AT30"/>
-    <mergeCell ref="AS31:AT31"/>
-    <mergeCell ref="AS32:AT32"/>
-    <mergeCell ref="AS33:AT33"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AS36:AT36"/>
-    <mergeCell ref="AX1:BB2"/>
-    <mergeCell ref="AW3:AW10"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="AW12:AW19"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BA15:BB15"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="AW21:AW28"/>
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="AW30:AW37"/>
-    <mergeCell ref="BA30:BB30"/>
-    <mergeCell ref="BA31:BB31"/>
-    <mergeCell ref="BA32:BB32"/>
-    <mergeCell ref="BA33:BB33"/>
-    <mergeCell ref="BA35:BB35"/>
-    <mergeCell ref="BA36:BB36"/>
-    <mergeCell ref="BA37:BB37"/>
-    <mergeCell ref="AW39:AW46"/>
-    <mergeCell ref="BA39:BB39"/>
-    <mergeCell ref="BA40:BB40"/>
-    <mergeCell ref="BA41:BB41"/>
-    <mergeCell ref="BA42:BB42"/>
-    <mergeCell ref="BA44:BB44"/>
-    <mergeCell ref="BA45:BB45"/>
-    <mergeCell ref="BA46:BB46"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="Y21:Y28"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="Y30:Y37"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="Y39:Y46"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="AG12:AG19"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG21:AG28"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AG30:AG37"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AG39:AG46"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AK46:AL46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
